--- a/read/리디북스 프로젝트 계획.xlsx
+++ b/read/리디북스 프로젝트 계획.xlsx
@@ -22,189 +22,655 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="399">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="399">
+  <x:si>
+    <x:t>* 로그인 / 회원가입 등의 페이지 에서는 header 부분에 로고만 있으며, 클릭 시 메인페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쓰기 / 다른사람리뷰 댓글,공감 / 스포일러가 있는 리뷰 블라인드(클릭 시 보기 가능) / 10개 단위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위시리스트로 보낼 수 있음, 보낼 시 팝업이뜨며 누르면 위시리스트페이지로 이동 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림페이지로 이동 / 이벤트, 쿠폰 등 알림을 나타내며 클릭 시 상세페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>책에 따라 없을 수도 있음 / 클릭 시 책 내용의 일부를 미리 보여줌 / 이미지형식?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1) 입력 시 - 검색 값과 관련된 도서 표시 예) ([e북]) 제목 작가 | 출판사 (19)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 입력 후 회원가입완료 버튼 누를 시 이메일로 인증번호를 발송하며 입력 시 최종적으로 완료 됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 또는 비밀번호가 잘못되어 일치하는 회원정보를 찾지 못했을 경우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출간정보 / 듣기 기능 / 파일 정보 / 지원 기기 / ISBN 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2) 입력 후 엔터 - 검색 페이지로 이동 / 검색란에 검색 값 유지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광고? 와 함께 보고있는 도서의 카테고리 분류 베스트셀러 10위 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>각각 체크하여 카트에서 삭제할 수도 있으면 구매/대여 할 수도 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일이 기억나지 않을때를 위한 고객센터 페이지로 이동하는 버튼이 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 각 입력란 마다 공란, 혹은 양식에 맞지 않으면 경고문이 발생함.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 선물하기 / 구매하기 - 각 선물하기 / 구매하기 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체크 후 인증버튼 클릭 시 통신사 선택 후 인증하는 팝업 페이지 생성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일, 비밀번호, 마케팅 정보 수신관리, 회원탈퇴 등 정보 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 후 보이는 버튼으로 클릭 시 마이리디의 캐쉬충전 탭 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>취소 - 일반회원가입/로그인/14세미만회원가입 선택하는 회원가입페이지로 돌아감</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3) 입력 후 목록 클릭 - 해당 책 상세페이지로 이동 / 검색란 검색 값 x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좌측 탭에는 위시리스트와 같은 탭, 구매/혜택관련 탭, 개인정보 탭이 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이용약관(필수) / 마케팅(선택) / 성별,생년제공(선택) 총 3개 동의됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일이 기억나지 않을 때를 위한 고객센터 페이지로 이동하는 버튼이 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객센터 / 공지사항 / 제공하는 서비스 / 회사소개 / 인재 채용 등 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색하고 싶은 도서와 도서 제목, 작가명에 해당하는 텍스트를 입력하면 검색페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 - 아이디, 비밀번호 입력 후 로그인 / 입력하지 않거나 틀릴 경우 경고문 발생</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 상태 유지(체크) - 체크 시 브라우저를 닫고 다시 접속해도 로그인 상태가 유지 됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 위시리스트 / 카트 - 클릭 시 아이콘 색상 변경 안내창 출력 / 다시 클릭하면 해제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>책이 포함 된 카테고리의 세부 분류 표시 / 클릭 시 해당 카테고리 항목 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>g</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>et</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>정보 변경 - 회원 탈퇴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 나중에 시간나면 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보 변경 페이지 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>payment_money</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값이 형식에 맞지 않음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>night_appPush</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pw와 pwChk가 동일함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미 가입되어있는 이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>delete_agree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값이 전달되지 않음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 하지 않은 상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notifucation_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매 / 대여 금액 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 중복 확인 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>introduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호랑 동일하게 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>select_agree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>payment_methods</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notification</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일 중복 확인 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>payment_agree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력한 값이 비밀번호와 다름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 간단하게 구현해볼 예정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>privacy_agree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일이 전달되지 않음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미 가입되어있는 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필수 동의가 선택되지 않음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인을 하기 위한 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>marketing_agree</x:t>
+  </x:si>
   <x:si>
     <x:t>5점을 기준으로 별점 평가</x:t>
   </x:si>
   <x:si>
-    <x:t>* 간단하게 구현해볼 예정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>introduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>notification</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색하고 싶은 도서와 도서 제목, 작가명에 해당하는 텍스트를 입력하면 검색페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 상태 유지(체크) - 체크 시 브라우저를 닫고 다시 접속해도 로그인 상태가 유지 됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>책이 포함 된 카테고리의 세부 분류 표시 / 클릭 시 해당 카테고리 항목 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 위시리스트 / 카트 - 클릭 시 아이콘 색상 변경 안내창 출력 / 다시 클릭하면 해제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 - 아이디, 비밀번호 입력 후 로그인 / 입력하지 않거나 틀릴 경우 경고문 발생</x:t>
-  </x:si>
-  <x:si>
-    <x:t>delete_agree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미 가입되어있는 이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>payment_agree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>marketing_agree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호랑 동일하게 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 중복 확인 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값이 전달되지 않음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일이 전달되지 않음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미 가입되어있는 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 하지 않은 상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력한 값이 비밀번호와 다름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구매 / 대여 금액 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필수 동의가 선택되지 않음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>notifucation_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>select_agree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일 중복 확인 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인을 하기 위한 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>privacy_agree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>payment_methods</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보 변경 페이지 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값이 형식에 맞지 않음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>night_appPush</x:t>
-  </x:si>
-  <x:si>
-    <x:t>payment_money</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보 변경 - 회원 탈퇴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pw와 pwChk가 동일함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 나중에 시간나면 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 로그인 / 회원가입 등의 페이지 에서는 header 부분에 로고만 있으며, 클릭 시 메인페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쓰기 / 다른사람리뷰 댓글,공감 / 스포일러가 있는 리뷰 블라인드(클릭 시 보기 가능) / 10개 단위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1) 입력 시 - 검색 값과 관련된 도서 표시 예) ([e북]) 제목 작가 | 출판사 (19)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 입력 후 회원가입완료 버튼 누를 시 이메일로 인증번호를 발송하며 입력 시 최종적으로 완료 됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>책에 따라 없을 수도 있음 / 클릭 시 책 내용의 일부를 미리 보여줌 / 이미지형식?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위시리스트로 보낼 수 있음, 보낼 시 팝업이뜨며 누르면 위시리스트페이지로 이동 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림페이지로 이동 / 이벤트, 쿠폰 등 알림을 나타내며 클릭 시 상세페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이용약관(필수) / 마케팅(선택) / 성별,생년제공(선택) 총 3개 동의됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일이 기억나지 않을 때를 위한 고객센터 페이지로 이동하는 버튼이 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3) 입력 후 목록 클릭 - 해당 책 상세페이지로 이동 / 검색란 검색 값 x</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객센터 / 공지사항 / 제공하는 서비스 / 회사소개 / 인재 채용 등 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 후 보이는 버튼으로 클릭 시 마이리디의 캐쉬충전 탭 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>취소 - 일반회원가입/로그인/14세미만회원가입 선택하는 회원가입페이지로 돌아감</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좌측 탭에는 위시리스트와 같은 탭, 구매/혜택관련 탭, 개인정보 탭이 있음</x:t>
+    <x:t>비밀번호 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매 가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보유 포인트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y','N'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요청 파라미터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림 동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카트 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일 구독</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대표저서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평점 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>point</x:t>
+  </x:si>
+  <x:si>
+    <x:t>책 표지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃 성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새 이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rent_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제 성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cash</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미 로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adult</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cart_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제 수단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필수입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐쉬 금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/serch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포인트 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전체동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평점 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일반 회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대여가능 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출생년도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sign_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이리디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마케팅동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약관동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AUTO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐쉬충전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색 성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>find_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ENUM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 명 :</x:t>
+  </x:si>
+  <x:si>
+    <x:t>year</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작품 소개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우측메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리뷰 내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>header</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST</x:t>
+  </x:si>
+  <x:si>
+    <x:t>review</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NULL 허용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 서재</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택입력 동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 찾기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>appPush</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gender</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이용약관 동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Method</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐쉬 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PWChk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gread</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Footer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>허용안함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>책 제목 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작품소개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제 실패</x:t>
+  </x:si>
+  <x:si>
+    <x:t>au_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새 비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>야간 앱 푸시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미리보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈퇴 사유</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sign_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저자 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>order</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력 값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>new_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tr_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐쉬 충전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번역가 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>detail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wish_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈퇴 성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배송지 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저자 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카트 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>buy_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>각 평점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cart</x:t>
+  </x:si>
+  <x:si>
+    <x:t>길이/설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 후</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대여 가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보유 캐쉬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈퇴 동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tr_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>book_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>author</x:t>
+  </x:si>
+  <x:si>
+    <x:t>응답코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pwChk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제 금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매가능 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상세주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>책 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cause</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현재 비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예)1999</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입 성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NULL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앱 푸시 수신</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도서 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>grade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YEAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>au_name</x:t>
   </x:si>
   <x:si>
     <x:t>로고는 각 2개로 구성(RIDIBOOKS, RIDISelect) 해당 로고를 클릭시 해당 메인 페이지로 이동</x:t>
   </x:si>
   <x:si>
-    <x:t>pw 와 pwchk 가 같지 않음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>켰을 때 - 검색한 기록 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>껐을 때 - 성인도서 포함 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디(5~20자 영문,숫자)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/member/chk_login</x:t>
+    <x:t>개인정보(필수) 전체동의와 별도로 체크해야 함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃 버튼과 캐시, 포인트, 쿠폰 등 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력한 값이 다를 경우 / 동의 체크가 안된 경우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작품의 소개 / 양에 따라 펼쳐보기/접기 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호 재설정 - 비밀번호 재설정 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위시리스트 / 카트 / 선물하기 / 구매하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입한 이메일을 이용하여 아이디를 찾는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8자이상 영문,숫자,특수문자 중 2가지 이상 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>법정대리인 동의 체크박스 미 체크 시 경고문 발생</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관심도서를 구매/대여 가능 으로 나뉘어 보여줌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일반 회원가입 - 일반 회원가입 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>클릭 시 마이리디 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐쉬충전 - 캐쉬충전 페이지로 이동</x:t>
   </x:si>
   <x:si>
     <x:t>/find/controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/check/controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 - 로그인 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지 / 클릭 시 이미지 확대</x:t>
   </x:si>
   <x:si>
     <x:t>회원가입
@@ -213,790 +679,61 @@
 내 서재</x:t>
   </x:si>
   <x:si>
+    <x:t>/signup/controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/member/controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 서재 - 내 서재 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>각 페이지의 하단 고정인 부분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4) 검색어 저장 켜기 끄기 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>켰을 때 - 검색한 기록 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/check/controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입 - 회원가입 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>껐을 때 - 성인도서 포함 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디(5~20자 영문,숫자)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 - 로그인 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지 / 클릭 시 이미지 확대</x:t>
+  </x:si>
+  <x:si>
     <x:t>회원상태(0-정상 / 1-탈퇴)</x:t>
   </x:si>
   <x:si>
-    <x:t>/member/controller</x:t>
-  </x:si>
-  <x:si>
     <x:t>작가 / 번역가 / 출판사 표시</x:t>
   </x:si>
   <x:si>
     <x:t>각 페이지의 상단 고정인 부분</x:t>
   </x:si>
   <x:si>
-    <x:t>/signup/controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 서재 - 내 서재 페이지로 이동</x:t>
+    <x:t>/member/chk_login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터베이스 : rdbooks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pw 와 pwchk 가 같지 않음</x:t>
   </x:si>
   <x:si>
     <x:t>pw와 pwChk가 동일하지 않음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>각 페이지의 하단 고정인 부분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>클릭 시 마이리디 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입 - 회원가입 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4) 검색어 저장 켜기 끄기 버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐쉬충전 - 캐쉬충전 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터베이스 : rdbooks</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도서 정보 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,2,3,4,5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sign_year</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5) 성인 제외 버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>buyprice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성인검색표시 여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호 찾기 성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>recommend</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택정보 제공동의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sign_gender</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sign_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATETIME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>형식이 잘못된 경우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일 중복 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>find_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>translator</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호 재설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위시리스트 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리디북스 페이지 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wishlist</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보 수집 동의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보가 없는 경우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>terms_agree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용 가능한 이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번역가 식별 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rentprice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>new_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sign_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 식별 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14세 미만 회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>au_career</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호 확인 성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호 재입력 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입을 위한 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bookinfo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>signup_date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카트 대여가능 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마지막 로그인 일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tr_career</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도서 식별 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>order_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위시리스트 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>au_birth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>au_books</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카트 구매가능 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>new_pwChk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tr_academic</x:t>
-  </x:si>
-  <x:si>
-    <x:t>login_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>memberinfo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출생년도(4자리)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tr_birth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리디북스 캐쉬 충전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카테고리 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도서 고유 식별번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 중복 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보 변경 성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>au_nation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tr_books</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tr_award</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>grade_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bookname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>all_agree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용 가능한 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>au_award</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포인트 고유 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 찾기 성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sign_pwChk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cash_money</x:t>
-  </x:si>
-  <x:si>
-    <x:t>au_academic</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도서 세부 페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tr_nation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저자 식별 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새 비밀번호 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>login_date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일 형식이 잘못됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미 가입된 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>point_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남 / 녀 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>email_subs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색 결과 없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요청 파라미터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rent_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cash</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃 성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미 로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보유 포인트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평점 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새 이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y','N'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카트 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제 성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구매 가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림 동의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대표저서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일 구독</x:t>
-  </x:si>
-  <x:si>
-    <x:t>point</x:t>
-  </x:si>
-  <x:si>
-    <x:t>책 표지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제 수단</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일반 회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐쉬 금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>약관동의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대여가능 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출생년도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전체동의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sign_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필수입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐쉬충전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/serch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AUTO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>find_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포인트 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평점 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>year</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이리디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cart_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마케팅동의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색 성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ENUM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 명 :</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작품 소개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adult</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우측메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 찾기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sign_pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Footer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>책 제목 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작품소개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미리보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택입력 동의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>허용안함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제 실패</x:t>
-  </x:si>
-  <x:si>
-    <x:t>au_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gread</x:t>
-  </x:si>
-  <x:si>
-    <x:t>야간 앱 푸시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈퇴 사유</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저자 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NULL 허용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 서재</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리뷰 내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>header</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>review</x:t>
-  </x:si>
-  <x:si>
-    <x:t>appPush</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새 비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gender</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이용약관 동의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Method</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐쉬 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PWChk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>응답코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보유 캐쉬</x:t>
-  </x:si>
-  <x:si>
-    <x:t>book_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐쉬 충전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tr_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tr_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>detail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 후</x:t>
-  </x:si>
-  <x:si>
-    <x:t>order</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력 값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>buy_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>author</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pwChk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>각 평점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카트 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제 금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈퇴 동의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>new_pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번역가 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wish_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈퇴 성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cart</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배송지 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저자 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>길이/설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대여 가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>책 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>앱 푸시 수신</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상세주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도서 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cause</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현재 비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>au_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구매가능 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예)1999</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입 성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>grade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저자 및 역자의 프로필 / 작가의 신간알림을 받는 버튼도 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보 변경을 할 수 있는 페이지로 이동하기 위한 비밀번호 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입 및 로그인 버튼을 캐쉬충전 및 내 서재 버튼으로 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 페이지로 이동 / 로그인 시 바로 알림페이지로 이동 됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 이후 책에 따라 안내, 책이포함된 세트, 시리즈 등 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 후 보이는 버튼으로 클릭 시 내 서재 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>각 컨텐츠를 클릭하면 상세페이지로 이동 또는 새 탭으로 열림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stay_login 체크 시 3일 / 기본 1시간 설정(세션)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력한 값이 저장된 정보와 다를 경우 / 형식에 맞지 않을 경우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색어를 입력하여 DB에 검색 후 검색 결과를 보여주는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5점을 기준으로 별모양으로 표시 / 숫자점수 / 평가한 인원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 또는 비밀번호가 잘못되어 일치하는 회원정보를 찾지 못했을 경우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>각각 체크하여 카트에서 삭제할 수도 있으면 구매/대여 할 수도 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출간정보 / 듣기 기능 / 파일 정보 / 지원 기기 / ISBN 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광고? 와 함께 보고있는 도서의 카테고리 분류 베스트셀러 10위 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2) 입력 후 엔터 - 검색 페이지로 이동 / 검색란에 검색 값 유지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일, 비밀번호, 마케팅 정보 수신관리, 회원탈퇴 등 정보 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일이 기억나지 않을때를 위한 고객센터 페이지로 이동하는 버튼이 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 각 입력란 마다 공란, 혹은 양식에 맞지 않으면 경고문이 발생함.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 선물하기 / 구매하기 - 각 선물하기 / 구매하기 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체크 후 인증버튼 클릭 시 통신사 선택 후 인증하는 팝업 페이지 생성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>켰을 때 - 성인 으로 분류된 책 표시안함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호 실수 확인을 위한 재입력 값 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 알림 여러 종류 받아보고 수정할 예정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인증 후 일반회원가입 페이지로 이동?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* () 부분은 해당사항 없으면 생략</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로필 업데이트 일자 및 수정 요청버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 또는 비밀번호가 전달되지 않음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 찾기 - 아이디 찾기 페이지로 이동</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -1012,6 +749,515 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>회원가입 및 로그인 버튼을 캐쉬충전 및 내 서재 버튼으로 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보 변경을 할 수 있는 페이지로 이동하기 위한 비밀번호 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5점을 기준으로 별모양으로 표시 / 숫자점수 / 평가한 인원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stay_login 체크 시 3일 / 기본 1시간 설정(세션)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 후 보이는 버튼으로 클릭 시 내 서재 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 페이지로 이동 / 로그인 시 바로 알림페이지로 이동 됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>각 컨텐츠를 클릭하면 상세페이지로 이동 또는 새 탭으로 열림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저자 및 역자의 프로필 / 작가의 신간알림을 받는 버튼도 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 이후 책에 따라 안내, 책이포함된 세트, 시리즈 등 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색어를 입력하여 DB에 검색 후 검색 결과를 보여주는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력한 값이 저장된 정보와 다를 경우 / 형식에 맞지 않을 경우</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>P</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>W</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q</x:t>
+  </x:si>
+  <x:si>
+    <x:t>허용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출생</x:t>
+  </x:si>
+  <x:si>
+    <x:t>코멘트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이콘</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리뷰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인덱스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로필</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>국적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연락처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>별점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색창</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>buy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 찾기 - 아이디 찾기 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호 실수 확인을 위한 재입력 값 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* () 부분은 해당사항 없으면 생략</x:t>
+  </x:si>
+  <x:si>
+    <x:t>켰을 때 - 성인 으로 분류된 책 표시안함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 알림 여러 종류 받아보고 수정할 예정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인증 후 일반회원가입 페이지로 이동?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 또는 비밀번호가 전달되지 않음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로필 업데이트 일자 및 수정 요청버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호 찾기 성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성인검색표시 여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recommend</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2,3,4,5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도서 정보 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택정보 제공동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sign_gender</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sign_year</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5) 성인 제외 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>buyprice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sign_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리디북스 페이지 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보가 없는 경우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보 수집 동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wishlist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용 가능한 이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위시리스트 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호 재설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>형식이 잘못된 경우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>translator</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>find_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATETIME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>terms_agree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일 중복 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번역가 식별 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카트 대여가능 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마지막 로그인 일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14세 미만 회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tr_career</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도서 식별 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입을 위한 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rentprice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>au_career</x:t>
+  </x:si>
+  <x:si>
+    <x:t>new_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sign_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호 확인 성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호 재입력 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 식별 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bookinfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>signup_date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>new_pwChk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리디북스 캐쉬 충전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>login_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위시리스트 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>memberinfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tr_birth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>au_books</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카테고리 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 중복 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보 변경 성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tr_academic</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출생년도(4자리)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카트 구매가능 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도서 고유 식별번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>au_birth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>order_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>au_nation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 찾기 성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>au_academic</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cash_money</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도서 세부 페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tr_books</x:t>
+  </x:si>
+  <x:si>
+    <x:t>all_agree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>au_award</x:t>
+  </x:si>
+  <x:si>
+    <x:t>grade_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포인트 고유 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sign_pwChk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tr_award</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bookname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용 가능한 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저자 식별 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색 결과 없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>point_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남 / 녀 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새 비밀번호 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tr_nation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일 형식이 잘못됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>email_subs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미 가입된 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>login_date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인상태에서만 접근 가능한 URL에 접근하기 위한 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* RIDISelect 페이지는 구현하지 않을 예정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>껐을 때 - 검색해도 기록 x / 검색했던 기록도 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최근 조회한 작품 표시 / 클릭 시 해 당 도서로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디와 이메일을 이용해 비밀번호를 재설정 할 수 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입한 이메일 주소를 이용해 아이디를 알려주는 방식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입한 아이디와 이메일을 이용하여 비밀번호를 재설정함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14세 미만회원가입 - 보호자 동의를 위한 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>로그인 상태</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 유지</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
     <x:r>
       <x:t>l</x:t>
     </x:r>
@@ -1026,19 +1272,6 @@
   </x:si>
   <x:si>
     <x:r>
-      <x:t>로그인 상태</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 유지</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
       <x:t>s</x:t>
     </x:r>
     <x:r>
@@ -1049,239 +1282,6 @@
       </x:rPr>
       <x:t>tay_login</x:t>
     </x:r>
-  </x:si>
-  <x:si>
-    <x:t>가입한 아이디와 이메일을 이용하여 비밀번호를 재설정함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인상태에서만 접근 가능한 URL에 접근하기 위한 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최근 조회한 작품 표시 / 클릭 시 해 당 도서로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입한 이메일 주소를 이용해 아이디를 알려주는 방식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14세 미만회원가입 - 보호자 동의를 위한 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디와 이메일을 이용해 비밀번호를 재설정 할 수 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* RIDISelect 페이지는 구현하지 않을 예정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>껐을 때 - 검색해도 기록 x / 검색했던 기록도 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>P</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>W</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>g</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>et</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>댓글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>코멘트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>허용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출생</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이콘</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인덱스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로필</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리뷰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>국적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색창</x:t>
-  </x:si>
-  <x:si>
-    <x:t>없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>별점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>buy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연락처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위시리스트 / 카트 / 선물하기 / 구매하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력한 값이 다를 경우 / 동의 체크가 안된 경우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관심도서를 구매/대여 가능 으로 나뉘어 보여줌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃 버튼과 캐시, 포인트, 쿠폰 등 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8자이상 영문,숫자,특수문자 중 2가지 이상 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작품의 소개 / 양에 따라 펼쳐보기/접기 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입한 이메일을 이용하여 아이디를 찾는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일반 회원가입 - 일반 회원가입 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>법정대리인 동의 체크박스 미 체크 시 경고문 발생</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호 재설정 - 비밀번호 재설정 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개인정보(필수) 전체동의와 별도로 체크해야 함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YEAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NULL</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2229,6 +2229,9 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -2393,9 +2396,6 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2430,6 +2430,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2450,6 +2451,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2470,6 +2472,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2500,6 +2503,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2530,6 +2534,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2607,6 +2612,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2641,6 +2647,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2675,6 +2682,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2719,6 +2727,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2762,6 +2771,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2853,7 +2863,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/drawings/drawing0.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3354,7 +3364,7 @@
   <x:sheetData>
     <x:row r="2" spans="2:2">
       <x:c r="B2" s="6" t="s">
-        <x:v>95</x:v>
+        <x:v>315</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="4:4">
@@ -3362,10 +3372,10 @@
     </x:row>
     <x:row r="4" spans="2:11">
       <x:c r="B4" s="24" t="s">
-        <x:v>237</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C4" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="D4" s="17"/>
       <x:c r="E4" s="17"/>
@@ -3378,41 +3388,41 @@
     </x:row>
     <x:row r="5" spans="1:12" s="6" customFormat="1">
       <x:c r="A5" s="4"/>
-      <x:c r="B5" s="69" t="s">
-        <x:v>352</x:v>
-      </x:c>
-      <x:c r="C5" s="73" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D5" s="74"/>
-      <x:c r="E5" s="74"/>
-      <x:c r="F5" s="74"/>
-      <x:c r="G5" s="74"/>
-      <x:c r="H5" s="74"/>
-      <x:c r="I5" s="74"/>
-      <x:c r="J5" s="74"/>
-      <x:c r="K5" s="75"/>
+      <x:c r="B5" s="70" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C5" s="74" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="D5" s="75"/>
+      <x:c r="E5" s="75"/>
+      <x:c r="F5" s="75"/>
+      <x:c r="G5" s="75"/>
+      <x:c r="H5" s="75"/>
+      <x:c r="I5" s="75"/>
+      <x:c r="J5" s="75"/>
+      <x:c r="K5" s="76"/>
       <x:c r="L5" s="4"/>
     </x:row>
     <x:row r="6" spans="1:12" s="6" customFormat="1">
       <x:c r="A6" s="4"/>
-      <x:c r="B6" s="70"/>
-      <x:c r="C6" s="68" t="s">
-        <x:v>334</x:v>
-      </x:c>
-      <x:c r="D6" s="68"/>
-      <x:c r="E6" s="68"/>
-      <x:c r="F6" s="68"/>
-      <x:c r="G6" s="68"/>
-      <x:c r="H6" s="68"/>
-      <x:c r="I6" s="68"/>
-      <x:c r="J6" s="68"/>
-      <x:c r="K6" s="72"/>
+      <x:c r="B6" s="71"/>
+      <x:c r="C6" s="69" t="s">
+        <x:v>389</x:v>
+      </x:c>
+      <x:c r="D6" s="69"/>
+      <x:c r="E6" s="69"/>
+      <x:c r="F6" s="69"/>
+      <x:c r="G6" s="69"/>
+      <x:c r="H6" s="69"/>
+      <x:c r="I6" s="69"/>
+      <x:c r="J6" s="69"/>
+      <x:c r="K6" s="73"/>
       <x:c r="L6" s="4"/>
     </x:row>
     <x:row r="7" spans="1:12" s="6" customFormat="1">
       <x:c r="A7" s="4"/>
-      <x:c r="B7" s="71"/>
+      <x:c r="B7" s="72"/>
       <x:c r="C7" s="18"/>
       <x:c r="D7" s="18"/>
       <x:c r="E7" s="18"/>
@@ -3426,164 +3436,164 @@
     </x:row>
     <x:row r="8" spans="1:12" s="6" customFormat="1">
       <x:c r="A8" s="4"/>
-      <x:c r="B8" s="70" t="s">
-        <x:v>372</x:v>
-      </x:c>
-      <x:c r="C8" s="68" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D8" s="68"/>
-      <x:c r="E8" s="68"/>
-      <x:c r="F8" s="68"/>
-      <x:c r="G8" s="68"/>
-      <x:c r="H8" s="68"/>
-      <x:c r="I8" s="68"/>
-      <x:c r="J8" s="68"/>
-      <x:c r="K8" s="72"/>
+      <x:c r="B8" s="71" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="C8" s="69" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D8" s="69"/>
+      <x:c r="E8" s="69"/>
+      <x:c r="F8" s="69"/>
+      <x:c r="G8" s="69"/>
+      <x:c r="H8" s="69"/>
+      <x:c r="I8" s="69"/>
+      <x:c r="J8" s="69"/>
+      <x:c r="K8" s="73"/>
       <x:c r="L8" s="4"/>
     </x:row>
     <x:row r="9" spans="1:12" s="6" customFormat="1">
       <x:c r="A9" s="4"/>
-      <x:c r="B9" s="70"/>
-      <x:c r="C9" s="68" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D9" s="68"/>
-      <x:c r="E9" s="68"/>
-      <x:c r="F9" s="68"/>
-      <x:c r="G9" s="68"/>
-      <x:c r="H9" s="68"/>
-      <x:c r="I9" s="68"/>
-      <x:c r="J9" s="68"/>
-      <x:c r="K9" s="72"/>
+      <x:c r="B9" s="71"/>
+      <x:c r="C9" s="69" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D9" s="69"/>
+      <x:c r="E9" s="69"/>
+      <x:c r="F9" s="69"/>
+      <x:c r="G9" s="69"/>
+      <x:c r="H9" s="69"/>
+      <x:c r="I9" s="69"/>
+      <x:c r="J9" s="69"/>
+      <x:c r="K9" s="73"/>
       <x:c r="L9" s="4"/>
     </x:row>
     <x:row r="10" spans="1:12" s="6" customFormat="1">
       <x:c r="A10" s="4"/>
-      <x:c r="B10" s="70"/>
-      <x:c r="C10" s="68" t="s">
-        <x:v>320</x:v>
-      </x:c>
-      <x:c r="D10" s="68"/>
-      <x:c r="E10" s="68"/>
-      <x:c r="F10" s="68"/>
-      <x:c r="G10" s="68"/>
-      <x:c r="H10" s="68"/>
-      <x:c r="I10" s="68"/>
-      <x:c r="J10" s="68"/>
-      <x:c r="K10" s="72"/>
+      <x:c r="B10" s="71"/>
+      <x:c r="C10" s="69" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="D10" s="69"/>
+      <x:c r="E10" s="69"/>
+      <x:c r="F10" s="69"/>
+      <x:c r="G10" s="69"/>
+      <x:c r="H10" s="69"/>
+      <x:c r="I10" s="69"/>
+      <x:c r="J10" s="69"/>
+      <x:c r="K10" s="73"/>
       <x:c r="L10" s="4"/>
     </x:row>
     <x:row r="11" spans="1:12" s="6" customFormat="1">
       <x:c r="A11" s="4"/>
-      <x:c r="B11" s="70"/>
-      <x:c r="C11" s="68" t="s">
-        <x:v>310</x:v>
-      </x:c>
-      <x:c r="D11" s="68"/>
-      <x:c r="E11" s="68"/>
-      <x:c r="F11" s="68"/>
-      <x:c r="G11" s="68"/>
-      <x:c r="H11" s="68"/>
-      <x:c r="I11" s="68"/>
-      <x:c r="J11" s="68"/>
-      <x:c r="K11" s="72"/>
+      <x:c r="B11" s="71"/>
+      <x:c r="C11" s="69" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D11" s="69"/>
+      <x:c r="E11" s="69"/>
+      <x:c r="F11" s="69"/>
+      <x:c r="G11" s="69"/>
+      <x:c r="H11" s="69"/>
+      <x:c r="I11" s="69"/>
+      <x:c r="J11" s="69"/>
+      <x:c r="K11" s="73"/>
       <x:c r="L11" s="4"/>
     </x:row>
     <x:row r="12" spans="1:12" s="6" customFormat="1">
       <x:c r="A12" s="4"/>
-      <x:c r="B12" s="70"/>
-      <x:c r="C12" s="68" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="D12" s="68"/>
-      <x:c r="E12" s="68"/>
-      <x:c r="F12" s="68"/>
-      <x:c r="G12" s="68"/>
-      <x:c r="H12" s="68"/>
-      <x:c r="I12" s="68"/>
-      <x:c r="J12" s="68"/>
-      <x:c r="K12" s="72"/>
+      <x:c r="B12" s="71"/>
+      <x:c r="C12" s="69" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D12" s="69"/>
+      <x:c r="E12" s="69"/>
+      <x:c r="F12" s="69"/>
+      <x:c r="G12" s="69"/>
+      <x:c r="H12" s="69"/>
+      <x:c r="I12" s="69"/>
+      <x:c r="J12" s="69"/>
+      <x:c r="K12" s="73"/>
       <x:c r="L12" s="4"/>
     </x:row>
     <x:row r="13" spans="1:12" s="6" customFormat="1">
       <x:c r="A13" s="4"/>
-      <x:c r="B13" s="70"/>
-      <x:c r="C13" s="68" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D13" s="68"/>
-      <x:c r="E13" s="68"/>
-      <x:c r="F13" s="68" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="G13" s="68"/>
-      <x:c r="H13" s="68"/>
-      <x:c r="I13" s="68"/>
-      <x:c r="J13" s="68"/>
-      <x:c r="K13" s="72"/>
+      <x:c r="B13" s="71"/>
+      <x:c r="C13" s="69" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="D13" s="69"/>
+      <x:c r="E13" s="69"/>
+      <x:c r="F13" s="69" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="G13" s="69"/>
+      <x:c r="H13" s="69"/>
+      <x:c r="I13" s="69"/>
+      <x:c r="J13" s="69"/>
+      <x:c r="K13" s="73"/>
       <x:c r="L13" s="4"/>
     </x:row>
     <x:row r="14" spans="1:12" s="6" customFormat="1">
       <x:c r="A14" s="4"/>
-      <x:c r="B14" s="70"/>
-      <x:c r="C14" s="68"/>
-      <x:c r="D14" s="68"/>
-      <x:c r="E14" s="68"/>
-      <x:c r="F14" s="68" t="s">
-        <x:v>335</x:v>
-      </x:c>
-      <x:c r="G14" s="68"/>
-      <x:c r="H14" s="68"/>
-      <x:c r="I14" s="68"/>
-      <x:c r="J14" s="68"/>
-      <x:c r="K14" s="72"/>
+      <x:c r="B14" s="71"/>
+      <x:c r="C14" s="69"/>
+      <x:c r="D14" s="69"/>
+      <x:c r="E14" s="69"/>
+      <x:c r="F14" s="69" t="s">
+        <x:v>390</x:v>
+      </x:c>
+      <x:c r="G14" s="69"/>
+      <x:c r="H14" s="69"/>
+      <x:c r="I14" s="69"/>
+      <x:c r="J14" s="69"/>
+      <x:c r="K14" s="73"/>
       <x:c r="L14" s="4"/>
     </x:row>
     <x:row r="15" spans="1:12" s="6" customFormat="1">
       <x:c r="A15" s="4"/>
-      <x:c r="B15" s="70"/>
-      <x:c r="C15" s="68" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D15" s="68"/>
-      <x:c r="E15" s="68"/>
-      <x:c r="F15" s="68" t="s">
-        <x:v>316</x:v>
-      </x:c>
-      <x:c r="G15" s="68"/>
-      <x:c r="H15" s="68"/>
-      <x:c r="I15" s="68"/>
-      <x:c r="J15" s="68"/>
-      <x:c r="K15" s="72"/>
+      <x:c r="B15" s="71"/>
+      <x:c r="C15" s="69" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="D15" s="69"/>
+      <x:c r="E15" s="69"/>
+      <x:c r="F15" s="69" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="G15" s="69"/>
+      <x:c r="H15" s="69"/>
+      <x:c r="I15" s="69"/>
+      <x:c r="J15" s="69"/>
+      <x:c r="K15" s="73"/>
       <x:c r="L15" s="4"/>
     </x:row>
     <x:row r="16" spans="1:12" s="6" customFormat="1">
       <x:c r="A16" s="4"/>
-      <x:c r="B16" s="71"/>
-      <x:c r="C16" s="66"/>
-      <x:c r="D16" s="66"/>
-      <x:c r="E16" s="66"/>
-      <x:c r="F16" s="66" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="G16" s="66"/>
-      <x:c r="H16" s="66"/>
-      <x:c r="I16" s="66"/>
-      <x:c r="J16" s="66"/>
-      <x:c r="K16" s="67"/>
+      <x:c r="B16" s="72"/>
+      <x:c r="C16" s="67"/>
+      <x:c r="D16" s="67"/>
+      <x:c r="E16" s="67"/>
+      <x:c r="F16" s="67" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="G16" s="67"/>
+      <x:c r="H16" s="67"/>
+      <x:c r="I16" s="67"/>
+      <x:c r="J16" s="67"/>
+      <x:c r="K16" s="68"/>
       <x:c r="L16" s="4"/>
     </x:row>
     <x:row r="17" spans="1:12" s="6" customFormat="1">
       <x:c r="A17" s="4"/>
-      <x:c r="B17" s="76" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C17" s="77" t="s">
-        <x:v>165</x:v>
+      <x:c r="B17" s="77" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="C17" s="78" t="s">
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D17" s="20" t="s">
-        <x:v>71</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="E17" s="20"/>
       <x:c r="F17" s="20"/>
@@ -3596,10 +3606,10 @@
     </x:row>
     <x:row r="18" spans="1:12" s="6" customFormat="1">
       <x:c r="A18" s="4"/>
-      <x:c r="B18" s="70"/>
-      <x:c r="C18" s="78"/>
+      <x:c r="B18" s="71"/>
+      <x:c r="C18" s="79"/>
       <x:c r="D18" s="18" t="s">
-        <x:v>59</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E18" s="18"/>
       <x:c r="F18" s="18"/>
@@ -3612,12 +3622,12 @@
     </x:row>
     <x:row r="19" spans="1:12" s="6" customFormat="1">
       <x:c r="A19" s="4"/>
-      <x:c r="B19" s="70"/>
-      <x:c r="C19" s="77" t="s">
-        <x:v>371</x:v>
+      <x:c r="B19" s="71"/>
+      <x:c r="C19" s="78" t="s">
+        <x:v>291</x:v>
       </x:c>
       <x:c r="D19" s="20" t="s">
-        <x:v>297</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="E19" s="20"/>
       <x:c r="F19" s="20"/>
@@ -3630,10 +3640,10 @@
     </x:row>
     <x:row r="20" spans="1:12" s="6" customFormat="1">
       <x:c r="A20" s="4"/>
-      <x:c r="B20" s="70"/>
-      <x:c r="C20" s="79"/>
+      <x:c r="B20" s="71"/>
+      <x:c r="C20" s="80"/>
       <x:c r="D20" s="11" t="s">
-        <x:v>73</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E20" s="11"/>
       <x:c r="F20" s="11"/>
@@ -3646,10 +3656,10 @@
     </x:row>
     <x:row r="21" spans="1:12" s="6" customFormat="1">
       <x:c r="A21" s="4"/>
-      <x:c r="B21" s="71"/>
-      <x:c r="C21" s="78"/>
+      <x:c r="B21" s="72"/>
+      <x:c r="C21" s="79"/>
       <x:c r="D21" s="18" t="s">
-        <x:v>67</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E21" s="18"/>
       <x:c r="F21" s="18"/>
@@ -3661,14 +3671,14 @@
       <x:c r="L21" s="4"/>
     </x:row>
     <x:row r="22" spans="2:11">
-      <x:c r="B22" s="70" t="s">
-        <x:v>368</x:v>
+      <x:c r="B22" s="71" t="s">
+        <x:v>275</x:v>
       </x:c>
       <x:c r="C22" s="11" t="s">
-        <x:v>195</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D22" s="11" t="s">
-        <x:v>298</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="E22" s="11"/>
       <x:c r="F22" s="11"/>
@@ -3679,12 +3689,12 @@
       <x:c r="K22" s="12"/>
     </x:row>
     <x:row r="23" spans="2:11">
-      <x:c r="B23" s="71"/>
+      <x:c r="B23" s="72"/>
       <x:c r="C23" s="18" t="s">
-        <x:v>256</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D23" s="18" t="s">
-        <x:v>43</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E23" s="18"/>
       <x:c r="F23" s="18"/>
@@ -3695,11 +3705,11 @@
       <x:c r="K23" s="19"/>
     </x:row>
     <x:row r="24" spans="2:11" ht="17.100000000000001" customHeight="1">
-      <x:c r="B24" s="70" t="s">
-        <x:v>370</x:v>
+      <x:c r="B24" s="71" t="s">
+        <x:v>281</x:v>
       </x:c>
       <x:c r="C24" s="11" t="s">
-        <x:v>388</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D24" s="11"/>
       <x:c r="E24" s="11"/>
@@ -3711,9 +3721,9 @@
       <x:c r="K24" s="12"/>
     </x:row>
     <x:row r="25" spans="2:11">
-      <x:c r="B25" s="70"/>
+      <x:c r="B25" s="71"/>
       <x:c r="C25" s="11" t="s">
-        <x:v>307</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D25" s="11"/>
       <x:c r="E25" s="11"/>
@@ -3725,9 +3735,9 @@
       <x:c r="K25" s="12"/>
     </x:row>
     <x:row r="26" spans="2:11">
-      <x:c r="B26" s="71"/>
+      <x:c r="B26" s="72"/>
       <x:c r="C26" s="18" t="s">
-        <x:v>42</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D26" s="18"/>
       <x:c r="E26" s="18"/>
@@ -3739,11 +3749,11 @@
       <x:c r="K26" s="19"/>
     </x:row>
     <x:row r="27" spans="2:11" ht="16.699999999999999" customHeight="1">
-      <x:c r="B27" s="70" t="s">
-        <x:v>207</x:v>
+      <x:c r="B27" s="71" t="s">
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C27" s="11" t="s">
-        <x:v>70</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D27" s="11"/>
       <x:c r="E27" s="11"/>
@@ -3755,9 +3765,9 @@
       <x:c r="K27" s="12"/>
     </x:row>
     <x:row r="28" spans="2:11">
-      <x:c r="B28" s="70"/>
+      <x:c r="B28" s="71"/>
       <x:c r="C28" s="11" t="s">
-        <x:v>389</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D28" s="11"/>
       <x:c r="E28" s="11"/>
@@ -3769,9 +3779,9 @@
       <x:c r="K28" s="12"/>
     </x:row>
     <x:row r="29" spans="2:11">
-      <x:c r="B29" s="70"/>
+      <x:c r="B29" s="71"/>
       <x:c r="C29" s="11" t="s">
-        <x:v>330</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="D29" s="11"/>
       <x:c r="E29" s="11"/>
@@ -3783,9 +3793,9 @@
       <x:c r="K29" s="12"/>
     </x:row>
     <x:row r="30" spans="2:11">
-      <x:c r="B30" s="80"/>
+      <x:c r="B30" s="81"/>
       <x:c r="C30" s="14" t="s">
-        <x:v>50</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D30" s="14"/>
       <x:c r="E30" s="14"/>
@@ -3798,10 +3808,10 @@
     </x:row>
     <x:row r="33" spans="2:11">
       <x:c r="B33" s="24" t="s">
-        <x:v>220</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C33" s="8" t="s">
-        <x:v>69</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D33" s="17"/>
       <x:c r="E33" s="17"/>
@@ -3814,7 +3824,7 @@
     </x:row>
     <x:row r="34" spans="2:11">
       <x:c r="B34" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C34" s="17"/>
       <x:c r="D34" s="17"/>
@@ -3828,7 +3838,7 @@
     </x:row>
     <x:row r="35" spans="2:11">
       <x:c r="B35" s="13" t="s">
-        <x:v>301</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C35" s="14"/>
       <x:c r="D35" s="14"/>
@@ -3842,10 +3852,10 @@
     </x:row>
     <x:row r="38" spans="2:11">
       <x:c r="B38" s="24" t="s">
-        <x:v>371</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="C38" s="8" t="s">
-        <x:v>138</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="D38" s="17"/>
       <x:c r="E38" s="17"/>
@@ -3858,7 +3868,7 @@
     </x:row>
     <x:row r="39" spans="2:11">
       <x:c r="B39" s="8" t="s">
-        <x:v>168</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C39" s="17"/>
       <x:c r="D39" s="17"/>
@@ -3872,7 +3882,7 @@
     </x:row>
     <x:row r="40" spans="2:11">
       <x:c r="B40" s="10" t="s">
-        <x:v>173</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C40" s="11"/>
       <x:c r="D40" s="11"/>
@@ -3886,7 +3896,7 @@
     </x:row>
     <x:row r="41" spans="2:11">
       <x:c r="B41" s="10" t="s">
-        <x:v>5</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C41" s="11"/>
       <x:c r="D41" s="11"/>
@@ -3900,7 +3910,7 @@
     </x:row>
     <x:row r="42" spans="2:11">
       <x:c r="B42" s="10" t="s">
-        <x:v>323</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="C42" s="11"/>
       <x:c r="D42" s="11"/>
@@ -3914,7 +3924,7 @@
     </x:row>
     <x:row r="43" spans="2:11">
       <x:c r="B43" s="10" t="s">
-        <x:v>395</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="C43" s="11"/>
       <x:c r="D43" s="11"/>
@@ -3928,7 +3938,7 @@
     </x:row>
     <x:row r="44" spans="2:11">
       <x:c r="B44" s="10" t="s">
-        <x:v>8</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C44" s="11"/>
       <x:c r="D44" s="11"/>
@@ -3942,7 +3952,7 @@
     </x:row>
     <x:row r="45" spans="2:11">
       <x:c r="B45" s="13" t="s">
-        <x:v>71</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="C45" s="14"/>
       <x:c r="D45" s="14"/>
@@ -3956,7 +3966,7 @@
     </x:row>
     <x:row r="47" spans="2:11">
       <x:c r="B47" s="8" t="s">
-        <x:v>218</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C47" s="17"/>
       <x:c r="D47" s="17"/>
@@ -3970,7 +3980,7 @@
     </x:row>
     <x:row r="48" spans="2:11">
       <x:c r="B48" s="10" t="s">
-        <x:v>331</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="C48" s="11"/>
       <x:c r="D48" s="11"/>
@@ -3984,7 +3994,7 @@
     </x:row>
     <x:row r="49" spans="2:11">
       <x:c r="B49" s="13" t="s">
-        <x:v>45</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C49" s="14"/>
       <x:c r="D49" s="14"/>
@@ -3998,7 +4008,7 @@
     </x:row>
     <x:row r="51" spans="2:11">
       <x:c r="B51" s="8" t="s">
-        <x:v>93</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="C51" s="17"/>
       <x:c r="D51" s="17"/>
@@ -4012,7 +4022,7 @@
     </x:row>
     <x:row r="52" spans="2:11">
       <x:c r="B52" s="10" t="s">
-        <x:v>333</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C52" s="11"/>
       <x:c r="D52" s="11"/>
@@ -4026,7 +4036,7 @@
     </x:row>
     <x:row r="53" spans="2:11">
       <x:c r="B53" s="13" t="s">
-        <x:v>312</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C53" s="14"/>
       <x:c r="D53" s="14"/>
@@ -4040,10 +4050,10 @@
     </x:row>
     <x:row r="56" spans="2:11">
       <x:c r="B56" s="24" t="s">
-        <x:v>238</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C56" s="8" t="s">
-        <x:v>14</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D56" s="17"/>
       <x:c r="E56" s="17"/>
@@ -4056,7 +4066,7 @@
     </x:row>
     <x:row r="57" spans="2:11">
       <x:c r="B57" s="8" t="s">
-        <x:v>393</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="C57" s="17"/>
       <x:c r="D57" s="17"/>
@@ -4070,7 +4080,7 @@
     </x:row>
     <x:row r="58" spans="2:11">
       <x:c r="B58" s="10" t="s">
-        <x:v>59</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C58" s="11"/>
       <x:c r="D58" s="11"/>
@@ -4084,7 +4094,7 @@
     </x:row>
     <x:row r="59" spans="2:11">
       <x:c r="B59" s="13" t="s">
-        <x:v>332</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="C59" s="14"/>
       <x:c r="D59" s="14"/>
@@ -4098,7 +4108,7 @@
     </x:row>
     <x:row r="62" spans="2:11">
       <x:c r="B62" s="26" t="s">
-        <x:v>189</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C62" s="27"/>
       <x:c r="D62" s="27"/>
@@ -4111,14 +4121,14 @@
       <x:c r="K62" s="16"/>
     </x:row>
     <x:row r="63" spans="2:11" ht="16.699999999999999" customHeight="1">
-      <x:c r="B63" s="69" t="s">
-        <x:v>198</x:v>
+      <x:c r="B63" s="70" t="s">
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C63" s="29" t="s">
-        <x:v>375</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="D63" s="17" t="s">
-        <x:v>55</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E63" s="17"/>
       <x:c r="F63" s="17"/>
@@ -4129,12 +4139,12 @@
       <x:c r="K63" s="9"/>
     </x:row>
     <x:row r="64" spans="2:11">
-      <x:c r="B64" s="81"/>
+      <x:c r="B64" s="82"/>
       <x:c r="C64" s="22" t="s">
-        <x:v>244</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D64" s="11" t="s">
-        <x:v>390</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="E64" s="11"/>
       <x:c r="F64" s="11"/>
@@ -4145,12 +4155,12 @@
       <x:c r="K64" s="12"/>
     </x:row>
     <x:row r="65" spans="2:11">
-      <x:c r="B65" s="81"/>
+      <x:c r="B65" s="82"/>
       <x:c r="C65" s="22" t="s">
-        <x:v>380</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="D65" s="11" t="s">
-        <x:v>13</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E65" s="11"/>
       <x:c r="F65" s="11"/>
@@ -4161,9 +4171,9 @@
       <x:c r="K65" s="12"/>
     </x:row>
     <x:row r="66" spans="2:11">
-      <x:c r="B66" s="81"/>
+      <x:c r="B66" s="82"/>
       <x:c r="C66" s="22" t="s">
-        <x:v>348</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="D66" s="11"/>
       <x:c r="E66" s="11"/>
@@ -4175,9 +4185,9 @@
       <x:c r="K66" s="12"/>
     </x:row>
     <x:row r="67" spans="2:11">
-      <x:c r="B67" s="82"/>
+      <x:c r="B67" s="83"/>
       <x:c r="C67" s="25" t="s">
-        <x:v>385</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="D67" s="18"/>
       <x:c r="E67" s="18"/>
@@ -4189,14 +4199,14 @@
       <x:c r="K67" s="19"/>
     </x:row>
     <x:row r="68" spans="2:11">
-      <x:c r="B68" s="83" t="s">
-        <x:v>167</x:v>
+      <x:c r="B68" s="84" t="s">
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C68" s="22" t="s">
-        <x:v>193</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D68" s="11" t="s">
-        <x:v>290</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E68" s="11"/>
       <x:c r="F68" s="11"/>
@@ -4207,12 +4217,12 @@
       <x:c r="K68" s="12"/>
     </x:row>
     <x:row r="69" spans="2:11">
-      <x:c r="B69" s="82"/>
+      <x:c r="B69" s="83"/>
       <x:c r="C69" s="25" t="s">
-        <x:v>355</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="D69" s="18" t="s">
-        <x:v>158</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="E69" s="18"/>
       <x:c r="F69" s="18"/>
@@ -4223,14 +4233,14 @@
       <x:c r="K69" s="19"/>
     </x:row>
     <x:row r="70" spans="2:11">
-      <x:c r="B70" s="83" t="s">
-        <x:v>191</x:v>
+      <x:c r="B70" s="84" t="s">
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C70" s="22" t="s">
-        <x:v>194</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D70" s="11" t="s">
-        <x:v>44</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E70" s="11"/>
       <x:c r="F70" s="11"/>
@@ -4241,10 +4251,10 @@
       <x:c r="K70" s="12"/>
     </x:row>
     <x:row r="71" spans="2:11">
-      <x:c r="B71" s="82"/>
+      <x:c r="B71" s="83"/>
       <x:c r="C71" s="25"/>
       <x:c r="D71" s="18" t="s">
-        <x:v>396</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E71" s="18"/>
       <x:c r="F71" s="18"/>
@@ -4256,7 +4266,7 @@
     </x:row>
     <x:row r="72" spans="2:11">
       <x:c r="B72" s="28" t="s">
-        <x:v>313</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C72" s="18"/>
       <x:c r="D72" s="18"/>
@@ -4270,7 +4280,7 @@
     </x:row>
     <x:row r="73" spans="2:11">
       <x:c r="B73" s="13" t="s">
-        <x:v>40</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C73" s="14"/>
       <x:c r="D73" s="14"/>
@@ -4284,7 +4294,7 @@
     </x:row>
     <x:row r="75" spans="2:11">
       <x:c r="B75" s="26" t="s">
-        <x:v>107</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C75" s="27"/>
       <x:c r="D75" s="27"/>
@@ -4298,7 +4308,7 @@
     </x:row>
     <x:row r="76" spans="2:11">
       <x:c r="B76" s="8" t="s">
-        <x:v>394</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="C76" s="17"/>
       <x:c r="D76" s="17"/>
@@ -4312,7 +4322,7 @@
     </x:row>
     <x:row r="77" spans="2:11">
       <x:c r="B77" s="10" t="s">
-        <x:v>315</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C77" s="11"/>
       <x:c r="D77" s="11"/>
@@ -4326,7 +4336,7 @@
     </x:row>
     <x:row r="78" spans="2:11">
       <x:c r="B78" s="10" t="s">
-        <x:v>319</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="C78" s="11"/>
       <x:c r="D78" s="11"/>
@@ -4340,7 +4350,7 @@
     </x:row>
     <x:row r="79" spans="2:11">
       <x:c r="B79" s="13" t="s">
-        <x:v>49</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C79" s="14"/>
       <x:c r="D79" s="14"/>
@@ -4354,7 +4364,7 @@
     </x:row>
     <x:row r="81" spans="2:11">
       <x:c r="B81" s="26" t="s">
-        <x:v>37</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C81" s="27"/>
       <x:c r="D81" s="27"/>
@@ -4368,10 +4378,10 @@
     </x:row>
     <x:row r="84" spans="2:11">
       <x:c r="B84" s="24" t="s">
-        <x:v>200</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C84" s="27" t="s">
-        <x:v>48</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D84" s="27"/>
       <x:c r="E84" s="27"/>
@@ -4384,10 +4394,10 @@
     </x:row>
     <x:row r="85" spans="2:11">
       <x:c r="B85" s="24" t="s">
-        <x:v>234</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C85" s="27" t="s">
-        <x:v>300</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="D85" s="27"/>
       <x:c r="E85" s="27"/>
@@ -4400,10 +4410,10 @@
     </x:row>
     <x:row r="88" spans="2:11">
       <x:c r="B88" s="24" t="s">
-        <x:v>381</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="C88" s="27" t="s">
-        <x:v>150</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="D88" s="27"/>
       <x:c r="E88" s="27"/>
@@ -4416,10 +4426,10 @@
     </x:row>
     <x:row r="89" spans="2:11">
       <x:c r="B89" s="30" t="s">
-        <x:v>183</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C89" s="17" t="s">
-        <x:v>60</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="D89" s="17"/>
       <x:c r="E89" s="17"/>
@@ -4432,10 +4442,10 @@
     </x:row>
     <x:row r="90" spans="2:11">
       <x:c r="B90" s="31" t="s">
-        <x:v>223</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C90" s="11" t="s">
-        <x:v>41</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D90" s="11"/>
       <x:c r="E90" s="11"/>
@@ -4448,10 +4458,10 @@
     </x:row>
     <x:row r="91" spans="2:11">
       <x:c r="B91" s="31" t="s">
-        <x:v>340</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="C91" s="11" t="s">
-        <x:v>6</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D91" s="11"/>
       <x:c r="E91" s="11"/>
@@ -4464,10 +4474,10 @@
     </x:row>
     <x:row r="92" spans="2:11">
       <x:c r="B92" s="31" t="s">
-        <x:v>280</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="C92" s="11" t="s">
-        <x:v>221</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D92" s="11"/>
       <x:c r="E92" s="11"/>
@@ -4480,10 +4490,10 @@
     </x:row>
     <x:row r="93" spans="2:11">
       <x:c r="B93" s="31" t="s">
-        <x:v>374</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="C93" s="11" t="s">
-        <x:v>305</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D93" s="11"/>
       <x:c r="E93" s="11"/>
@@ -4497,7 +4507,7 @@
     <x:row r="94" spans="2:11">
       <x:c r="B94" s="31"/>
       <x:c r="C94" s="11" t="s">
-        <x:v>64</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="D94" s="11"/>
       <x:c r="E94" s="11"/>
@@ -4511,7 +4521,7 @@
     <x:row r="95" spans="2:11">
       <x:c r="B95" s="31"/>
       <x:c r="C95" s="11" t="s">
-        <x:v>21</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D95" s="11"/>
       <x:c r="E95" s="11"/>
@@ -4524,10 +4534,10 @@
     </x:row>
     <x:row r="96" spans="2:11">
       <x:c r="B96" s="31" t="s">
-        <x:v>350</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="C96" s="11" t="s">
-        <x:v>386</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D96" s="11"/>
       <x:c r="E96" s="11"/>
@@ -4541,7 +4551,7 @@
     <x:row r="97" spans="2:11">
       <x:c r="B97" s="31"/>
       <x:c r="C97" s="11" t="s">
-        <x:v>7</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D97" s="11"/>
       <x:c r="E97" s="11"/>
@@ -4555,7 +4565,7 @@
     <x:row r="98" spans="2:11">
       <x:c r="B98" s="31"/>
       <x:c r="C98" s="11" t="s">
-        <x:v>314</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D98" s="11"/>
       <x:c r="E98" s="11"/>
@@ -4568,10 +4578,10 @@
     </x:row>
     <x:row r="99" spans="2:11">
       <x:c r="B99" s="31" t="s">
-        <x:v>342</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="C99" s="11" t="s">
-        <x:v>308</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D99" s="11"/>
       <x:c r="E99" s="11"/>
@@ -4585,7 +4595,7 @@
     <x:row r="100" spans="2:11">
       <x:c r="B100" s="31"/>
       <x:c r="C100" s="11" t="s">
-        <x:v>299</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="D100" s="11"/>
       <x:c r="E100" s="11"/>
@@ -4598,10 +4608,10 @@
     </x:row>
     <x:row r="101" spans="2:11">
       <x:c r="B101" s="31" t="s">
-        <x:v>222</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C101" s="11" t="s">
-        <x:v>391</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D101" s="11"/>
       <x:c r="E101" s="11"/>
@@ -4613,11 +4623,11 @@
       <x:c r="K101" s="12"/>
     </x:row>
     <x:row r="102" spans="2:11">
-      <x:c r="B102" s="70" t="s">
-        <x:v>359</x:v>
+      <x:c r="B102" s="71" t="s">
+        <x:v>270</x:v>
       </x:c>
       <x:c r="C102" s="11" t="s">
-        <x:v>295</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="D102" s="11"/>
       <x:c r="E102" s="11"/>
@@ -4629,9 +4639,9 @@
       <x:c r="K102" s="12"/>
     </x:row>
     <x:row r="103" spans="2:11">
-      <x:c r="B103" s="70"/>
+      <x:c r="B103" s="71"/>
       <x:c r="C103" s="11" t="s">
-        <x:v>321</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="D103" s="11"/>
       <x:c r="E103" s="11"/>
@@ -4643,11 +4653,11 @@
       <x:c r="K103" s="12"/>
     </x:row>
     <x:row r="104" spans="2:11">
-      <x:c r="B104" s="70" t="s">
-        <x:v>361</x:v>
+      <x:c r="B104" s="71" t="s">
+        <x:v>267</x:v>
       </x:c>
       <x:c r="C104" s="11" t="s">
-        <x:v>0</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D104" s="11"/>
       <x:c r="E104" s="11"/>
@@ -4659,9 +4669,9 @@
       <x:c r="K104" s="12"/>
     </x:row>
     <x:row r="105" spans="2:11">
-      <x:c r="B105" s="70"/>
+      <x:c r="B105" s="71"/>
       <x:c r="C105" s="11" t="s">
-        <x:v>38</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D105" s="11"/>
       <x:c r="E105" s="11"/>
@@ -4674,10 +4684,10 @@
     </x:row>
     <x:row r="106" spans="2:11">
       <x:c r="B106" s="32" t="s">
-        <x:v>216</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C106" s="14" t="s">
-        <x:v>309</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D106" s="14"/>
       <x:c r="E106" s="14"/>
@@ -4740,68 +4750,68 @@
   <x:sheetData>
     <x:row r="1" spans="1:4" ht="16.75">
       <x:c r="A1" s="34" t="s">
-        <x:v>341</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B1" s="33" t="s">
-        <x:v>371</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="D1" s="5"/>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="A2" s="31" t="s">
-        <x:v>353</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B2" s="65" t="s">
-        <x:v>63</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="D2" s="5"/>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="A3" s="35" t="s">
-        <x:v>245</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B3" s="19" t="s">
-        <x:v>235</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D3" s="5"/>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="31" t="s">
-        <x:v>161</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B4" s="12"/>
       <x:c r="D4" s="3"/>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="31" t="s">
-        <x:v>365</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="B5" s="12" t="s">
-        <x:v>126</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="E5" s="22"/>
     </x:row>
     <x:row r="6" spans="1:5" s="7" customFormat="1">
       <x:c r="A6" s="54" t="s">
-        <x:v>336</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B6" s="55" t="s">
-        <x:v>325</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="E6" s="22"/>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="56" t="s">
-        <x:v>326</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="B7" s="57" t="s">
-        <x:v>327</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="E7" s="22"/>
     </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="A8" s="31" t="s">
-        <x:v>248</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B8" s="12"/>
       <x:c r="D8" s="3"/>
@@ -4811,7 +4821,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B9" s="12" t="s">
-        <x:v>199</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D9" s="5"/>
     </x:row>
@@ -4820,7 +4830,7 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B10" s="12" t="s">
-        <x:v>322</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="D10" s="5"/>
     </x:row>
@@ -4829,24 +4839,24 @@
         <x:v>404</x:v>
       </x:c>
       <x:c r="B11" s="19" t="s">
-        <x:v>306</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C11" s="3"/>
       <x:c r="G11" s="44"/>
     </x:row>
     <x:row r="12" spans="1:7" s="1" customFormat="1">
       <x:c r="A12" s="31" t="s">
-        <x:v>345</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B12" s="12" t="s">
-        <x:v>26</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G12" s="44"/>
     </x:row>
     <x:row r="13" spans="1:3" s="5" customFormat="1" ht="16.75">
       <x:c r="A13" s="32"/>
       <x:c r="B13" s="15" t="s">
-        <x:v>302</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="C13" s="3"/>
     </x:row>
@@ -4860,35 +4870,35 @@
     </x:row>
     <x:row r="16" spans="1:2" s="3" customFormat="1" ht="16.75">
       <x:c r="A16" s="34" t="s">
-        <x:v>341</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B16" s="33" t="s">
-        <x:v>228</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:2" s="3" customFormat="1">
       <x:c r="A17" s="31" t="s">
-        <x:v>353</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B17" s="12"/>
     </x:row>
     <x:row r="18" spans="1:2" s="3" customFormat="1">
       <x:c r="A18" s="35" t="s">
-        <x:v>245</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B18" s="19"/>
     </x:row>
     <x:row r="19" spans="1:2" s="3" customFormat="1">
       <x:c r="A19" s="35" t="s">
-        <x:v>161</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B19" s="19" t="s">
-        <x:v>373</x:v>
+        <x:v>282</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:2" s="3" customFormat="1">
       <x:c r="A20" s="31" t="s">
-        <x:v>248</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B20" s="12"/>
     </x:row>
@@ -4897,7 +4907,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B21" s="12" t="s">
-        <x:v>164</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:2" s="3" customFormat="1">
@@ -4905,15 +4915,15 @@
         <x:v>404</x:v>
       </x:c>
       <x:c r="B22" s="19" t="s">
-        <x:v>19</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:2" s="3" customFormat="1" ht="16.75">
       <x:c r="A23" s="32" t="s">
-        <x:v>345</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B23" s="15" t="s">
-        <x:v>271</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:2" s="3" customFormat="1">
@@ -4927,39 +4937,39 @@
     </x:row>
     <x:row r="26" spans="1:2" s="3" customFormat="1" ht="16.75">
       <x:c r="A26" s="34" t="s">
-        <x:v>341</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B26" s="33" t="s">
-        <x:v>283</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:2" s="3" customFormat="1">
       <x:c r="A27" s="31" t="s">
-        <x:v>353</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B27" s="12" t="s">
-        <x:v>56</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:2" s="3" customFormat="1">
       <x:c r="A28" s="35" t="s">
-        <x:v>245</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B28" s="19" t="s">
-        <x:v>235</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:2" s="3" customFormat="1">
       <x:c r="A29" s="35" t="s">
-        <x:v>161</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B29" s="19" t="s">
-        <x:v>373</x:v>
+        <x:v>282</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:2" s="3" customFormat="1">
       <x:c r="A30" s="31" t="s">
-        <x:v>248</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B30" s="12"/>
     </x:row>
@@ -4968,7 +4978,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B31" s="12" t="s">
-        <x:v>289</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:2" s="3" customFormat="1">
@@ -4976,15 +4986,15 @@
         <x:v>401</x:v>
       </x:c>
       <x:c r="B32" s="19" t="s">
-        <x:v>19</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:2" s="3" customFormat="1" ht="16.75">
       <x:c r="A33" s="32" t="s">
-        <x:v>345</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B33" s="15" t="s">
-        <x:v>329</x:v>
+        <x:v>388</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:2" s="3" customFormat="1">
@@ -4997,133 +5007,133 @@
     </x:row>
     <x:row r="36" spans="1:2" s="4" customFormat="1" ht="16.75">
       <x:c r="A36" s="34" t="s">
-        <x:v>341</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B36" s="33" t="s">
-        <x:v>238</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:2" s="4" customFormat="1">
       <x:c r="A37" s="31" t="s">
-        <x:v>353</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B37" s="65" t="s">
-        <x:v>66</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:2" s="4" customFormat="1">
       <x:c r="A38" s="35" t="s">
-        <x:v>245</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B38" s="19" t="s">
-        <x:v>235</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:2" s="4" customFormat="1">
       <x:c r="A39" s="31" t="s">
-        <x:v>161</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B39" s="12"/>
     </x:row>
     <x:row r="40" spans="1:2" s="4" customFormat="1">
       <x:c r="A40" s="31" t="s">
-        <x:v>365</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="B40" s="55" t="s">
-        <x:v>196</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:2" s="4" customFormat="1">
       <x:c r="A41" s="31" t="s">
-        <x:v>358</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="B41" s="55" t="s">
-        <x:v>219</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:2" s="4" customFormat="1">
       <x:c r="A42" s="31" t="s">
-        <x:v>247</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B42" s="55" t="s">
-        <x:v>147</x:v>
+        <x:v>373</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:2" s="4" customFormat="1">
       <x:c r="A43" s="31" t="s">
-        <x:v>217</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B43" s="55" t="s">
-        <x:v>87</x:v>
+        <x:v>314</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:2" s="4" customFormat="1">
       <x:c r="A44" s="31" t="s">
-        <x:v>179</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B44" s="55" t="s">
-        <x:v>105</x:v>
+        <x:v>339</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:2" s="4" customFormat="1">
       <x:c r="A45" s="31" t="s">
-        <x:v>193</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B45" s="55" t="s">
-        <x:v>77</x:v>
+        <x:v>311</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:2" s="4" customFormat="1">
       <x:c r="A46" s="31" t="s">
-        <x:v>355</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="B46" s="55" t="s">
-        <x:v>86</x:v>
+        <x:v>310</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:2" s="4" customFormat="1">
       <x:c r="A47" s="31" t="s">
-        <x:v>194</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B47" s="12" t="s">
-        <x:v>141</x:v>
+        <x:v>369</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:2" s="4" customFormat="1">
       <x:c r="A48" s="31" t="s">
-        <x:v>243</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B48" s="12" t="s">
-        <x:v>100</x:v>
+        <x:v>327</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:2" s="4" customFormat="1">
       <x:c r="A49" s="31" t="s">
-        <x:v>177</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B49" s="55" t="s">
-        <x:v>12</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:2" s="4" customFormat="1">
       <x:c r="A50" s="31" t="s">
-        <x:v>224</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B50" s="55" t="s">
-        <x:v>24</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:2" s="4" customFormat="1">
       <x:c r="A51" s="35" t="s">
-        <x:v>98</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B51" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:2" s="4" customFormat="1">
       <x:c r="A52" s="31" t="s">
-        <x:v>248</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B52" s="12"/>
     </x:row>
@@ -5132,7 +5142,7 @@
         <x:v>201</x:v>
       </x:c>
       <x:c r="B53" s="12" t="s">
-        <x:v>293</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:2" s="4" customFormat="1">
@@ -5140,25 +5150,25 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B54" s="12" t="s">
-        <x:v>16</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:2" s="4" customFormat="1">
       <x:c r="A55" s="31"/>
       <x:c r="B55" s="12" t="s">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:2" s="4" customFormat="1">
       <x:c r="A56" s="31"/>
       <x:c r="B56" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:2" s="4" customFormat="1">
       <x:c r="A57" s="31"/>
       <x:c r="B57" s="12" t="s">
-        <x:v>22</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:2" s="4" customFormat="1">
@@ -5166,15 +5176,15 @@
         <x:v>404</x:v>
       </x:c>
       <x:c r="B58" s="19" t="s">
-        <x:v>156</x:v>
+        <x:v>386</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:2" s="3" customFormat="1" ht="16.75">
       <x:c r="A59" s="32" t="s">
-        <x:v>345</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B59" s="15" t="s">
-        <x:v>112</x:v>
+        <x:v>335</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:2" s="4" customFormat="1">
@@ -5186,45 +5196,45 @@
     </x:row>
     <x:row r="62" spans="1:2" s="3" customFormat="1" ht="16.75">
       <x:c r="A62" s="34" t="s">
-        <x:v>341</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B62" s="33" t="s">
-        <x:v>133</x:v>
+        <x:v>354</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:2" s="3" customFormat="1">
       <x:c r="A63" s="45" t="s">
-        <x:v>353</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B63" s="64" t="s">
-        <x:v>58</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:2" s="3" customFormat="1">
       <x:c r="A64" s="35" t="s">
-        <x:v>245</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B64" s="63" t="s">
-        <x:v>337</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:2" s="3" customFormat="1">
       <x:c r="A65" s="31" t="s">
-        <x:v>161</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B65" s="12"/>
     </x:row>
     <x:row r="66" spans="1:2" s="3" customFormat="1">
       <x:c r="A66" s="35" t="s">
-        <x:v>365</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="B66" s="19" t="s">
-        <x:v>196</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:2" s="3" customFormat="1">
       <x:c r="A67" s="31" t="s">
-        <x:v>248</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B67" s="12"/>
     </x:row>
@@ -5233,7 +5243,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B68" s="12" t="s">
-        <x:v>142</x:v>
+        <x:v>377</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:2" s="3" customFormat="1">
@@ -5241,15 +5251,15 @@
         <x:v>404</x:v>
       </x:c>
       <x:c r="B69" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:2" s="3" customFormat="1" ht="16.75">
       <x:c r="A70" s="32" t="s">
-        <x:v>345</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B70" s="15" t="s">
-        <x:v>15</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:1" s="3" customFormat="1">
@@ -5260,45 +5270,45 @@
     </x:row>
     <x:row r="73" spans="1:2" s="3" customFormat="1" ht="16.75">
       <x:c r="A73" s="34" t="s">
-        <x:v>341</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B73" s="33" t="s">
-        <x:v>90</x:v>
+        <x:v>328</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:2" s="3" customFormat="1">
       <x:c r="A74" s="45" t="s">
-        <x:v>353</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B74" s="64" t="s">
-        <x:v>58</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:2" s="3" customFormat="1">
       <x:c r="A75" s="35" t="s">
-        <x:v>245</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B75" s="19" t="s">
-        <x:v>235</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:2" s="3" customFormat="1">
       <x:c r="A76" s="31" t="s">
-        <x:v>161</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B76" s="12"/>
     </x:row>
     <x:row r="77" spans="1:2" s="3" customFormat="1">
       <x:c r="A77" s="35" t="s">
-        <x:v>197</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B77" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>314</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:2" s="3" customFormat="1">
       <x:c r="A78" s="31" t="s">
-        <x:v>248</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B78" s="12"/>
     </x:row>
@@ -5307,7 +5317,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B79" s="12" t="s">
-        <x:v>101</x:v>
+        <x:v>319</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:2" s="3" customFormat="1">
@@ -5315,15 +5325,15 @@
         <x:v>404</x:v>
       </x:c>
       <x:c r="B80" s="19" t="s">
-        <x:v>10</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:2" s="3" customFormat="1" ht="16.75">
       <x:c r="A81" s="32" t="s">
-        <x:v>345</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B81" s="15" t="s">
-        <x:v>25</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:1" s="3" customFormat="1">
@@ -5334,51 +5344,51 @@
     </x:row>
     <x:row r="84" spans="1:2" s="3" customFormat="1" ht="16.75">
       <x:c r="A84" s="34" t="s">
-        <x:v>341</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B84" s="33" t="s">
-        <x:v>111</x:v>
+        <x:v>342</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:2" s="3" customFormat="1">
       <x:c r="A85" s="45" t="s">
-        <x:v>353</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B85" s="64"/>
     </x:row>
     <x:row r="86" spans="1:2" s="3" customFormat="1">
       <x:c r="A86" s="35" t="s">
-        <x:v>245</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B86" s="19" t="s">
-        <x:v>235</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:2" s="3" customFormat="1">
       <x:c r="A87" s="31" t="s">
-        <x:v>161</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B87" s="12"/>
     </x:row>
     <x:row r="88" spans="1:2" s="3" customFormat="1">
       <x:c r="A88" s="31" t="s">
-        <x:v>360</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="B88" s="12" t="s">
-        <x:v>219</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:2" s="3" customFormat="1">
       <x:c r="A89" s="35" t="s">
-        <x:v>261</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B89" s="19" t="s">
-        <x:v>147</x:v>
+        <x:v>373</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:2" s="3" customFormat="1">
       <x:c r="A90" s="31" t="s">
-        <x:v>248</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B90" s="12"/>
     </x:row>
@@ -5387,7 +5397,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B91" s="12" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:2" s="3" customFormat="1">
@@ -5395,15 +5405,15 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B92" s="19" t="s">
-        <x:v>68</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:2" s="3" customFormat="1" ht="16.75">
       <x:c r="A93" s="32" t="s">
-        <x:v>345</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B93" s="15" t="s">
-        <x:v>317</x:v>
+        <x:v>295</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:1" s="3" customFormat="1">
@@ -5415,45 +5425,45 @@
     </x:row>
     <x:row r="96" spans="1:2" ht="16.75">
       <x:c r="A96" s="34" t="s">
-        <x:v>341</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B96" s="33" t="s">
-        <x:v>218</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:2">
       <x:c r="A97" s="31" t="s">
-        <x:v>353</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B97" s="65" t="s">
-        <x:v>57</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:2">
       <x:c r="A98" s="35" t="s">
-        <x:v>245</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B98" s="19" t="s">
-        <x:v>364</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:2">
       <x:c r="A99" s="31" t="s">
-        <x:v>161</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B99" s="12"/>
     </x:row>
     <x:row r="100" spans="1:2">
       <x:c r="A100" s="35" t="s">
-        <x:v>197</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B100" s="19" t="s">
-        <x:v>91</x:v>
+        <x:v>325</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:2">
       <x:c r="A101" s="31" t="s">
-        <x:v>248</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B101" s="12"/>
     </x:row>
@@ -5462,7 +5472,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B102" s="12" t="s">
-        <x:v>145</x:v>
+        <x:v>363</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:2">
@@ -5470,13 +5480,13 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B103" s="12" t="s">
-        <x:v>17</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:2">
       <x:c r="A104" s="31"/>
       <x:c r="B104" s="12" t="s">
-        <x:v>155</x:v>
+        <x:v>384</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:2" s="3" customFormat="1">
@@ -5484,15 +5494,15 @@
         <x:v>404</x:v>
       </x:c>
       <x:c r="B105" s="19" t="s">
-        <x:v>99</x:v>
+        <x:v>316</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:2" ht="16.75">
       <x:c r="A106" s="32" t="s">
-        <x:v>345</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B106" s="15" t="s">
-        <x:v>392</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:3" s="5" customFormat="1">
@@ -5505,53 +5515,53 @@
     </x:row>
     <x:row r="109" spans="1:2" ht="16.75">
       <x:c r="A109" s="34" t="s">
-        <x:v>341</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B109" s="33" t="s">
-        <x:v>93</x:v>
+        <x:v>321</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:2">
       <x:c r="A110" s="31" t="s">
-        <x:v>353</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B110" s="65" t="s">
-        <x:v>57</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:2">
       <x:c r="A111" s="35" t="s">
-        <x:v>245</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B111" s="19" t="s">
-        <x:v>364</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:2">
       <x:c r="A112" s="31" t="s">
-        <x:v>161</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B112" s="12"/>
     </x:row>
     <x:row r="113" spans="1:2">
       <x:c r="A113" s="31" t="s">
-        <x:v>365</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="B113" s="12" t="s">
-        <x:v>203</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:2">
       <x:c r="A114" s="35" t="s">
-        <x:v>197</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B114" s="19" t="s">
-        <x:v>91</x:v>
+        <x:v>325</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:2">
       <x:c r="A115" s="31" t="s">
-        <x:v>248</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B115" s="12"/>
     </x:row>
@@ -5560,7 +5570,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B116" s="12" t="s">
-        <x:v>83</x:v>
+        <x:v>302</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:2">
@@ -5568,13 +5578,13 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B117" s="12" t="s">
-        <x:v>322</x:v>
+        <x:v>300</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:2">
       <x:c r="A118" s="31"/>
       <x:c r="B118" s="12" t="s">
-        <x:v>89</x:v>
+        <x:v>322</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:2">
@@ -5582,15 +5592,15 @@
         <x:v>404</x:v>
       </x:c>
       <x:c r="B119" s="19" t="s">
-        <x:v>99</x:v>
+        <x:v>316</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:2" ht="16.75">
       <x:c r="A120" s="32" t="s">
-        <x:v>345</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B120" s="15" t="s">
-        <x:v>328</x:v>
+        <x:v>394</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="2:2">
@@ -5601,53 +5611,53 @@
     </x:row>
     <x:row r="123" spans="1:2" ht="16.75">
       <x:c r="A123" s="34" t="s">
-        <x:v>341</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B123" s="33" t="s">
-        <x:v>351</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:2">
       <x:c r="A124" s="45" t="s">
-        <x:v>353</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B124" s="46" t="s">
-        <x:v>201</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:2">
       <x:c r="A125" s="35" t="s">
-        <x:v>245</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B125" s="19" t="s">
-        <x:v>364</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:2">
       <x:c r="A126" s="31" t="s">
-        <x:v>161</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B126" s="12"/>
     </x:row>
     <x:row r="127" spans="1:2">
       <x:c r="A127" s="31" t="s">
-        <x:v>343</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B127" s="12" t="s">
-        <x:v>258</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:2">
       <x:c r="A128" s="35" t="s">
-        <x:v>215</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B128" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>304</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:2">
       <x:c r="A129" s="31" t="s">
-        <x:v>248</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B129" s="12"/>
     </x:row>
@@ -5656,7 +5666,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B130" s="12" t="s">
-        <x:v>210</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:2">
@@ -5664,15 +5674,15 @@
         <x:v>404</x:v>
       </x:c>
       <x:c r="B131" s="19" t="s">
-        <x:v>160</x:v>
+        <x:v>379</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:2" ht="16.75">
       <x:c r="A132" s="32" t="s">
-        <x:v>345</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B132" s="15" t="s">
-        <x:v>304</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="2:2">
@@ -5683,43 +5693,43 @@
     </x:row>
     <x:row r="135" spans="1:2" ht="16.75">
       <x:c r="A135" s="49" t="s">
-        <x:v>341</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B135" s="33" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:2">
       <x:c r="A136" s="47" t="s">
-        <x:v>353</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B136" s="12"/>
     </x:row>
     <x:row r="137" spans="1:2">
       <x:c r="A137" s="50" t="s">
-        <x:v>245</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B137" s="19" t="s">
-        <x:v>235</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:2">
       <x:c r="A138" s="47" t="s">
-        <x:v>161</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B138" s="12"/>
     </x:row>
     <x:row r="139" spans="1:2">
       <x:c r="A139" s="50" t="s">
-        <x:v>261</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B139" s="19" t="s">
-        <x:v>261</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:2">
       <x:c r="A140" s="47" t="s">
-        <x:v>248</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B140" s="12"/>
     </x:row>
@@ -5728,7 +5738,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B141" s="12" t="s">
-        <x:v>109</x:v>
+        <x:v>340</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:2">
@@ -5736,15 +5746,15 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B142" s="19" t="s">
-        <x:v>20</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:2" ht="16.75">
       <x:c r="A143" s="48" t="s">
-        <x:v>345</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B143" s="15" t="s">
-        <x:v>296</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="2:2">
@@ -5752,91 +5762,91 @@
     </x:row>
     <x:row r="146" spans="1:2" ht="16.75">
       <x:c r="A146" s="49" t="s">
-        <x:v>341</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B146" s="33" t="s">
-        <x:v>291</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:2">
       <x:c r="A147" s="47" t="s">
-        <x:v>353</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B147" s="12"/>
     </x:row>
     <x:row r="148" spans="1:2">
       <x:c r="A148" s="50" t="s">
-        <x:v>245</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B148" s="19" t="s">
-        <x:v>235</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:2">
       <x:c r="A149" s="47" t="s">
-        <x:v>161</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B149" s="12"/>
     </x:row>
     <x:row r="150" spans="1:2" s="3" customFormat="1">
       <x:c r="A150" s="47" t="s">
-        <x:v>170</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B150" s="12" t="s">
-        <x:v>104</x:v>
+        <x:v>338</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:2" s="3" customFormat="1">
       <x:c r="A151" s="47" t="s">
-        <x:v>286</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B151" s="12" t="s">
-        <x:v>261</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:2" s="3" customFormat="1">
       <x:c r="A152" s="47" t="s">
-        <x:v>241</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B152" s="12" t="s">
-        <x:v>269</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:2" s="3" customFormat="1">
       <x:c r="A153" s="47" t="s">
-        <x:v>153</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="B153" s="12" t="s">
-        <x:v>124</x:v>
+        <x:v>346</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:2" s="3" customFormat="1">
       <x:c r="A154" s="47" t="s">
-        <x:v>181</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B154" s="12" t="s">
-        <x:v>159</x:v>
+        <x:v>385</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:2" s="3" customFormat="1">
       <x:c r="A155" s="47" t="s">
-        <x:v>281</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B155" s="12" t="s">
-        <x:v>240</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:2" s="3" customFormat="1">
       <x:c r="A156" s="50" t="s">
-        <x:v>230</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B156" s="19" t="s">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:2">
       <x:c r="A157" s="47" t="s">
-        <x:v>248</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B157" s="12"/>
     </x:row>
@@ -5845,7 +5855,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B158" s="12" t="s">
-        <x:v>134</x:v>
+        <x:v>355</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:2">
@@ -5853,72 +5863,72 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B159" s="19" t="s">
-        <x:v>303</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:2" ht="16.75">
       <x:c r="A160" s="48" t="s">
-        <x:v>345</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B160" s="15" t="s">
-        <x:v>311</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:2" ht="16.75">
       <x:c r="A163" s="49" t="s">
-        <x:v>341</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B163" s="33" t="s">
-        <x:v>34</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:2">
       <x:c r="A164" s="47" t="s">
-        <x:v>353</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B164" s="12"/>
     </x:row>
     <x:row r="165" spans="1:2">
       <x:c r="A165" s="50" t="s">
-        <x:v>245</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B165" s="19" t="s">
-        <x:v>235</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:2">
       <x:c r="A166" s="47" t="s">
-        <x:v>161</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B166" s="12"/>
     </x:row>
     <x:row r="167" spans="1:2">
       <x:c r="A167" s="47" t="s">
-        <x:v>231</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B167" s="12" t="s">
-        <x:v>285</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:2">
       <x:c r="A168" s="47" t="s">
-        <x:v>244</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B168" s="55" t="s">
-        <x:v>324</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:2">
       <x:c r="A169" s="50" t="s">
-        <x:v>268</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B169" s="19" t="s">
-        <x:v>9</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:2">
       <x:c r="A170" s="47" t="s">
-        <x:v>248</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B170" s="12"/>
     </x:row>
@@ -5927,7 +5937,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B171" s="12" t="s">
-        <x:v>274</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:2">
@@ -5935,48 +5945,48 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B172" s="19" t="s">
-        <x:v>387</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:2" ht="16.75">
       <x:c r="A173" s="48" t="s">
-        <x:v>345</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B173" s="15" t="s">
-        <x:v>311</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:2" ht="16.75">
       <x:c r="A176" s="49" t="s">
-        <x:v>341</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B176" s="33" t="s">
-        <x:v>251</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:2">
       <x:c r="A177" s="47" t="s">
-        <x:v>353</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B177" s="12"/>
     </x:row>
     <x:row r="178" spans="1:2">
       <x:c r="A178" s="50" t="s">
-        <x:v>245</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B178" s="19" t="s">
-        <x:v>235</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:2">
       <x:c r="A179" s="47" t="s">
-        <x:v>161</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B179" s="12"/>
     </x:row>
     <x:row r="180" spans="1:2">
       <x:c r="A180" s="47" t="s">
-        <x:v>265</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B180" s="12" t="s">
         <x:v>33</x:v>
@@ -5984,26 +5994,26 @@
     </x:row>
     <x:row r="181" spans="1:2">
       <x:c r="A181" s="47" t="s">
-        <x:v>184</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B181" s="12" t="s">
-        <x:v>28</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:2">
       <x:c r="A182" s="50" t="s">
-        <x:v>268</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B182" s="19" t="s">
-        <x:v>11</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:2">
       <x:c r="A183" s="47" t="s">
-        <x:v>248</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B183" s="12" t="s">
-        <x:v>1</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:2">
@@ -6011,7 +6021,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B184" s="12" t="s">
-        <x:v>175</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:2">
@@ -6019,15 +6029,15 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B185" s="19" t="s">
-        <x:v>226</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:2" ht="16.75">
       <x:c r="A186" s="48" t="s">
-        <x:v>345</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B186" s="15" t="s">
-        <x:v>130</x:v>
+        <x:v>347</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6041,8 +6051,8 @@
   <x:sheetPr codeName="Sheet6"/>
   <x:dimension ref="A1:G150"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E14" activeCellId="0" sqref="E14:E14"/>
+    <x:sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="C25" activeCellId="0" sqref="C25:C25"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
@@ -6057,620 +6067,618 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="4" t="s">
-        <x:v>213</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B3" s="4" t="s">
-        <x:v>127</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="C3" s="4" t="s">
-        <x:v>96</x:v>
+        <x:v>324</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7" ht="16.75">
       <x:c r="A4" s="42" t="s">
-        <x:v>385</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B4" s="42" t="s">
-        <x:v>211</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C4" s="42" t="s">
-        <x:v>278</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D4" s="42" t="s">
-        <x:v>233</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E4" s="42" t="s">
-        <x:v>369</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="F4" s="42" t="s">
-        <x:v>356</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="G4" s="43" t="s">
-        <x:v>346</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7" s="3" customFormat="1">
       <x:c r="A5" s="36" t="s">
-        <x:v>188</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B5" s="36" t="s">
-        <x:v>367</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C5" s="36"/>
       <x:c r="D5" s="58" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E5" s="36" t="s">
-        <x:v>202</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F5" s="36" t="s">
-        <x:v>366</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="G5" s="37" t="s">
-        <x:v>106</x:v>
+        <x:v>343</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="36" t="s">
-        <x:v>110</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B6" s="36" t="s">
-        <x:v>180</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C6" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D6" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E6" s="36" t="s">
-        <x:v>373</x:v>
-      </x:c>
-      <x:c r="F6" s="84" t="s">
-        <x:v>384</x:v>
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="F6" s="66" t="s">
+        <x:v>287</x:v>
       </x:c>
       <x:c r="G6" s="37" t="s">
-        <x:v>375</x:v>
+        <x:v>280</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="36" t="s">
-        <x:v>31</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B7" s="36" t="s">
-        <x:v>180</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C7" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D7" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E7" s="36" t="s">
-        <x:v>373</x:v>
-      </x:c>
-      <x:c r="F7" s="84"/>
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="F7" s="66"/>
       <x:c r="G7" s="37" t="s">
-        <x:v>348</x:v>
+        <x:v>246</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="36" t="s">
-        <x:v>146</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="B8" s="36" t="s">
-        <x:v>180</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C8" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D8" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E8" s="36" t="s">
-        <x:v>373</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F8" s="36"/>
       <x:c r="G8" s="37" t="s">
-        <x:v>244</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="36" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="B9" s="36" t="s">
         <x:v>82</x:v>
-      </x:c>
-      <x:c r="B9" s="36" t="s">
-        <x:v>180</x:v>
       </x:c>
       <x:c r="C9" s="36">
         <x:v>50</x:v>
       </x:c>
       <x:c r="D9" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E9" s="36" t="s">
-        <x:v>373</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F9" s="36"/>
       <x:c r="G9" s="37" t="s">
-        <x:v>385</x:v>
+        <x:v>278</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="36" t="s">
-        <x:v>206</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B10" s="36" t="s">
-        <x:v>397</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C10" s="36">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D10" s="36" t="s">
-        <x:v>347</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E10" s="62" t="s">
-        <x:v>398</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="F10" s="36"/>
       <x:c r="G10" s="37" t="s">
-        <x:v>128</x:v>
+        <x:v>357</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="36" t="s">
-        <x:v>242</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B11" s="36" t="s">
-        <x:v>180</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C11" s="36">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D11" s="36" t="s">
-        <x:v>347</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E11" s="62" t="s">
-        <x:v>398</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="F11" s="36"/>
       <x:c r="G11" s="37" t="s">
-        <x:v>355</x:v>
+        <x:v>271</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="36" t="s">
-        <x:v>12</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B12" s="36" t="s">
-        <x:v>212</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C12" s="38" t="s">
-        <x:v>171</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D12" s="36" t="s">
-        <x:v>347</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E12" s="36" t="s">
-        <x:v>379</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="F12" s="36"/>
       <x:c r="G12" s="37" t="s">
-        <x:v>209</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="36" t="s">
-        <x:v>24</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B13" s="36" t="s">
-        <x:v>212</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C13" s="38" t="s">
-        <x:v>171</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D13" s="36" t="s">
-        <x:v>347</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E13" s="36" t="s">
-        <x:v>379</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="F13" s="36"/>
       <x:c r="G13" s="37" t="s">
-        <x:v>85</x:v>
+        <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7" s="3" customFormat="1">
       <x:c r="A14" s="36" t="s">
-        <x:v>114</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B14" s="58" t="s">
-        <x:v>88</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="C14" s="38"/>
       <x:c r="D14" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E14" s="36" t="s">
-        <x:v>373</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F14" s="36"/>
       <x:c r="G14" s="37" t="s">
-        <x:v>363</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7" s="2" customFormat="1">
       <x:c r="A15" s="36" t="s">
-        <x:v>154</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="B15" s="36" t="s">
-        <x:v>88</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="C15" s="38"/>
       <x:c r="D15" s="36" t="s">
-        <x:v>347</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E15" s="62" t="s">
-        <x:v>398</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="F15" s="36"/>
       <x:c r="G15" s="37" t="s">
-        <x:v>116</x:v>
+        <x:v>331</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7" s="3" customFormat="1">
       <x:c r="A16" s="36" t="s">
-        <x:v>163</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B16" s="36" t="s">
-        <x:v>367</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C16" s="38"/>
       <x:c r="D16" s="36" t="s">
-        <x:v>347</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E16" s="36">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F16" s="36"/>
       <x:c r="G16" s="37" t="s">
-        <x:v>249</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7" s="7" customFormat="1">
       <x:c r="A17" s="58" t="s">
-        <x:v>182</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B17" s="58" t="s">
-        <x:v>367</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C17" s="38"/>
       <x:c r="D17" s="58" t="s">
-        <x:v>347</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E17" s="36">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F17" s="36"/>
       <x:c r="G17" s="61" t="s">
-        <x:v>166</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7" ht="16.75">
       <x:c r="A18" s="59" t="s">
-        <x:v>174</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B18" s="59" t="s">
-        <x:v>367</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C18" s="39"/>
       <x:c r="D18" s="59" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E18" s="59">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F18" s="39"/>
       <x:c r="G18" s="60" t="s">
-        <x:v>62</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="3" t="s">
-        <x:v>213</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B20" s="4" t="s">
-        <x:v>113</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="C20" s="4" t="s">
-        <x:v>75</x:v>
+        <x:v>308</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7" ht="16.75">
       <x:c r="A21" s="42" t="s">
-        <x:v>385</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B21" s="42" t="s">
-        <x:v>211</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C21" s="42" t="s">
-        <x:v>278</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D21" s="42" t="s">
-        <x:v>233</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E21" s="42" t="s">
-        <x:v>369</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="F21" s="42" t="s">
-        <x:v>356</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="G21" s="43" t="s">
-        <x:v>346</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:7">
       <x:c r="A22" s="36" t="s">
-        <x:v>250</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B22" s="36" t="s">
-        <x:v>367</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C22" s="36"/>
       <x:c r="D22" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E22" s="36" t="s">
-        <x:v>202</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F22" s="36" t="s">
-        <x:v>366</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="G22" s="37" t="s">
-        <x:v>118</x:v>
+        <x:v>334</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:7">
       <x:c r="A23" s="36" t="s">
-        <x:v>140</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="B23" s="36" t="s">
-        <x:v>180</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C23" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D23" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E23" s="36" t="s">
-        <x:v>373</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F23" s="36"/>
       <x:c r="G23" s="37" t="s">
-        <x:v>284</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:7">
       <x:c r="A24" s="36" t="s">
-        <x:v>227</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B24" s="36" t="s">
-        <x:v>180</x:v>
-      </x:c>
-      <x:c r="C24" s="36">
-        <x:v>100</x:v>
-      </x:c>
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="C24" s="36"/>
       <x:c r="D24" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E24" s="36" t="s">
-        <x:v>373</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F24" s="36" t="s">
-        <x:v>339</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="G24" s="37" t="s">
-        <x:v>152</x:v>
+        <x:v>378</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:7">
       <x:c r="A25" s="36" t="s">
-        <x:v>254</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B25" s="36" t="s">
-        <x:v>180</x:v>
-      </x:c>
-      <x:c r="C25" s="36">
-        <x:v>100</x:v>
-      </x:c>
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="C25" s="36"/>
       <x:c r="D25" s="36" t="s">
-        <x:v>347</x:v>
-      </x:c>
-      <x:c r="E25" s="36"/>
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E25" s="36" t="s">
+        <x:v>282</x:v>
+      </x:c>
       <x:c r="F25" s="36" t="s">
-        <x:v>339</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="G25" s="37" t="s">
-        <x:v>102</x:v>
+        <x:v>329</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:7">
       <x:c r="A26" s="36" t="s">
-        <x:v>79</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B26" s="36" t="s">
-        <x:v>180</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C26" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D26" s="36" t="s">
-        <x:v>347</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E26" s="36"/>
       <x:c r="F26" s="36"/>
       <x:c r="G26" s="37" t="s">
-        <x:v>176</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7">
       <x:c r="A27" s="36" t="s">
-        <x:v>103</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B27" s="36" t="s">
-        <x:v>180</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C27" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D27" s="36" t="s">
-        <x:v>347</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E27" s="36"/>
       <x:c r="F27" s="36"/>
       <x:c r="G27" s="37" t="s">
-        <x:v>279</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:7">
       <x:c r="A28" s="36" t="s">
-        <x:v>2</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B28" s="36" t="s">
-        <x:v>180</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C28" s="36"/>
       <x:c r="D28" s="36" t="s">
-        <x:v>347</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E28" s="36"/>
       <x:c r="F28" s="36"/>
       <x:c r="G28" s="37" t="s">
-        <x:v>214</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:7" ht="16.75">
       <x:c r="A29" s="39" t="s">
-        <x:v>139</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="B29" s="39" t="s">
-        <x:v>367</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C29" s="40"/>
       <x:c r="D29" s="39" t="s">
-        <x:v>347</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E29" s="39"/>
       <x:c r="F29" s="39" t="s">
-        <x:v>339</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="G29" s="41" t="s">
-        <x:v>205</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
       <x:c r="A31" s="3" t="s">
-        <x:v>213</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B31" s="4" t="s">
-        <x:v>377</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C31" s="4" t="s">
-        <x:v>123</x:v>
+        <x:v>358</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:7" ht="16.75">
       <x:c r="A32" s="42" t="s">
-        <x:v>385</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B32" s="42" t="s">
-        <x:v>211</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C32" s="42" t="s">
-        <x:v>278</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D32" s="42" t="s">
-        <x:v>233</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E32" s="42" t="s">
-        <x:v>369</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="F32" s="42" t="s">
-        <x:v>356</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="G32" s="43" t="s">
-        <x:v>346</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:7" s="3" customFormat="1">
       <x:c r="A33" s="36" t="s">
-        <x:v>259</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B33" s="36" t="s">
-        <x:v>367</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C33" s="36"/>
       <x:c r="D33" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E33" s="36" t="s">
-        <x:v>373</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F33" s="36" t="s">
-        <x:v>366</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="G33" s="37" t="s">
-        <x:v>288</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:7">
       <x:c r="A34" s="36" t="s">
-        <x:v>188</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B34" s="36" t="s">
-        <x:v>367</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C34" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D34" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E34" s="36" t="s">
-        <x:v>373</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F34" s="36" t="s">
-        <x:v>339</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="G34" s="37" t="s">
-        <x:v>106</x:v>
+        <x:v>343</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:7">
       <x:c r="A35" s="36" t="s">
-        <x:v>250</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B35" s="36" t="s">
-        <x:v>367</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C35" s="36"/>
       <x:c r="D35" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E35" s="36" t="s">
-        <x:v>373</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F35" s="36" t="s">
-        <x:v>339</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="G35" s="37" t="s">
-        <x:v>132</x:v>
+        <x:v>359</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:7" ht="16.75">
@@ -6684,101 +6692,101 @@
     </x:row>
     <x:row r="38" spans="1:3">
       <x:c r="A38" s="3" t="s">
-        <x:v>213</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B38" s="4" t="s">
-        <x:v>187</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C38" s="4" t="s">
-        <x:v>115</x:v>
+        <x:v>330</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:7" ht="16.75">
       <x:c r="A39" s="42" t="s">
-        <x:v>385</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B39" s="42" t="s">
-        <x:v>211</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C39" s="42" t="s">
-        <x:v>278</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D39" s="42" t="s">
-        <x:v>233</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E39" s="42" t="s">
-        <x:v>369</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="F39" s="42" t="s">
-        <x:v>356</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="G39" s="43" t="s">
-        <x:v>346</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:7" s="3" customFormat="1">
       <x:c r="A40" s="36" t="s">
-        <x:v>162</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B40" s="36" t="s">
-        <x:v>367</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C40" s="36"/>
       <x:c r="D40" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E40" s="36" t="s">
-        <x:v>373</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F40" s="36" t="s">
-        <x:v>366</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="G40" s="37" t="s">
-        <x:v>192</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:7">
       <x:c r="A41" s="36" t="s">
-        <x:v>188</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B41" s="36" t="s">
-        <x:v>180</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C41" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D41" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E41" s="36" t="s">
-        <x:v>373</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F41" s="36" t="s">
-        <x:v>339</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="G41" s="37" t="s">
-        <x:v>106</x:v>
+        <x:v>343</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:7">
       <x:c r="A42" s="36" t="s">
-        <x:v>250</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B42" s="36" t="s">
-        <x:v>367</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C42" s="36"/>
       <x:c r="D42" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E42" s="36" t="s">
-        <x:v>373</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F42" s="36" t="s">
-        <x:v>339</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="G42" s="37" t="s">
-        <x:v>118</x:v>
+        <x:v>334</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:7" ht="16.75">
@@ -6792,101 +6800,101 @@
     </x:row>
     <x:row r="45" spans="1:3">
       <x:c r="A45" s="3" t="s">
-        <x:v>213</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B45" s="4" t="s">
-        <x:v>97</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="C45" s="4" t="s">
-        <x:v>120</x:v>
+        <x:v>349</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:7" ht="16.75">
       <x:c r="A46" s="42" t="s">
-        <x:v>385</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B46" s="42" t="s">
-        <x:v>211</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C46" s="42" t="s">
-        <x:v>278</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D46" s="42" t="s">
-        <x:v>233</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E46" s="42" t="s">
-        <x:v>369</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="F46" s="42" t="s">
-        <x:v>356</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="G46" s="43" t="s">
-        <x:v>346</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:7" s="3" customFormat="1">
       <x:c r="A47" s="36" t="s">
-        <x:v>273</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B47" s="36" t="s">
-        <x:v>367</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C47" s="36"/>
       <x:c r="D47" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E47" s="36" t="s">
-        <x:v>373</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F47" s="36" t="s">
-        <x:v>366</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="G47" s="37" t="s">
-        <x:v>94</x:v>
+        <x:v>320</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:7">
       <x:c r="A48" s="36" t="s">
-        <x:v>188</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B48" s="36" t="s">
-        <x:v>180</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C48" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D48" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E48" s="36" t="s">
-        <x:v>373</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F48" s="36" t="s">
-        <x:v>339</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="G48" s="37" t="s">
-        <x:v>106</x:v>
+        <x:v>343</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:7">
       <x:c r="A49" s="36" t="s">
-        <x:v>250</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B49" s="36" t="s">
-        <x:v>367</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C49" s="36"/>
       <x:c r="D49" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E49" s="36" t="s">
-        <x:v>373</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F49" s="36" t="s">
-        <x:v>339</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="G49" s="37" t="s">
-        <x:v>118</x:v>
+        <x:v>334</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:7" ht="16.75">
@@ -6900,131 +6908,131 @@
     </x:row>
     <x:row r="52" spans="1:3" s="3" customFormat="1">
       <x:c r="A52" s="3" t="s">
-        <x:v>213</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B52" s="3" t="s">
-        <x:v>275</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="C52" s="3" t="s">
-        <x:v>264</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:7" s="3" customFormat="1" ht="16.75">
       <x:c r="A53" s="42" t="s">
-        <x:v>385</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B53" s="42" t="s">
-        <x:v>211</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C53" s="42" t="s">
-        <x:v>278</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D53" s="42" t="s">
-        <x:v>233</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E53" s="42" t="s">
-        <x:v>369</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="F53" s="42" t="s">
-        <x:v>356</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="G53" s="43" t="s">
-        <x:v>346</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:7" s="3" customFormat="1">
       <x:c r="A54" s="36" t="s">
-        <x:v>208</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B54" s="36" t="s">
-        <x:v>367</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C54" s="36"/>
       <x:c r="D54" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E54" s="36" t="s">
-        <x:v>373</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F54" s="36" t="s">
-        <x:v>366</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="G54" s="37" t="s">
-        <x:v>172</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:7" s="3" customFormat="1">
       <x:c r="A55" s="36" t="s">
-        <x:v>188</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B55" s="36" t="s">
-        <x:v>180</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C55" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D55" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E55" s="36" t="s">
-        <x:v>373</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F55" s="36" t="s">
-        <x:v>339</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="G55" s="37" t="s">
-        <x:v>106</x:v>
+        <x:v>343</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:7" s="3" customFormat="1">
       <x:c r="A56" s="36" t="s">
-        <x:v>250</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B56" s="36" t="s">
-        <x:v>367</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C56" s="36"/>
       <x:c r="D56" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E56" s="36" t="s">
-        <x:v>373</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F56" s="36" t="s">
-        <x:v>339</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="G56" s="37" t="s">
-        <x:v>118</x:v>
+        <x:v>334</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:7" s="3" customFormat="1">
       <x:c r="A57" s="36" t="s">
-        <x:v>259</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B57" s="36"/>
       <x:c r="C57" s="36"/>
       <x:c r="D57" s="36"/>
       <x:c r="E57" s="36"/>
       <x:c r="F57" s="36" t="s">
-        <x:v>339</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="G57" s="37" t="s">
-        <x:v>288</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:7" s="3" customFormat="1">
       <x:c r="A58" s="36" t="s">
-        <x:v>162</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B58" s="36"/>
       <x:c r="C58" s="36"/>
       <x:c r="D58" s="36"/>
       <x:c r="E58" s="36"/>
       <x:c r="F58" s="36" t="s">
-        <x:v>339</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="G58" s="37" t="s">
-        <x:v>192</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:7" s="3" customFormat="1" ht="16.75">
@@ -7039,175 +7047,175 @@
     <x:row r="60" s="3" customFormat="1"/>
     <x:row r="61" spans="1:3">
       <x:c r="A61" s="3" t="s">
-        <x:v>213</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B61" s="4" t="s">
-        <x:v>229</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C61" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:7" ht="16.75">
       <x:c r="A62" s="42" t="s">
-        <x:v>385</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B62" s="42" t="s">
-        <x:v>211</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C62" s="42" t="s">
-        <x:v>278</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D62" s="42" t="s">
-        <x:v>233</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E62" s="42" t="s">
-        <x:v>369</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="F62" s="42" t="s">
-        <x:v>356</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="G62" s="43" t="s">
-        <x:v>346</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:7" s="3" customFormat="1">
       <x:c r="A63" s="36" t="s">
-        <x:v>139</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="B63" s="36" t="s">
-        <x:v>367</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C63" s="36"/>
       <x:c r="D63" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E63" s="36" t="s">
-        <x:v>373</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F63" s="36" t="s">
-        <x:v>366</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="G63" s="37" t="s">
-        <x:v>205</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:7">
       <x:c r="A64" s="36" t="s">
-        <x:v>188</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B64" s="36" t="s">
-        <x:v>367</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C64" s="36"/>
       <x:c r="D64" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E64" s="36" t="s">
-        <x:v>373</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F64" s="36" t="s">
-        <x:v>339</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="G64" s="37" t="s">
-        <x:v>106</x:v>
+        <x:v>343</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:7">
       <x:c r="A65" s="36" t="s">
-        <x:v>250</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B65" s="36" t="s">
-        <x:v>367</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C65" s="36"/>
       <x:c r="D65" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E65" s="36" t="s">
-        <x:v>373</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F65" s="36" t="s">
-        <x:v>339</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="G65" s="37" t="s">
-        <x:v>118</x:v>
+        <x:v>334</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:7">
       <x:c r="A66" s="36" t="s">
-        <x:v>294</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B66" s="36" t="s">
-        <x:v>212</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C66" s="36" t="s">
-        <x:v>76</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="D66" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E66" s="36" t="s">
-        <x:v>373</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F66" s="36"/>
       <x:c r="G66" s="37" t="s">
-        <x:v>262</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:7">
       <x:c r="A67" s="36" t="s">
-        <x:v>239</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B67" s="36" t="s">
-        <x:v>180</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C67" s="36">
         <x:v>500</x:v>
       </x:c>
       <x:c r="D67" s="36" t="s">
-        <x:v>347</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E67" s="36"/>
       <x:c r="F67" s="36"/>
       <x:c r="G67" s="37" t="s">
-        <x:v>236</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:7">
       <x:c r="A68" s="36" t="s">
-        <x:v>185</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B68" s="36" t="s">
-        <x:v>180</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C68" s="36">
         <x:v>500</x:v>
       </x:c>
       <x:c r="D68" s="36" t="s">
-        <x:v>347</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E68" s="36"/>
       <x:c r="F68" s="36"/>
       <x:c r="G68" s="37" t="s">
-        <x:v>338</x:v>
+        <x:v>251</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:7">
       <x:c r="A69" s="36" t="s">
-        <x:v>84</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B69" s="36" t="s">
-        <x:v>367</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C69" s="36"/>
       <x:c r="D69" s="36" t="s">
-        <x:v>347</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E69" s="36"/>
       <x:c r="F69" s="36"/>
       <x:c r="G69" s="37" t="s">
-        <x:v>383</x:v>
+        <x:v>290</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:7" ht="16.75">
@@ -7221,13 +7229,13 @@
     </x:row>
     <x:row r="72" spans="1:7">
       <x:c r="A72" s="3" t="s">
-        <x:v>213</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B72" s="3" t="s">
-        <x:v>260</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C72" s="3" t="s">
-        <x:v>277</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D72" s="3"/>
       <x:c r="E72" s="3"/>
@@ -7236,185 +7244,185 @@
     </x:row>
     <x:row r="73" spans="1:7" ht="16.75">
       <x:c r="A73" s="42" t="s">
-        <x:v>385</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B73" s="42" t="s">
-        <x:v>211</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C73" s="42" t="s">
-        <x:v>278</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D73" s="42" t="s">
-        <x:v>233</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E73" s="42" t="s">
-        <x:v>369</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="F73" s="42" t="s">
-        <x:v>356</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="G73" s="43" t="s">
-        <x:v>346</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:7" s="3" customFormat="1">
       <x:c r="A74" s="36" t="s">
-        <x:v>227</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B74" s="36" t="s">
-        <x:v>367</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C74" s="36"/>
       <x:c r="D74" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E74" s="36" t="s">
-        <x:v>202</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F74" s="36" t="s">
-        <x:v>366</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="G74" s="37" t="s">
-        <x:v>152</x:v>
+        <x:v>378</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:7">
       <x:c r="A75" s="36" t="s">
-        <x:v>287</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B75" s="36" t="s">
-        <x:v>180</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C75" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D75" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E75" s="36" t="s">
-        <x:v>373</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F75" s="36" t="s">
-        <x:v>366</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="G75" s="37" t="s">
-        <x:v>232</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:7">
       <x:c r="A76" s="36" t="s">
-        <x:v>135</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B76" s="36" t="s">
-        <x:v>180</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C76" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D76" s="36" t="s">
-        <x:v>347</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E76" s="36"/>
       <x:c r="F76" s="36"/>
       <x:c r="G76" s="37" t="s">
-        <x:v>362</x:v>
+        <x:v>273</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:7">
       <x:c r="A77" s="36" t="s">
-        <x:v>121</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="B77" s="36" t="s">
-        <x:v>180</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C77" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D77" s="36" t="s">
-        <x:v>347</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E77" s="36"/>
       <x:c r="F77" s="36"/>
       <x:c r="G77" s="37" t="s">
-        <x:v>349</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:7">
       <x:c r="A78" s="36" t="s">
-        <x:v>149</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B78" s="36" t="s">
-        <x:v>180</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C78" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D78" s="36" t="s">
-        <x:v>347</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E78" s="36"/>
       <x:c r="F78" s="36"/>
       <x:c r="G78" s="37" t="s">
-        <x:v>382</x:v>
+        <x:v>284</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:7">
       <x:c r="A79" s="36" t="s">
-        <x:v>108</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B79" s="36" t="s">
-        <x:v>180</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C79" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D79" s="36" t="s">
-        <x:v>347</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E79" s="36"/>
       <x:c r="F79" s="36"/>
       <x:c r="G79" s="37" t="s">
-        <x:v>357</x:v>
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:7">
       <x:c r="A80" s="36" t="s">
-        <x:v>143</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="B80" s="36" t="s">
-        <x:v>180</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C80" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D80" s="36" t="s">
-        <x:v>347</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E80" s="36"/>
       <x:c r="F80" s="36"/>
       <x:c r="G80" s="37" t="s">
-        <x:v>354</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:7">
       <x:c r="A81" s="36" t="s">
-        <x:v>122</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="B81" s="36" t="s">
-        <x:v>180</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C81" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D81" s="36" t="s">
-        <x:v>347</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E81" s="36"/>
       <x:c r="F81" s="36" t="s">
-        <x:v>339</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="G81" s="37" t="s">
-        <x:v>178</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:7" ht="16.75">
@@ -7428,13 +7436,13 @@
     </x:row>
     <x:row r="84" spans="1:7">
       <x:c r="A84" s="3" t="s">
-        <x:v>213</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B84" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="C84" s="3" t="s">
-        <x:v>272</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D84" s="3"/>
       <x:c r="E84" s="3"/>
@@ -7443,185 +7451,185 @@
     </x:row>
     <x:row r="85" spans="1:7" ht="16.75">
       <x:c r="A85" s="42" t="s">
-        <x:v>385</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B85" s="42" t="s">
-        <x:v>211</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C85" s="42" t="s">
-        <x:v>278</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D85" s="42" t="s">
-        <x:v>233</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E85" s="42" t="s">
-        <x:v>369</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="F85" s="42" t="s">
-        <x:v>356</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="G85" s="43" t="s">
-        <x:v>346</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:7">
       <x:c r="A86" s="36" t="s">
-        <x:v>254</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B86" s="36" t="s">
-        <x:v>367</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C86" s="36"/>
       <x:c r="D86" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E86" s="36" t="s">
-        <x:v>202</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F86" s="36" t="s">
-        <x:v>366</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="G86" s="37" t="s">
-        <x:v>102</x:v>
+        <x:v>329</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:7" s="3" customFormat="1">
       <x:c r="A87" s="36" t="s">
-        <x:v>253</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B87" s="36" t="s">
-        <x:v>180</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C87" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D87" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E87" s="36" t="s">
-        <x:v>373</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F87" s="36" t="s">
-        <x:v>366</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="G87" s="37" t="s">
-        <x:v>232</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:7" s="3" customFormat="1">
       <x:c r="A88" s="36" t="s">
-        <x:v>151</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="B88" s="36" t="s">
-        <x:v>180</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C88" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D88" s="36" t="s">
-        <x:v>347</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E88" s="36"/>
       <x:c r="F88" s="36"/>
       <x:c r="G88" s="37" t="s">
-        <x:v>362</x:v>
+        <x:v>273</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:7" s="3" customFormat="1">
       <x:c r="A89" s="36" t="s">
-        <x:v>129</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="B89" s="36" t="s">
-        <x:v>180</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C89" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D89" s="36" t="s">
-        <x:v>347</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E89" s="36"/>
       <x:c r="F89" s="36"/>
       <x:c r="G89" s="37" t="s">
-        <x:v>349</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:7" s="3" customFormat="1">
       <x:c r="A90" s="36" t="s">
-        <x:v>125</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="B90" s="36" t="s">
-        <x:v>180</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C90" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D90" s="36" t="s">
-        <x:v>347</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E90" s="36"/>
       <x:c r="F90" s="36"/>
       <x:c r="G90" s="37" t="s">
-        <x:v>382</x:v>
+        <x:v>284</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:7">
       <x:c r="A91" s="36" t="s">
-        <x:v>117</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B91" s="36" t="s">
-        <x:v>180</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C91" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D91" s="36" t="s">
-        <x:v>347</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E91" s="36"/>
       <x:c r="F91" s="36"/>
       <x:c r="G91" s="37" t="s">
-        <x:v>357</x:v>
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:7">
       <x:c r="A92" s="36" t="s">
-        <x:v>137</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="B92" s="36" t="s">
-        <x:v>180</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C92" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D92" s="36" t="s">
-        <x:v>347</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E92" s="36"/>
       <x:c r="F92" s="36"/>
       <x:c r="G92" s="37" t="s">
-        <x:v>354</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:7">
       <x:c r="A93" s="36" t="s">
-        <x:v>136</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="B93" s="36" t="s">
-        <x:v>180</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C93" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D93" s="36" t="s">
-        <x:v>347</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E93" s="36"/>
       <x:c r="F93" s="36" t="s">
-        <x:v>339</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="G93" s="37" t="s">
-        <x:v>178</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:7" ht="16.75">
@@ -7635,13 +7643,13 @@
     </x:row>
     <x:row r="96" spans="1:7">
       <x:c r="A96" s="3" t="s">
-        <x:v>213</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B96" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C96" s="3" t="s">
-        <x:v>270</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D96" s="3"/>
       <x:c r="E96" s="3"/>
@@ -7650,84 +7658,84 @@
     </x:row>
     <x:row r="97" spans="1:7" ht="16.75">
       <x:c r="A97" s="42" t="s">
-        <x:v>385</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B97" s="42" t="s">
-        <x:v>211</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C97" s="42" t="s">
-        <x:v>278</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D97" s="42" t="s">
-        <x:v>233</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E97" s="42" t="s">
-        <x:v>369</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="F97" s="42" t="s">
-        <x:v>356</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="G97" s="43" t="s">
-        <x:v>346</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:7">
       <x:c r="A98" s="36" t="s">
-        <x:v>23</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B98" s="36" t="s">
-        <x:v>367</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C98" s="36"/>
       <x:c r="D98" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E98" s="36"/>
       <x:c r="F98" s="36" t="s">
-        <x:v>366</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="G98" s="37" t="s">
-        <x:v>266</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:7">
       <x:c r="A99" s="36" t="s">
-        <x:v>188</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B99" s="36" t="s">
-        <x:v>367</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C99" s="36"/>
       <x:c r="D99" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E99" s="36" t="s">
-        <x:v>373</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F99" s="36" t="s">
-        <x:v>339</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="G99" s="37" t="s">
-        <x:v>106</x:v>
+        <x:v>343</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:7">
       <x:c r="A100" s="36" t="s">
-        <x:v>267</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B100" s="36" t="s">
-        <x:v>180</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C100" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D100" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E100" s="36"/>
       <x:c r="F100" s="36"/>
       <x:c r="G100" s="37" t="s">
-        <x:v>186</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:7">
@@ -7777,7 +7785,7 @@
     </x:row>
     <x:row r="106" spans="1:7" ht="16.75">
       <x:c r="A106" s="39" t="s">
-        <x:v>318</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="B106" s="39"/>
       <x:c r="C106" s="40"/>
@@ -7788,13 +7796,13 @@
     </x:row>
     <x:row r="108" spans="1:7">
       <x:c r="A108" s="3" t="s">
-        <x:v>213</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B108" s="3" t="s">
-        <x:v>257</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C108" s="3" t="s">
-        <x:v>292</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="D108" s="3"/>
       <x:c r="E108" s="3"/>
@@ -7803,88 +7811,88 @@
     </x:row>
     <x:row r="109" spans="1:7" ht="16.75">
       <x:c r="A109" s="42" t="s">
-        <x:v>385</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B109" s="42" t="s">
-        <x:v>211</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C109" s="42" t="s">
-        <x:v>278</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D109" s="42" t="s">
-        <x:v>233</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E109" s="42" t="s">
-        <x:v>369</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="F109" s="42" t="s">
-        <x:v>356</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="G109" s="43" t="s">
-        <x:v>346</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:7">
       <x:c r="A110" s="36" t="s">
-        <x:v>119</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="B110" s="36" t="s">
-        <x:v>367</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C110" s="36"/>
       <x:c r="D110" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E110" s="36"/>
       <x:c r="F110" s="36" t="s">
-        <x:v>366</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="G110" s="37" t="s">
-        <x:v>263</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:7">
       <x:c r="A111" s="36" t="s">
-        <x:v>188</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B111" s="36" t="s">
-        <x:v>367</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C111" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D111" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E111" s="36" t="s">
-        <x:v>373</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F111" s="36" t="s">
-        <x:v>339</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="G111" s="37" t="s">
-        <x:v>106</x:v>
+        <x:v>343</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:7">
       <x:c r="A112" s="36" t="s">
-        <x:v>250</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B112" s="36" t="s">
-        <x:v>367</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C112" s="36"/>
       <x:c r="D112" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E112" s="36" t="s">
-        <x:v>373</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F112" s="36" t="s">
-        <x:v>339</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="G112" s="37" t="s">
-        <x:v>132</x:v>
+        <x:v>359</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:7">
@@ -7907,13 +7915,13 @@
     </x:row>
     <x:row r="116" spans="1:7">
       <x:c r="A116" s="3" t="s">
-        <x:v>213</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B116" s="3" t="s">
-        <x:v>252</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C116" s="3" t="s">
-        <x:v>276</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D116" s="3"/>
       <x:c r="E116" s="3"/>
@@ -7922,25 +7930,25 @@
     </x:row>
     <x:row r="117" spans="1:7" ht="16.75">
       <x:c r="A117" s="42" t="s">
-        <x:v>385</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B117" s="42" t="s">
-        <x:v>211</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C117" s="42" t="s">
-        <x:v>278</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D117" s="42" t="s">
-        <x:v>233</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E117" s="42" t="s">
-        <x:v>369</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="F117" s="42" t="s">
-        <x:v>356</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="G117" s="43" t="s">
-        <x:v>346</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:7" s="3" customFormat="1">
@@ -7954,48 +7962,48 @@
     </x:row>
     <x:row r="119" spans="1:7">
       <x:c r="A119" s="36" t="s">
-        <x:v>188</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B119" s="36" t="s">
-        <x:v>367</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C119" s="36"/>
       <x:c r="D119" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E119" s="36"/>
       <x:c r="F119" s="36" t="s">
-        <x:v>339</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="G119" s="37" t="s">
-        <x:v>106</x:v>
+        <x:v>343</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:7">
       <x:c r="A120" s="36" t="s">
-        <x:v>252</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B120" s="36" t="s">
-        <x:v>180</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C120" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D120" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E120" s="36"/>
       <x:c r="F120" s="36"/>
       <x:c r="G120" s="37" t="s">
-        <x:v>376</x:v>
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:7">
       <x:c r="A121" s="36" t="s">
-        <x:v>255</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B121" s="36" t="s">
-        <x:v>180</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C121" s="36">
         <x:v>100</x:v>
@@ -8004,15 +8012,15 @@
       <x:c r="E121" s="36"/>
       <x:c r="F121" s="36"/>
       <x:c r="G121" s="37" t="s">
-        <x:v>282</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:7">
       <x:c r="A122" s="36" t="s">
-        <x:v>344</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B122" s="36" t="s">
-        <x:v>180</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C122" s="36">
         <x:v>100</x:v>
@@ -8021,7 +8029,7 @@
       <x:c r="E122" s="36"/>
       <x:c r="F122" s="36"/>
       <x:c r="G122" s="37" t="s">
-        <x:v>378</x:v>
+        <x:v>283</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:7" ht="16.75">
@@ -8035,13 +8043,13 @@
     </x:row>
     <x:row r="125" spans="1:7">
       <x:c r="A125" s="3" t="s">
-        <x:v>213</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B125" s="3" t="s">
-        <x:v>81</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="C125" s="3" t="s">
-        <x:v>131</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="D125" s="3"/>
       <x:c r="E125" s="3"/>
@@ -8050,25 +8058,25 @@
     </x:row>
     <x:row r="126" spans="1:7" ht="16.75">
       <x:c r="A126" s="42" t="s">
-        <x:v>385</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B126" s="42" t="s">
-        <x:v>211</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C126" s="42" t="s">
-        <x:v>278</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D126" s="42" t="s">
-        <x:v>233</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E126" s="42" t="s">
-        <x:v>369</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="F126" s="42" t="s">
-        <x:v>356</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="G126" s="43" t="s">
-        <x:v>346</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:7">
@@ -8118,7 +8126,7 @@
     </x:row>
     <x:row r="132" spans="1:7" ht="16.75">
       <x:c r="A132" s="39" t="s">
-        <x:v>36</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B132" s="39"/>
       <x:c r="C132" s="40"/>
@@ -8129,13 +8137,13 @@
     </x:row>
     <x:row r="134" spans="1:7">
       <x:c r="A134" s="2" t="s">
-        <x:v>213</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B134" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C134" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D134" s="2"/>
       <x:c r="E134" s="2"/>
@@ -8144,25 +8152,25 @@
     </x:row>
     <x:row r="135" spans="1:7" ht="16.75">
       <x:c r="A135" s="42" t="s">
-        <x:v>385</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B135" s="42" t="s">
-        <x:v>211</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C135" s="42" t="s">
-        <x:v>278</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D135" s="42" t="s">
-        <x:v>233</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E135" s="42" t="s">
-        <x:v>369</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="F135" s="42" t="s">
-        <x:v>356</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="G135" s="43" t="s">
-        <x:v>346</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:7">
@@ -8176,33 +8184,33 @@
     </x:row>
     <x:row r="137" spans="1:7">
       <x:c r="A137" s="36" t="s">
-        <x:v>188</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B137" s="36"/>
       <x:c r="C137" s="36"/>
       <x:c r="D137" s="36"/>
       <x:c r="E137" s="36"/>
       <x:c r="F137" s="36" t="s">
-        <x:v>339</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="G137" s="37"/>
     </x:row>
     <x:row r="138" spans="1:7">
       <x:c r="A138" s="36" t="s">
-        <x:v>157</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="B138" s="36"/>
       <x:c r="C138" s="36"/>
       <x:c r="D138" s="36"/>
       <x:c r="E138" s="36"/>
       <x:c r="F138" s="36" t="s">
-        <x:v>339</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="G138" s="37"/>
     </x:row>
     <x:row r="139" spans="1:7">
       <x:c r="A139" s="36" t="s">
-        <x:v>148</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="B139" s="36"/>
       <x:c r="C139" s="36"/>
@@ -8210,7 +8218,7 @@
       <x:c r="E139" s="36"/>
       <x:c r="F139" s="36"/>
       <x:c r="G139" s="37" t="s">
-        <x:v>190</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:7">
@@ -8233,13 +8241,13 @@
     </x:row>
     <x:row r="143" spans="1:7">
       <x:c r="A143" s="2" t="s">
-        <x:v>213</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B143" s="2" t="s">
-        <x:v>182</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C143" s="2" t="s">
-        <x:v>204</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D143" s="2"/>
       <x:c r="E143" s="2"/>
@@ -8248,46 +8256,46 @@
     </x:row>
     <x:row r="144" spans="1:7" ht="16.75">
       <x:c r="A144" s="51" t="s">
-        <x:v>385</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B144" s="42" t="s">
-        <x:v>211</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C144" s="42" t="s">
-        <x:v>278</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D144" s="42" t="s">
-        <x:v>233</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E144" s="42" t="s">
-        <x:v>369</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="F144" s="42" t="s">
-        <x:v>356</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="G144" s="43" t="s">
-        <x:v>346</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:7">
       <x:c r="A145" s="52" t="s">
-        <x:v>157</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="B145" s="36" t="s">
-        <x:v>367</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C145" s="36"/>
       <x:c r="D145" s="36" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E145" s="36" t="s">
-        <x:v>202</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F145" s="36" t="s">
-        <x:v>366</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="G145" s="37" t="s">
-        <x:v>144</x:v>
+        <x:v>372</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:7">

--- a/read/리디북스 프로젝트 계획.xlsx
+++ b/read/리디북스 프로젝트 계획.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="11580" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11610" tabRatio="500" firstSheet="1" activeTab="2"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="분석" sheetId="1" r:id="rId4"/>
@@ -22,93 +22,754 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="399">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="403">
+  <x:si>
+    <x:t>book_date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>book_image</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쓰기 / 다른사람리뷰 댓글,공감 / 스포일러가 있는 리뷰 블라인드(클릭 시 보기 가능) / 10개 단위</x:t>
+  </x:si>
   <x:si>
     <x:t>* 로그인 / 회원가입 등의 페이지 에서는 header 부분에 로고만 있으며, 클릭 시 메인페이지로 이동</x:t>
   </x:si>
   <x:si>
-    <x:t>쓰기 / 다른사람리뷰 댓글,공감 / 스포일러가 있는 리뷰 블라인드(클릭 시 보기 가능) / 10개 단위</x:t>
+    <x:t>payment_money</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보 변경 - 회원 탈퇴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>marketing_agree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보 변경 페이지 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 나중에 시간나면 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값이 형식에 맞지 않음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>night_appPush</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pw와 pwChk가 동일함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 또는 비밀번호가 잘못되어 일치하는 회원정보를 찾지 못했을 경우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출간정보 / 듣기 기능 / 파일 정보 / 지원 기기 / ISBN 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>payment_methods</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notification</x:t>
+  </x:si>
+  <x:si>
+    <x:t>select_agree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 입력 후 회원가입완료 버튼 누를 시 이메일로 인증번호를 발송하며 입력 시 최종적으로 완료 됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1) 입력 시 - 검색 값과 관련된 도서 표시 예) ([e북]) 제목 작가 | 출판사 (19)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림페이지로 이동 / 이벤트, 쿠폰 등 알림을 나타내며 클릭 시 상세페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>책에 따라 없을 수도 있음 / 클릭 시 책 내용의 일부를 미리 보여줌 / 이미지형식?</x:t>
   </x:si>
   <x:si>
     <x:t>위시리스트로 보낼 수 있음, 보낼 시 팝업이뜨며 누르면 위시리스트페이지로 이동 가능</x:t>
   </x:si>
   <x:si>
-    <x:t>알림페이지로 이동 / 이벤트, 쿠폰 등 알림을 나타내며 클릭 시 상세페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>책에 따라 없을 수도 있음 / 클릭 시 책 내용의 일부를 미리 보여줌 / 이미지형식?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1) 입력 시 - 검색 값과 관련된 도서 표시 예) ([e북]) 제목 작가 | 출판사 (19)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 입력 후 회원가입완료 버튼 누를 시 이메일로 인증번호를 발송하며 입력 시 최종적으로 완료 됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 또는 비밀번호가 잘못되어 일치하는 회원정보를 찾지 못했을 경우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출간정보 / 듣기 기능 / 파일 정보 / 지원 기기 / ISBN 표시</x:t>
+    <x:t>책이 포함 된 카테고리의 세부 분류 표시 / 클릭 시 해당 카테고리 항목 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색하고 싶은 도서와 도서 제목, 작가명에 해당하는 텍스트를 입력하면 검색페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 위시리스트 / 카트 - 클릭 시 아이콘 색상 변경 안내창 출력 / 다시 클릭하면 해제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 - 아이디, 비밀번호 입력 후 로그인 / 입력하지 않거나 틀릴 경우 경고문 발생</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 상태 유지(체크) - 체크 시 브라우저를 닫고 다시 접속해도 로그인 상태가 유지 됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로고는 각 2개로 구성(RIDIBOOKS, RIDISelect) 해당 로고를 클릭시 해당 메인 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객센터 / 공지사항 / 제공하는 서비스 / 회사소개 / 인재 채용 등 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>취소 - 일반회원가입/로그인/14세미만회원가입 선택하는 회원가입페이지로 돌아감</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이용약관(필수) / 마케팅(선택) / 성별,생년제공(선택) 총 3개 동의됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 후 보이는 버튼으로 클릭 시 마이리디의 캐쉬충전 탭 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일이 기억나지 않을 때를 위한 고객센터 페이지로 이동하는 버튼이 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3) 입력 후 목록 클릭 - 해당 책 상세페이지로 이동 / 검색란 검색 값 x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좌측 탭에는 위시리스트와 같은 탭, 구매/혜택관련 탭, 개인정보 탭이 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앱 푸시 수신</x:t>
+  </x:si>
+  <x:si>
+    <x:t>grade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>au_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입 성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pwChk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cause</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>응답코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YEAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현재 비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상세주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도서 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매가능 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NULL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>책 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예)1999</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제 금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>책 제목 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Footer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새 비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gread</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저자 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>허용안함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈퇴 사유</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제 실패</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미리보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력 값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tr_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작품소개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>order</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐쉬 충전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>야간 앱 푸시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐쉬 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>detail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번역가 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>au_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sign_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>new_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PWChk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Method</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>book_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>author</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카트 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈퇴 성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>각 평점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wish_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cart</x:t>
+  </x:si>
+  <x:si>
+    <x:t>길이/설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 후</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대여 가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보유 캐쉬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배송지 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저자 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>buy_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈퇴 동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tr_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력한 값이 비밀번호와 다름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 간단하게 구현해볼 예정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>privacy_agree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필수 동의가 선택되지 않음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보 변경을 할 수 있는 페이지로 이동하기 위한 비밀번호 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입 및 로그인 버튼을 캐쉬충전 및 내 서재 버튼으로 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>각 컨텐츠를 클릭하면 상세페이지로 이동 또는 새 탭으로 열림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색어를 입력하여 DB에 검색 후 검색 결과를 보여주는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 이후 책에 따라 안내, 책이포함된 세트, 시리즈 등 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5점을 기준으로 별모양으로 표시 / 숫자점수 / 평가한 인원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 후 보이는 버튼으로 클릭 시 내 서재 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력한 값이 저장된 정보와 다를 경우 / 형식에 맞지 않을 경우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stay_login 체크 시 3일 / 기본 1시간 설정(세션)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 페이지로 이동 / 로그인 시 바로 알림페이지로 이동 됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저자 및 역자의 프로필 / 작가의 신간알림을 받는 버튼도 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카트 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y','N'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보유 포인트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>책 표지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평점 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃 성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새 이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미 로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필수입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제 수단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cash</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대표저서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일 구독</x:t>
+  </x:si>
+  <x:si>
+    <x:t>name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>point</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rent_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adult</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제 성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cart_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐쉬 금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요청 파라미터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림 동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전체동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>header</x:t>
+  </x:si>
+  <x:si>
+    <x:t>find_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출생년도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AUTO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평점 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색 성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST</x:t>
+  </x:si>
+  <x:si>
+    <x:t>review</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이리디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NULL 허용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 서재</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택입력 동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대여가능 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마케팅동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리뷰 내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sign_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 찾기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gender</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이용약관 동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>appPush</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/serch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우측메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐쉬충전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포인트 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 명 :</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일반 회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약관동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>year</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작품 소개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ENUM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매 가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 하지 않은 상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미 가입되어있는 이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>delete_agree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력값이 전달되지 않음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인을 하기 위한 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일이 전달되지 않음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미 가입되어있는 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 찾기 - 아이디 찾기 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인증 후 일반회원가입 페이지로 이동?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>켰을 때 - 성인 으로 분류된 책 표시안함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 알림 여러 종류 받아보고 수정할 예정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 또는 비밀번호가 전달되지 않음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로필 업데이트 일자 및 수정 요청버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호 실수 확인을 위한 재입력 값 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* () 부분은 해당사항 없으면 생략</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 - 로그인 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐쉬충전 - 캐쉬충전 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>각 페이지의 하단 고정인 부분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/find/controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/check/controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입 - 회원가입 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>껐을 때 - 성인도서 포함 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>클릭 시 마이리디 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입
+로그인
+캐쉬충전
+내 서재</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/signup/controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/member/controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 서재 - 내 서재 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4) 검색어 저장 켜기 끄기 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>켰을 때 - 검색한 기록 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디(5~20자 영문,숫자)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>각 페이지의 상단 고정인 부분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원상태(0-정상 / 1-탈퇴)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작가 / 번역가 / 출판사 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/member/chk_login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pw와 pwChk가 동일하지 않음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터베이스 : rdbooks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지 / 클릭 시 이미지 확대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pw 와 pwchk 가 같지 않음</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>d</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>elete_pwChk</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>회원가입 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>payment_agree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일 중복 확인 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체크 후 인증버튼 클릭 시 통신사 선택 후 인증하는 팝업 페이지 생성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일이 기억나지 않을때를 위한 고객센터 페이지로 이동하는 버튼이 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일, 비밀번호, 마케팅 정보 수신관리, 회원탈퇴 등 정보 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>각각 체크하여 카트에서 삭제할 수도 있으면 구매/대여 할 수도 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광고? 와 함께 보고있는 도서의 카테고리 분류 베스트셀러 10위 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 각 입력란 마다 공란, 혹은 양식에 맞지 않으면 경고문이 발생함.</x:t>
   </x:si>
   <x:si>
     <x:t>2) 입력 후 엔터 - 검색 페이지로 이동 / 검색란에 검색 값 유지</x:t>
   </x:si>
   <x:si>
-    <x:t>광고? 와 함께 보고있는 도서의 카테고리 분류 베스트셀러 10위 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>각각 체크하여 카트에서 삭제할 수도 있으면 구매/대여 할 수도 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일이 기억나지 않을때를 위한 고객센터 페이지로 이동하는 버튼이 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 각 입력란 마다 공란, 혹은 양식에 맞지 않으면 경고문이 발생함.</x:t>
-  </x:si>
-  <x:si>
     <x:t>* 선물하기 / 구매하기 - 각 선물하기 / 구매하기 페이지로 이동</x:t>
   </x:si>
   <x:si>
-    <x:t>체크 후 인증버튼 클릭 시 통신사 선택 후 인증하는 팝업 페이지 생성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일, 비밀번호, 마케팅 정보 수신관리, 회원탈퇴 등 정보 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 후 보이는 버튼으로 클릭 시 마이리디의 캐쉬충전 탭 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>취소 - 일반회원가입/로그인/14세미만회원가입 선택하는 회원가입페이지로 돌아감</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3) 입력 후 목록 클릭 - 해당 책 상세페이지로 이동 / 검색란 검색 값 x</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좌측 탭에는 위시리스트와 같은 탭, 구매/혜택관련 탭, 개인정보 탭이 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이용약관(필수) / 마케팅(선택) / 성별,생년제공(선택) 총 3개 동의됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일이 기억나지 않을 때를 위한 고객센터 페이지로 이동하는 버튼이 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객센터 / 공지사항 / 제공하는 서비스 / 회사소개 / 인재 채용 등 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색하고 싶은 도서와 도서 제목, 작가명에 해당하는 텍스트를 입력하면 검색페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 - 아이디, 비밀번호 입력 후 로그인 / 입력하지 않거나 틀릴 경우 경고문 발생</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 상태 유지(체크) - 체크 시 브라우저를 닫고 다시 접속해도 로그인 상태가 유지 됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 위시리스트 / 카트 - 클릭 시 아이콘 색상 변경 안내창 출력 / 다시 클릭하면 해제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>책이 포함 된 카테고리의 세부 분류 표시 / 클릭 시 해당 카테고리 항목 페이지로 이동</x:t>
+    <x:t>최근 조회한 작품 표시 / 클릭 시 해 당 도서로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14세 미만회원가입 - 보호자 동의를 위한 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인상태에서만 접근 가능한 URL에 접근하기 위한 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디와 이메일을 이용해 비밀번호를 재설정 할 수 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* RIDISelect 페이지는 구현하지 않을 예정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입한 이메일 주소를 이용해 아이디를 알려주는 방식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입한 아이디와 이메일을 이용하여 비밀번호를 재설정함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>껐을 때 - 검색해도 기록 x / 검색했던 기록도 삭제</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -124,662 +785,148 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>정보 변경 - 회원 탈퇴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 나중에 시간나면 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보 변경 페이지 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>payment_money</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값이 형식에 맞지 않음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>night_appPush</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pw와 pwChk가 동일함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미 가입되어있는 이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>delete_agree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력값이 전달되지 않음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 하지 않은 상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>notifucation_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구매 / 대여 금액 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 중복 확인 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>introduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호랑 동일하게 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>select_agree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>payment_methods</x:t>
-  </x:si>
-  <x:si>
-    <x:t>notification</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일 중복 확인 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>payment_agree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력한 값이 비밀번호와 다름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 간단하게 구현해볼 예정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>privacy_agree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일이 전달되지 않음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미 가입되어있는 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필수 동의가 선택되지 않음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인을 하기 위한 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>marketing_agree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5점을 기준으로 별점 평가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구매 가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보유 포인트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y','N'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요청 파라미터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림 동의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카트 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일 구독</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대표저서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평점 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>point</x:t>
-  </x:si>
-  <x:si>
-    <x:t>책 표지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃 성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새 이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rent_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제 성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cash</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미 로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adult</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cart_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제 수단</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필수입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐쉬 금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/serch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포인트 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전체동의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평점 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일반 회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대여가능 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출생년도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sign_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이리디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마케팅동의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>약관동의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AUTO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐쉬충전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색 성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>find_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ENUM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 명 :</x:t>
-  </x:si>
-  <x:si>
-    <x:t>year</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작품 소개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우측메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리뷰 내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>header</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST</x:t>
-  </x:si>
-  <x:si>
-    <x:t>review</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NULL 허용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 서재</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택입력 동의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 찾기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>appPush</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gender</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이용약관 동의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Method</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐쉬 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PWChk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gread</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Footer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>허용안함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>책 제목 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작품소개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제 실패</x:t>
-  </x:si>
-  <x:si>
-    <x:t>au_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새 비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>야간 앱 푸시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미리보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈퇴 사유</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sign_pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저자 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>order</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력 값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>new_pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tr_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐쉬 충전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번역가 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>detail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wish_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈퇴 성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배송지 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저자 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카트 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>buy_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>각 평점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cart</x:t>
-  </x:si>
-  <x:si>
-    <x:t>길이/설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 후</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대여 가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보유 캐쉬</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈퇴 동의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tr_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>book_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>author</x:t>
-  </x:si>
-  <x:si>
-    <x:t>응답코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pwChk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제 금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구매가능 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상세주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>책 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cause</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현재 비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예)1999</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입 성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NULL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>앱 푸시 수신</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도서 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>grade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YEAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>au_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로고는 각 2개로 구성(RIDIBOOKS, RIDISelect) 해당 로고를 클릭시 해당 메인 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개인정보(필수) 전체동의와 별도로 체크해야 함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃 버튼과 캐시, 포인트, 쿠폰 등 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력한 값이 다를 경우 / 동의 체크가 안된 경우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작품의 소개 / 양에 따라 펼쳐보기/접기 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호 재설정 - 비밀번호 재설정 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위시리스트 / 카트 / 선물하기 / 구매하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입한 이메일을 이용하여 아이디를 찾는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8자이상 영문,숫자,특수문자 중 2가지 이상 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>법정대리인 동의 체크박스 미 체크 시 경고문 발생</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관심도서를 구매/대여 가능 으로 나뉘어 보여줌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일반 회원가입 - 일반 회원가입 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>클릭 시 마이리디 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐쉬충전 - 캐쉬충전 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/find/controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입
-로그인
-캐쉬충전
-내 서재</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/signup/controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/member/controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 서재 - 내 서재 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>각 페이지의 하단 고정인 부분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4) 검색어 저장 켜기 끄기 버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>켰을 때 - 검색한 기록 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/check/controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입 - 회원가입 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>껐을 때 - 성인도서 포함 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디(5~20자 영문,숫자)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 - 로그인 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지 / 클릭 시 이미지 확대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원상태(0-정상 / 1-탈퇴)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작가 / 번역가 / 출판사 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>각 페이지의 상단 고정인 부분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/member/chk_login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터베이스 : rdbooks</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pw 와 pwchk 가 같지 않음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pw와 pwChk가 동일하지 않음</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>d</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>elete_pwChk</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>회원가입 및 로그인 버튼을 캐쉬충전 및 내 서재 버튼으로 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보 변경을 할 수 있는 페이지로 이동하기 위한 비밀번호 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5점을 기준으로 별모양으로 표시 / 숫자점수 / 평가한 인원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stay_login 체크 시 3일 / 기본 1시간 설정(세션)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 후 보이는 버튼으로 클릭 시 내 서재 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 페이지로 이동 / 로그인 시 바로 알림페이지로 이동 됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>각 컨텐츠를 클릭하면 상세페이지로 이동 또는 새 탭으로 열림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저자 및 역자의 프로필 / 작가의 신간알림을 받는 버튼도 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 이후 책에 따라 안내, 책이포함된 세트, 시리즈 등 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색어를 입력하여 DB에 검색 후 검색 결과를 보여주는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력한 값이 저장된 정보와 다를 경우 / 형식에 맞지 않을 경우</x:t>
+    <x:t>q</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>허용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출생</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리뷰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이콘</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인덱스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로필</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>코멘트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>buy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>별점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>국적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색창</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연락처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본값</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -795,249 +942,135 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>q</x:t>
-  </x:si>
-  <x:si>
-    <x:t>허용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출생</x:t>
-  </x:si>
-  <x:si>
-    <x:t>코멘트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이콘</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리뷰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인덱스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로필</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>국적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연락처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>별점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색창</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>buy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 찾기 - 아이디 찾기 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호 실수 확인을 위한 재입력 값 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* () 부분은 해당사항 없으면 생략</x:t>
-  </x:si>
-  <x:si>
-    <x:t>켰을 때 - 성인 으로 분류된 책 표시안함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 알림 여러 종류 받아보고 수정할 예정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인증 후 일반회원가입 페이지로 이동?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 또는 비밀번호가 전달되지 않음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로필 업데이트 일자 및 수정 요청버튼</x:t>
+    <x:t>법정대리인 동의 체크박스 미 체크 시 경고문 발생</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일반 회원가입 - 일반 회원가입 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력한 값이 다를 경우 / 동의 체크가 안된 경우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개인정보(필수) 전체동의와 별도로 체크해야 함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작품의 소개 / 양에 따라 펼쳐보기/접기 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입한 이메일을 이용하여 아이디를 찾는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관심도서를 구매/대여 가능 으로 나뉘어 보여줌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호 재설정 - 비밀번호 재설정 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃 버튼과 캐시, 포인트, 쿠폰 등 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8자이상 영문,숫자,특수문자 중 2가지 이상 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위시리스트 / 카트 / 선물하기 / 구매하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매 / 대여 금액 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5점을 기준으로 별점 평가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호랑 동일하게 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>introduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notifucation_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 중복 확인 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sign_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2,3,4,5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sign_year</x:t>
   </x:si>
   <x:si>
     <x:t>비밀번호 찾기 성공</x:t>
   </x:si>
   <x:si>
-    <x:t>member_name</x:t>
+    <x:t>도서 정보 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택정보 제공동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5) 성인 제외 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>buyprice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recommend</x:t>
   </x:si>
   <x:si>
     <x:t>성인검색표시 여부</x:t>
   </x:si>
   <x:si>
-    <x:t>category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>recommend</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,2,3,4,5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도서 정보 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택정보 제공동의</x:t>
-  </x:si>
-  <x:si>
     <x:t>sign_gender</x:t>
   </x:si>
   <x:si>
-    <x:t>sign_year</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5) 성인 제외 버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>buyprice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sign_email</x:t>
+    <x:t>카트 대여가능 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>translator</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보 수집 동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wishlist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위시리스트 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>find_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATETIME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보가 없는 경우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용 가능한 이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호 재설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>형식이 잘못된 경우</x:t>
   </x:si>
   <x:si>
     <x:t>리디북스 페이지 분석</x:t>
   </x:si>
   <x:si>
-    <x:t>회원정보가 없는 경우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보 수집 동의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wishlist</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용 가능한 이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위시리스트 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호 재설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>형식이 잘못된 경우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>translator</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>find_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATETIME</x:t>
-  </x:si>
-  <x:si>
     <x:t>terms_agree</x:t>
   </x:si>
   <x:si>
@@ -1047,202 +1080,185 @@
     <x:t>번역가 식별 번호</x:t>
   </x:si>
   <x:si>
-    <x:t>카트 대여가능 테이블</x:t>
+    <x:t>sign_name</x:t>
   </x:si>
   <x:si>
     <x:t>마지막 로그인 일</x:t>
   </x:si>
   <x:si>
+    <x:t>비밀번호 확인 성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호 재입력 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>au_career</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bookinfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>signup_date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rentprice</x:t>
+  </x:si>
+  <x:si>
     <x:t>14세 미만 회원가입</x:t>
   </x:si>
   <x:si>
+    <x:t>new_pwChk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입을 위한 기능</x:t>
+  </x:si>
+  <x:si>
     <x:t>tr_career</x:t>
   </x:si>
   <x:si>
+    <x:t>아이디 식별 번호</x:t>
+  </x:si>
+  <x:si>
     <x:t>도서 식별 번호</x:t>
   </x:si>
   <x:si>
-    <x:t>회원가입을 위한 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rentprice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>au_career</x:t>
-  </x:si>
-  <x:si>
     <x:t>new_email</x:t>
   </x:si>
   <x:si>
-    <x:t>sign_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호 확인 성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호 재입력 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 식별 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bookinfo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>signup_date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>new_pwChk</x:t>
+    <x:t>order_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>au_nation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>au_books</x:t>
+  </x:si>
+  <x:si>
+    <x:t>memberinfo</x:t>
   </x:si>
   <x:si>
     <x:t>리디북스 캐쉬 충전</x:t>
   </x:si>
   <x:si>
+    <x:t>아이디 중복 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카트 구매가능 테이블</x:t>
+  </x:si>
+  <x:si>
     <x:t>login_id</x:t>
   </x:si>
   <x:si>
     <x:t>위시리스트 테이블</x:t>
   </x:si>
   <x:si>
-    <x:t>memberinfo</x:t>
+    <x:t>회원정보 변경 성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tr_academic</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도서 고유 식별번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카테고리 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>au_birth</x:t>
   </x:si>
   <x:si>
     <x:t>tr_birth</x:t>
   </x:si>
   <x:si>
-    <x:t>au_books</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카테고리 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 중복 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보 변경 성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tr_academic</x:t>
-  </x:si>
-  <x:si>
     <x:t>출생년도(4자리)</x:t>
   </x:si>
   <x:si>
-    <x:t>카트 구매가능 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도서 고유 식별번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>au_birth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>order_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>au_nation</x:t>
+    <x:t>cash_money</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포인트 고유 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도서 세부 페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>all_agree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>au_academic</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>au_award</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tr_books</x:t>
   </x:si>
   <x:si>
     <x:t>아이디 찾기 성공</x:t>
   </x:si>
   <x:si>
-    <x:t>au_academic</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cash_money</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도서 세부 페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tr_books</x:t>
-  </x:si>
-  <x:si>
-    <x:t>all_agree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>au_award</x:t>
+    <x:t>tr_award</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 페이지로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용 가능한 아이디</x:t>
   </x:si>
   <x:si>
     <x:t>grade_no</x:t>
   </x:si>
   <x:si>
-    <x:t>포인트 고유 번호</x:t>
-  </x:si>
-  <x:si>
     <x:t>sign_pwChk</x:t>
   </x:si>
   <x:si>
-    <x:t>tr_award</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 페이지로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bookname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용 가능한 아이디</x:t>
-  </x:si>
-  <x:si>
     <x:t>저자 식별 번호</x:t>
   </x:si>
   <x:si>
+    <x:t>새 비밀번호 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남 / 녀 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미 가입된 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>point_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>login_date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일 형식이 잘못됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tr_nation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>email_subs</x:t>
+  </x:si>
+  <x:si>
     <x:t>검색 결과 없음</x:t>
   </x:si>
   <x:si>
-    <x:t>point_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남 / 녀 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새 비밀번호 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tr_nation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일 형식이 잘못됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>email_subs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미 가입된 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>login_date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인상태에서만 접근 가능한 URL에 접근하기 위한 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* RIDISelect 페이지는 구현하지 않을 예정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>껐을 때 - 검색해도 기록 x / 검색했던 기록도 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최근 조회한 작품 표시 / 클릭 시 해 당 도서로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디와 이메일을 이용해 비밀번호를 재설정 할 수 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입한 이메일 주소를 이용해 아이디를 알려주는 방식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입한 아이디와 이메일을 이용하여 비밀번호를 재설정함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14세 미만회원가입 - 보호자 동의를 위한 페이지로 이동</x:t>
+    <x:r>
+      <x:t>l</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>ogin_pw</x:t>
+    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -1259,19 +1275,6 @@
   </x:si>
   <x:si>
     <x:r>
-      <x:t>l</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>ogin_pw</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
       <x:t>s</x:t>
     </x:r>
     <x:r>
@@ -1282,6 +1285,15 @@
       </x:rPr>
       <x:t>tay_login</x:t>
     </x:r>
+  </x:si>
+  <x:si>
+    <x:t>도서 이미지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도서 추가 일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>book_name</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2430,7 +2442,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2451,7 +2462,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2472,7 +2482,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2503,7 +2512,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2534,7 +2542,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2612,7 +2619,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2647,7 +2653,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2682,7 +2687,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2727,7 +2731,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2771,7 +2774,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2863,7 +2865,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3364,7 +3366,7 @@
   <x:sheetData>
     <x:row r="2" spans="2:2">
       <x:c r="B2" s="6" t="s">
-        <x:v>315</x:v>
+        <x:v>337</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="4:4">
@@ -3372,10 +3374,10 @@
     </x:row>
     <x:row r="4" spans="2:11">
       <x:c r="B4" s="24" t="s">
-        <x:v>119</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C4" s="8" t="s">
-        <x:v>228</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D4" s="17"/>
       <x:c r="E4" s="17"/>
@@ -3389,10 +3391,10 @@
     <x:row r="5" spans="1:12" s="6" customFormat="1">
       <x:c r="A5" s="4"/>
       <x:c r="B5" s="70" t="s">
-        <x:v>262</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="C5" s="74" t="s">
-        <x:v>198</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D5" s="75"/>
       <x:c r="E5" s="75"/>
@@ -3408,7 +3410,7 @@
       <x:c r="A6" s="4"/>
       <x:c r="B6" s="71"/>
       <x:c r="C6" s="69" t="s">
-        <x:v>389</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="D6" s="69"/>
       <x:c r="E6" s="69"/>
@@ -3437,10 +3439,10 @@
     <x:row r="8" spans="1:12" s="6" customFormat="1">
       <x:c r="A8" s="4"/>
       <x:c r="B8" s="71" t="s">
-        <x:v>288</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="C8" s="69" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D8" s="69"/>
       <x:c r="E8" s="69"/>
@@ -3456,7 +3458,7 @@
       <x:c r="A9" s="4"/>
       <x:c r="B9" s="71"/>
       <x:c r="C9" s="69" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D9" s="69"/>
       <x:c r="E9" s="69"/>
@@ -3472,7 +3474,7 @@
       <x:c r="A10" s="4"/>
       <x:c r="B10" s="71"/>
       <x:c r="C10" s="69" t="s">
-        <x:v>296</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D10" s="69"/>
       <x:c r="E10" s="69"/>
@@ -3488,7 +3490,7 @@
       <x:c r="A11" s="4"/>
       <x:c r="B11" s="71"/>
       <x:c r="C11" s="69" t="s">
-        <x:v>9</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="D11" s="69"/>
       <x:c r="E11" s="69"/>
@@ -3504,7 +3506,7 @@
       <x:c r="A12" s="4"/>
       <x:c r="B12" s="71"/>
       <x:c r="C12" s="69" t="s">
-        <x:v>19</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D12" s="69"/>
       <x:c r="E12" s="69"/>
@@ -3520,12 +3522,12 @@
       <x:c r="A13" s="4"/>
       <x:c r="B13" s="71"/>
       <x:c r="C13" s="69" t="s">
-        <x:v>218</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="D13" s="69"/>
       <x:c r="E13" s="69"/>
       <x:c r="F13" s="69" t="s">
-        <x:v>219</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="G13" s="69"/>
       <x:c r="H13" s="69"/>
@@ -3541,7 +3543,7 @@
       <x:c r="D14" s="69"/>
       <x:c r="E14" s="69"/>
       <x:c r="F14" s="69" t="s">
-        <x:v>390</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="G14" s="69"/>
       <x:c r="H14" s="69"/>
@@ -3554,12 +3556,12 @@
       <x:c r="A15" s="4"/>
       <x:c r="B15" s="71"/>
       <x:c r="C15" s="69" t="s">
-        <x:v>312</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="D15" s="69"/>
       <x:c r="E15" s="69"/>
       <x:c r="F15" s="69" t="s">
-        <x:v>297</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G15" s="69"/>
       <x:c r="H15" s="69"/>
@@ -3575,7 +3577,7 @@
       <x:c r="D16" s="67"/>
       <x:c r="E16" s="67"/>
       <x:c r="F16" s="67" t="s">
-        <x:v>222</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="G16" s="67"/>
       <x:c r="H16" s="67"/>
@@ -3587,13 +3589,13 @@
     <x:row r="17" spans="1:12" s="6" customFormat="1">
       <x:c r="A17" s="4"/>
       <x:c r="B17" s="77" t="s">
-        <x:v>213</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="C17" s="78" t="s">
-        <x:v>84</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D17" s="20" t="s">
-        <x:v>221</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E17" s="20"/>
       <x:c r="F17" s="20"/>
@@ -3609,7 +3611,7 @@
       <x:c r="B18" s="71"/>
       <x:c r="C18" s="79"/>
       <x:c r="D18" s="18" t="s">
-        <x:v>224</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E18" s="18"/>
       <x:c r="F18" s="18"/>
@@ -3624,10 +3626,10 @@
       <x:c r="A19" s="4"/>
       <x:c r="B19" s="71"/>
       <x:c r="C19" s="78" t="s">
-        <x:v>291</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="D19" s="20" t="s">
-        <x:v>234</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E19" s="20"/>
       <x:c r="F19" s="20"/>
@@ -3643,7 +3645,7 @@
       <x:c r="B20" s="71"/>
       <x:c r="C20" s="80"/>
       <x:c r="D20" s="11" t="s">
-        <x:v>211</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E20" s="11"/>
       <x:c r="F20" s="11"/>
@@ -3659,7 +3661,7 @@
       <x:c r="B21" s="72"/>
       <x:c r="C21" s="79"/>
       <x:c r="D21" s="18" t="s">
-        <x:v>216</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E21" s="18"/>
       <x:c r="F21" s="18"/>
@@ -3675,10 +3677,10 @@
         <x:v>275</x:v>
       </x:c>
       <x:c r="C22" s="11" t="s">
-        <x:v>86</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D22" s="11" t="s">
-        <x:v>239</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E22" s="11"/>
       <x:c r="F22" s="11"/>
@@ -3691,10 +3693,10 @@
     <x:row r="23" spans="2:11">
       <x:c r="B23" s="72"/>
       <x:c r="C23" s="18" t="s">
-        <x:v>170</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D23" s="18" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E23" s="18"/>
       <x:c r="F23" s="18"/>
@@ -3706,10 +3708,10 @@
     </x:row>
     <x:row r="24" spans="2:11" ht="17.100000000000001" customHeight="1">
       <x:c r="B24" s="71" t="s">
-        <x:v>281</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="C24" s="11" t="s">
-        <x:v>208</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="D24" s="11"/>
       <x:c r="E24" s="11"/>
@@ -3723,7 +3725,7 @@
     <x:row r="25" spans="2:11">
       <x:c r="B25" s="71"/>
       <x:c r="C25" s="11" t="s">
-        <x:v>11</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="D25" s="11"/>
       <x:c r="E25" s="11"/>
@@ -3737,7 +3739,7 @@
     <x:row r="26" spans="2:11">
       <x:c r="B26" s="72"/>
       <x:c r="C26" s="18" t="s">
-        <x:v>2</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D26" s="18"/>
       <x:c r="E26" s="18"/>
@@ -3750,10 +3752,10 @@
     </x:row>
     <x:row r="27" spans="2:11" ht="16.699999999999999" customHeight="1">
       <x:c r="B27" s="71" t="s">
-        <x:v>106</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="C27" s="11" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="D27" s="11"/>
       <x:c r="E27" s="11"/>
@@ -3767,7 +3769,7 @@
     <x:row r="28" spans="2:11">
       <x:c r="B28" s="71"/>
       <x:c r="C28" s="11" t="s">
-        <x:v>200</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="D28" s="11"/>
       <x:c r="E28" s="11"/>
@@ -3781,7 +3783,7 @@
     <x:row r="29" spans="2:11">
       <x:c r="B29" s="71"/>
       <x:c r="C29" s="11" t="s">
-        <x:v>391</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="D29" s="11"/>
       <x:c r="E29" s="11"/>
@@ -3795,7 +3797,7 @@
     <x:row r="30" spans="2:11">
       <x:c r="B30" s="81"/>
       <x:c r="C30" s="14" t="s">
-        <x:v>20</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D30" s="14"/>
       <x:c r="E30" s="14"/>
@@ -3808,10 +3810,10 @@
     </x:row>
     <x:row r="33" spans="2:11">
       <x:c r="B33" s="24" t="s">
-        <x:v>133</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C33" s="8" t="s">
-        <x:v>217</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D33" s="17"/>
       <x:c r="E33" s="17"/>
@@ -3824,7 +3826,7 @@
     </x:row>
     <x:row r="34" spans="2:11">
       <x:c r="B34" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C34" s="17"/>
       <x:c r="D34" s="17"/>
@@ -3838,7 +3840,7 @@
     </x:row>
     <x:row r="35" spans="2:11">
       <x:c r="B35" s="13" t="s">
-        <x:v>240</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C35" s="14"/>
       <x:c r="D35" s="14"/>
@@ -3852,10 +3854,10 @@
     </x:row>
     <x:row r="38" spans="2:11">
       <x:c r="B38" s="24" t="s">
-        <x:v>291</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="C38" s="8" t="s">
-        <x:v>375</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="D38" s="17"/>
       <x:c r="E38" s="17"/>
@@ -3868,7 +3870,7 @@
     </x:row>
     <x:row r="39" spans="2:11">
       <x:c r="B39" s="8" t="s">
-        <x:v>78</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C39" s="17"/>
       <x:c r="D39" s="17"/>
@@ -3882,7 +3884,7 @@
     </x:row>
     <x:row r="40" spans="2:11">
       <x:c r="B40" s="10" t="s">
-        <x:v>62</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C40" s="11"/>
       <x:c r="D40" s="11"/>
@@ -3910,7 +3912,7 @@
     </x:row>
     <x:row r="42" spans="2:11">
       <x:c r="B42" s="10" t="s">
-        <x:v>294</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="C42" s="11"/>
       <x:c r="D42" s="11"/>
@@ -3924,7 +3926,7 @@
     </x:row>
     <x:row r="43" spans="2:11">
       <x:c r="B43" s="10" t="s">
-        <x:v>203</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="C43" s="11"/>
       <x:c r="D43" s="11"/>
@@ -3952,7 +3954,7 @@
     </x:row>
     <x:row r="45" spans="2:11">
       <x:c r="B45" s="13" t="s">
-        <x:v>221</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="C45" s="14"/>
       <x:c r="D45" s="14"/>
@@ -3966,7 +3968,7 @@
     </x:row>
     <x:row r="47" spans="2:11">
       <x:c r="B47" s="8" t="s">
-        <x:v>125</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C47" s="17"/>
       <x:c r="D47" s="17"/>
@@ -3980,7 +3982,7 @@
     </x:row>
     <x:row r="48" spans="2:11">
       <x:c r="B48" s="10" t="s">
-        <x:v>393</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C48" s="11"/>
       <x:c r="D48" s="11"/>
@@ -3994,7 +3996,7 @@
     </x:row>
     <x:row r="49" spans="2:11">
       <x:c r="B49" s="13" t="s">
-        <x:v>22</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C49" s="14"/>
       <x:c r="D49" s="14"/>
@@ -4008,7 +4010,7 @@
     </x:row>
     <x:row r="51" spans="2:11">
       <x:c r="B51" s="8" t="s">
-        <x:v>321</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="C51" s="17"/>
       <x:c r="D51" s="17"/>
@@ -4022,7 +4024,7 @@
     </x:row>
     <x:row r="52" spans="2:11">
       <x:c r="B52" s="10" t="s">
-        <x:v>392</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C52" s="11"/>
       <x:c r="D52" s="11"/>
@@ -4036,7 +4038,7 @@
     </x:row>
     <x:row r="53" spans="2:11">
       <x:c r="B53" s="13" t="s">
-        <x:v>12</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="C53" s="14"/>
       <x:c r="D53" s="14"/>
@@ -4050,10 +4052,10 @@
     </x:row>
     <x:row r="56" spans="2:11">
       <x:c r="B56" s="24" t="s">
-        <x:v>137</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C56" s="8" t="s">
-        <x:v>51</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="D56" s="17"/>
       <x:c r="E56" s="17"/>
@@ -4066,7 +4068,7 @@
     </x:row>
     <x:row r="57" spans="2:11">
       <x:c r="B57" s="8" t="s">
-        <x:v>209</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="C57" s="17"/>
       <x:c r="D57" s="17"/>
@@ -4080,7 +4082,7 @@
     </x:row>
     <x:row r="58" spans="2:11">
       <x:c r="B58" s="10" t="s">
-        <x:v>224</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="C58" s="11"/>
       <x:c r="D58" s="11"/>
@@ -4094,7 +4096,7 @@
     </x:row>
     <x:row r="59" spans="2:11">
       <x:c r="B59" s="13" t="s">
-        <x:v>395</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="C59" s="14"/>
       <x:c r="D59" s="14"/>
@@ -4108,7 +4110,7 @@
     </x:row>
     <x:row r="62" spans="2:11">
       <x:c r="B62" s="26" t="s">
-        <x:v>102</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="C62" s="27"/>
       <x:c r="D62" s="27"/>
@@ -4122,13 +4124,13 @@
     </x:row>
     <x:row r="63" spans="2:11" ht="16.699999999999999" customHeight="1">
       <x:c r="B63" s="70" t="s">
-        <x:v>92</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C63" s="29" t="s">
-        <x:v>280</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="D63" s="17" t="s">
-        <x:v>223</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E63" s="17"/>
       <x:c r="F63" s="17"/>
@@ -4141,10 +4143,10 @@
     <x:row r="64" spans="2:11">
       <x:c r="B64" s="82"/>
       <x:c r="C64" s="22" t="s">
-        <x:v>143</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D64" s="11" t="s">
-        <x:v>206</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="E64" s="11"/>
       <x:c r="F64" s="11"/>
@@ -4157,10 +4159,10 @@
     <x:row r="65" spans="2:11">
       <x:c r="B65" s="82"/>
       <x:c r="C65" s="22" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="D65" s="11" t="s">
-        <x:v>46</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="E65" s="11"/>
       <x:c r="F65" s="11"/>
@@ -4173,7 +4175,7 @@
     <x:row r="66" spans="2:11">
       <x:c r="B66" s="82"/>
       <x:c r="C66" s="22" t="s">
-        <x:v>246</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D66" s="11"/>
       <x:c r="E66" s="11"/>
@@ -4187,7 +4189,7 @@
     <x:row r="67" spans="2:11">
       <x:c r="B67" s="83"/>
       <x:c r="C67" s="25" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="D67" s="18"/>
       <x:c r="E67" s="18"/>
@@ -4200,13 +4202,13 @@
     </x:row>
     <x:row r="68" spans="2:11">
       <x:c r="B68" s="84" t="s">
-        <x:v>63</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C68" s="22" t="s">
-        <x:v>104</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D68" s="11" t="s">
-        <x:v>189</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E68" s="11"/>
       <x:c r="F68" s="11"/>
@@ -4222,7 +4224,7 @@
         <x:v>271</x:v>
       </x:c>
       <x:c r="D69" s="18" t="s">
-        <x:v>381</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="E69" s="18"/>
       <x:c r="F69" s="18"/>
@@ -4234,13 +4236,13 @@
     </x:row>
     <x:row r="70" spans="2:11">
       <x:c r="B70" s="84" t="s">
-        <x:v>108</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="C70" s="22" t="s">
-        <x:v>99</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D70" s="11" t="s">
-        <x:v>21</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E70" s="11"/>
       <x:c r="F70" s="11"/>
@@ -4254,7 +4256,7 @@
       <x:c r="B71" s="83"/>
       <x:c r="C71" s="25"/>
       <x:c r="D71" s="18" t="s">
-        <x:v>199</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="E71" s="18"/>
       <x:c r="F71" s="18"/>
@@ -4266,7 +4268,7 @@
     </x:row>
     <x:row r="72" spans="2:11">
       <x:c r="B72" s="28" t="s">
-        <x:v>13</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="C72" s="18"/>
       <x:c r="D72" s="18"/>
@@ -4280,7 +4282,7 @@
     </x:row>
     <x:row r="73" spans="2:11">
       <x:c r="B73" s="13" t="s">
-        <x:v>6</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C73" s="14"/>
       <x:c r="D73" s="14"/>
@@ -4294,7 +4296,7 @@
     </x:row>
     <x:row r="75" spans="2:11">
       <x:c r="B75" s="26" t="s">
-        <x:v>332</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="C75" s="27"/>
       <x:c r="D75" s="27"/>
@@ -4308,7 +4310,7 @@
     </x:row>
     <x:row r="76" spans="2:11">
       <x:c r="B76" s="8" t="s">
-        <x:v>207</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="C76" s="17"/>
       <x:c r="D76" s="17"/>
@@ -4322,7 +4324,7 @@
     </x:row>
     <x:row r="77" spans="2:11">
       <x:c r="B77" s="10" t="s">
-        <x:v>15</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="C77" s="11"/>
       <x:c r="D77" s="11"/>
@@ -4336,7 +4338,7 @@
     </x:row>
     <x:row r="78" spans="2:11">
       <x:c r="B78" s="10" t="s">
-        <x:v>299</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="C78" s="11"/>
       <x:c r="D78" s="11"/>
@@ -4350,7 +4352,7 @@
     </x:row>
     <x:row r="79" spans="2:11">
       <x:c r="B79" s="13" t="s">
-        <x:v>18</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C79" s="14"/>
       <x:c r="D79" s="14"/>
@@ -4364,7 +4366,7 @@
     </x:row>
     <x:row r="81" spans="2:11">
       <x:c r="B81" s="26" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C81" s="27"/>
       <x:c r="D81" s="27"/>
@@ -4378,10 +4380,10 @@
     </x:row>
     <x:row r="84" spans="2:11">
       <x:c r="B84" s="24" t="s">
-        <x:v>110</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="C84" s="27" t="s">
-        <x:v>17</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D84" s="27"/>
       <x:c r="E84" s="27"/>
@@ -4394,10 +4396,10 @@
     </x:row>
     <x:row r="85" spans="2:11">
       <x:c r="B85" s="24" t="s">
-        <x:v>123</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="C85" s="27" t="s">
-        <x:v>238</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D85" s="27"/>
       <x:c r="E85" s="27"/>
@@ -4410,10 +4412,10 @@
     </x:row>
     <x:row r="88" spans="2:11">
       <x:c r="B88" s="24" t="s">
-        <x:v>289</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="C88" s="27" t="s">
-        <x:v>367</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="D88" s="27"/>
       <x:c r="E88" s="27"/>
@@ -4426,10 +4428,10 @@
     </x:row>
     <x:row r="89" spans="2:11">
       <x:c r="B89" s="30" t="s">
-        <x:v>76</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C89" s="17" t="s">
-        <x:v>225</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="D89" s="17"/>
       <x:c r="E89" s="17"/>
@@ -4442,10 +4444,10 @@
     </x:row>
     <x:row r="90" spans="2:11">
       <x:c r="B90" s="31" t="s">
-        <x:v>145</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C90" s="11" t="s">
-        <x:v>4</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D90" s="11"/>
       <x:c r="E90" s="11"/>
@@ -4458,10 +4460,10 @@
     </x:row>
     <x:row r="91" spans="2:11">
       <x:c r="B91" s="31" t="s">
-        <x:v>250</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="C91" s="11" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D91" s="11"/>
       <x:c r="E91" s="11"/>
@@ -4474,10 +4476,10 @@
     </x:row>
     <x:row r="92" spans="2:11">
       <x:c r="B92" s="31" t="s">
-        <x:v>185</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C92" s="11" t="s">
-        <x:v>136</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D92" s="11"/>
       <x:c r="E92" s="11"/>
@@ -4490,10 +4492,10 @@
     </x:row>
     <x:row r="93" spans="2:11">
       <x:c r="B93" s="31" t="s">
-        <x:v>285</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="C93" s="11" t="s">
-        <x:v>236</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D93" s="11"/>
       <x:c r="E93" s="11"/>
@@ -4507,7 +4509,7 @@
     <x:row r="94" spans="2:11">
       <x:c r="B94" s="31"/>
       <x:c r="C94" s="11" t="s">
-        <x:v>227</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D94" s="11"/>
       <x:c r="E94" s="11"/>
@@ -4521,7 +4523,7 @@
     <x:row r="95" spans="2:11">
       <x:c r="B95" s="31"/>
       <x:c r="C95" s="11" t="s">
-        <x:v>43</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="D95" s="11"/>
       <x:c r="E95" s="11"/>
@@ -4534,10 +4536,10 @@
     </x:row>
     <x:row r="96" spans="2:11">
       <x:c r="B96" s="31" t="s">
-        <x:v>257</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="C96" s="11" t="s">
-        <x:v>204</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="D96" s="11"/>
       <x:c r="E96" s="11"/>
@@ -4551,7 +4553,7 @@
     <x:row r="97" spans="2:11">
       <x:c r="B97" s="31"/>
       <x:c r="C97" s="11" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D97" s="11"/>
       <x:c r="E97" s="11"/>
@@ -4565,7 +4567,7 @@
     <x:row r="98" spans="2:11">
       <x:c r="B98" s="31"/>
       <x:c r="C98" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D98" s="11"/>
       <x:c r="E98" s="11"/>
@@ -4578,10 +4580,10 @@
     </x:row>
     <x:row r="99" spans="2:11">
       <x:c r="B99" s="31" t="s">
-        <x:v>258</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="C99" s="11" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D99" s="11"/>
       <x:c r="E99" s="11"/>
@@ -4595,7 +4597,7 @@
     <x:row r="100" spans="2:11">
       <x:c r="B100" s="31"/>
       <x:c r="C100" s="11" t="s">
-        <x:v>242</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D100" s="11"/>
       <x:c r="E100" s="11"/>
@@ -4608,10 +4610,10 @@
     </x:row>
     <x:row r="101" spans="2:11">
       <x:c r="B101" s="31" t="s">
-        <x:v>138</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C101" s="11" t="s">
-        <x:v>202</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="D101" s="11"/>
       <x:c r="E101" s="11"/>
@@ -4624,10 +4626,10 @@
     </x:row>
     <x:row r="102" spans="2:11">
       <x:c r="B102" s="71" t="s">
-        <x:v>270</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C102" s="11" t="s">
-        <x:v>241</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D102" s="11"/>
       <x:c r="E102" s="11"/>
@@ -4641,7 +4643,7 @@
     <x:row r="103" spans="2:11">
       <x:c r="B103" s="71"/>
       <x:c r="C103" s="11" t="s">
-        <x:v>301</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D103" s="11"/>
       <x:c r="E103" s="11"/>
@@ -4654,10 +4656,10 @@
     </x:row>
     <x:row r="104" spans="2:11">
       <x:c r="B104" s="71" t="s">
-        <x:v>267</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="C104" s="11" t="s">
-        <x:v>61</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="D104" s="11"/>
       <x:c r="E104" s="11"/>
@@ -4671,7 +4673,7 @@
     <x:row r="105" spans="2:11">
       <x:c r="B105" s="71"/>
       <x:c r="C105" s="11" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D105" s="11"/>
       <x:c r="E105" s="11"/>
@@ -4684,10 +4686,10 @@
     </x:row>
     <x:row r="106" spans="2:11">
       <x:c r="B106" s="32" t="s">
-        <x:v>117</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="C106" s="14" t="s">
-        <x:v>10</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="D106" s="14"/>
       <x:c r="E106" s="14"/>
@@ -4750,50 +4752,50 @@
   <x:sheetData>
     <x:row r="1" spans="1:4" ht="16.75">
       <x:c r="A1" s="34" t="s">
-        <x:v>259</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B1" s="33" t="s">
-        <x:v>291</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="D1" s="5"/>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="A2" s="31" t="s">
-        <x:v>247</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B2" s="65" t="s">
-        <x:v>215</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="D2" s="5"/>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="A3" s="35" t="s">
-        <x:v>129</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B3" s="19" t="s">
-        <x:v>120</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D3" s="5"/>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="31" t="s">
-        <x:v>68</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B4" s="12"/>
       <x:c r="D4" s="3"/>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="31" t="s">
-        <x:v>272</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B5" s="12" t="s">
-        <x:v>348</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="E5" s="22"/>
     </x:row>
     <x:row r="6" spans="1:5" s="7" customFormat="1">
       <x:c r="A6" s="54" t="s">
-        <x:v>245</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B6" s="55" t="s">
         <x:v>397</x:v>
@@ -4802,16 +4804,16 @@
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="56" t="s">
-        <x:v>396</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="B7" s="57" t="s">
-        <x:v>398</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="E7" s="22"/>
     </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="A8" s="31" t="s">
-        <x:v>177</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B8" s="12"/>
       <x:c r="D8" s="3"/>
@@ -4821,7 +4823,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B9" s="12" t="s">
-        <x:v>93</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D9" s="5"/>
     </x:row>
@@ -4830,7 +4832,7 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B10" s="12" t="s">
-        <x:v>300</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="D10" s="5"/>
     </x:row>
@@ -4839,24 +4841,24 @@
         <x:v>404</x:v>
       </x:c>
       <x:c r="B11" s="19" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C11" s="3"/>
       <x:c r="G11" s="44"/>
     </x:row>
     <x:row r="12" spans="1:7" s="1" customFormat="1">
       <x:c r="A12" s="31" t="s">
-        <x:v>260</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="B12" s="12" t="s">
-        <x:v>59</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="G12" s="44"/>
     </x:row>
     <x:row r="13" spans="1:3" s="5" customFormat="1" ht="16.75">
       <x:c r="A13" s="32"/>
       <x:c r="B13" s="15" t="s">
-        <x:v>237</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C13" s="3"/>
     </x:row>
@@ -4870,35 +4872,35 @@
     </x:row>
     <x:row r="16" spans="1:2" s="3" customFormat="1" ht="16.75">
       <x:c r="A16" s="34" t="s">
-        <x:v>259</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B16" s="33" t="s">
-        <x:v>135</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:2" s="3" customFormat="1">
       <x:c r="A17" s="31" t="s">
-        <x:v>247</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B17" s="12"/>
     </x:row>
     <x:row r="18" spans="1:2" s="3" customFormat="1">
       <x:c r="A18" s="35" t="s">
-        <x:v>129</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B18" s="19"/>
     </x:row>
     <x:row r="19" spans="1:2" s="3" customFormat="1">
       <x:c r="A19" s="35" t="s">
-        <x:v>68</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B19" s="19" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:2" s="3" customFormat="1">
       <x:c r="A20" s="31" t="s">
-        <x:v>177</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B20" s="12"/>
     </x:row>
@@ -4907,7 +4909,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B21" s="12" t="s">
-        <x:v>77</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:2" s="3" customFormat="1">
@@ -4915,15 +4917,15 @@
         <x:v>404</x:v>
       </x:c>
       <x:c r="B22" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:2" s="3" customFormat="1" ht="16.75">
       <x:c r="A23" s="32" t="s">
-        <x:v>260</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="B23" s="15" t="s">
-        <x:v>154</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:2" s="3" customFormat="1">
@@ -4937,39 +4939,39 @@
     </x:row>
     <x:row r="26" spans="1:2" s="3" customFormat="1" ht="16.75">
       <x:c r="A26" s="34" t="s">
-        <x:v>259</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B26" s="33" t="s">
-        <x:v>192</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:2" s="3" customFormat="1">
       <x:c r="A27" s="31" t="s">
-        <x:v>247</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B27" s="12" t="s">
-        <x:v>229</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:2" s="3" customFormat="1">
       <x:c r="A28" s="35" t="s">
-        <x:v>129</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B28" s="19" t="s">
-        <x:v>120</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:2" s="3" customFormat="1">
       <x:c r="A29" s="35" t="s">
-        <x:v>68</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B29" s="19" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:2" s="3" customFormat="1">
       <x:c r="A30" s="31" t="s">
-        <x:v>177</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B30" s="12"/>
     </x:row>
@@ -4978,7 +4980,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B31" s="12" t="s">
-        <x:v>181</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:2" s="3" customFormat="1">
@@ -4986,15 +4988,15 @@
         <x:v>401</x:v>
       </x:c>
       <x:c r="B32" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:2" s="3" customFormat="1" ht="16.75">
       <x:c r="A33" s="32" t="s">
-        <x:v>260</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="B33" s="15" t="s">
-        <x:v>388</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:2" s="3" customFormat="1">
@@ -5007,80 +5009,80 @@
     </x:row>
     <x:row r="36" spans="1:2" s="4" customFormat="1" ht="16.75">
       <x:c r="A36" s="34" t="s">
-        <x:v>259</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B36" s="33" t="s">
-        <x:v>137</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:2" s="4" customFormat="1">
       <x:c r="A37" s="31" t="s">
-        <x:v>247</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B37" s="65" t="s">
-        <x:v>214</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:2" s="4" customFormat="1">
       <x:c r="A38" s="35" t="s">
-        <x:v>129</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B38" s="19" t="s">
-        <x:v>120</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:2" s="4" customFormat="1">
       <x:c r="A39" s="31" t="s">
-        <x:v>68</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B39" s="12"/>
     </x:row>
     <x:row r="40" spans="1:2" s="4" customFormat="1">
       <x:c r="A40" s="31" t="s">
-        <x:v>272</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B40" s="55" t="s">
-        <x:v>105</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:2" s="4" customFormat="1">
       <x:c r="A41" s="31" t="s">
-        <x:v>266</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B41" s="55" t="s">
-        <x:v>147</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:2" s="4" customFormat="1">
       <x:c r="A42" s="31" t="s">
-        <x:v>131</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B42" s="55" t="s">
-        <x:v>373</x:v>
+        <x:v>386</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:2" s="4" customFormat="1">
       <x:c r="A43" s="31" t="s">
-        <x:v>139</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B43" s="55" t="s">
-        <x:v>314</x:v>
+        <x:v>312</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:2" s="4" customFormat="1">
       <x:c r="A44" s="31" t="s">
-        <x:v>74</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B44" s="55" t="s">
-        <x:v>339</x:v>
+        <x:v>341</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:2" s="4" customFormat="1">
       <x:c r="A45" s="31" t="s">
-        <x:v>104</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B45" s="55" t="s">
-        <x:v>311</x:v>
+        <x:v>316</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:2" s="4" customFormat="1">
@@ -5088,52 +5090,52 @@
         <x:v>271</x:v>
       </x:c>
       <x:c r="B46" s="55" t="s">
-        <x:v>310</x:v>
+        <x:v>324</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:2" s="4" customFormat="1">
       <x:c r="A47" s="31" t="s">
-        <x:v>99</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B47" s="12" t="s">
-        <x:v>369</x:v>
+        <x:v>376</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:2" s="4" customFormat="1">
       <x:c r="A48" s="31" t="s">
-        <x:v>128</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B48" s="12" t="s">
-        <x:v>327</x:v>
+        <x:v>338</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:2" s="4" customFormat="1">
       <x:c r="A49" s="31" t="s">
-        <x:v>69</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B49" s="55" t="s">
-        <x:v>60</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:2" s="4" customFormat="1">
       <x:c r="A50" s="31" t="s">
-        <x:v>124</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B50" s="55" t="s">
-        <x:v>47</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:2" s="4" customFormat="1">
       <x:c r="A51" s="35" t="s">
-        <x:v>317</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B51" s="19" t="s">
-        <x:v>55</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:2" s="4" customFormat="1">
       <x:c r="A52" s="31" t="s">
-        <x:v>177</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B52" s="12"/>
     </x:row>
@@ -5142,7 +5144,7 @@
         <x:v>201</x:v>
       </x:c>
       <x:c r="B53" s="12" t="s">
-        <x:v>190</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:2" s="4" customFormat="1">
@@ -5150,25 +5152,25 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B54" s="12" t="s">
-        <x:v>40</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:2" s="4" customFormat="1">
       <x:c r="A55" s="31"/>
       <x:c r="B55" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:2" s="4" customFormat="1">
       <x:c r="A56" s="31"/>
       <x:c r="B56" s="12" t="s">
-        <x:v>231</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:2" s="4" customFormat="1">
       <x:c r="A57" s="31"/>
       <x:c r="B57" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:2" s="4" customFormat="1">
@@ -5176,15 +5178,15 @@
         <x:v>404</x:v>
       </x:c>
       <x:c r="B58" s="19" t="s">
-        <x:v>386</x:v>
+        <x:v>390</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:2" s="3" customFormat="1" ht="16.75">
       <x:c r="A59" s="32" t="s">
-        <x:v>260</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="B59" s="15" t="s">
-        <x:v>335</x:v>
+        <x:v>352</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:2" s="4" customFormat="1">
@@ -5196,45 +5198,45 @@
     </x:row>
     <x:row r="62" spans="1:2" s="3" customFormat="1" ht="16.75">
       <x:c r="A62" s="34" t="s">
-        <x:v>259</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B62" s="33" t="s">
-        <x:v>354</x:v>
+        <x:v>362</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:2" s="3" customFormat="1">
       <x:c r="A63" s="45" t="s">
-        <x:v>247</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B63" s="64" t="s">
-        <x:v>220</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:2" s="3" customFormat="1">
       <x:c r="A64" s="35" t="s">
-        <x:v>129</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B64" s="63" t="s">
-        <x:v>29</x:v>
+        <x:v>245</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:2" s="3" customFormat="1">
       <x:c r="A65" s="31" t="s">
-        <x:v>68</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B65" s="12"/>
     </x:row>
     <x:row r="66" spans="1:2" s="3" customFormat="1">
       <x:c r="A66" s="35" t="s">
-        <x:v>272</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B66" s="19" t="s">
-        <x:v>105</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:2" s="3" customFormat="1">
       <x:c r="A67" s="31" t="s">
-        <x:v>177</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B67" s="12"/>
     </x:row>
@@ -5243,7 +5245,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B68" s="12" t="s">
-        <x:v>377</x:v>
+        <x:v>384</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:2" s="3" customFormat="1">
@@ -5251,15 +5253,15 @@
         <x:v>404</x:v>
       </x:c>
       <x:c r="B69" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:2" s="3" customFormat="1" ht="16.75">
       <x:c r="A70" s="32" t="s">
-        <x:v>260</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="B70" s="15" t="s">
-        <x:v>44</x:v>
+        <x:v>311</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:1" s="3" customFormat="1">
@@ -5270,45 +5272,45 @@
     </x:row>
     <x:row r="73" spans="1:2" s="3" customFormat="1" ht="16.75">
       <x:c r="A73" s="34" t="s">
-        <x:v>259</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B73" s="33" t="s">
-        <x:v>328</x:v>
+        <x:v>339</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:2" s="3" customFormat="1">
       <x:c r="A74" s="45" t="s">
-        <x:v>247</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B74" s="64" t="s">
-        <x:v>220</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:2" s="3" customFormat="1">
       <x:c r="A75" s="35" t="s">
-        <x:v>129</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B75" s="19" t="s">
-        <x:v>120</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:2" s="3" customFormat="1">
       <x:c r="A76" s="31" t="s">
-        <x:v>68</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B76" s="12"/>
     </x:row>
     <x:row r="77" spans="1:2" s="3" customFormat="1">
       <x:c r="A77" s="35" t="s">
-        <x:v>95</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B77" s="19" t="s">
-        <x:v>314</x:v>
+        <x:v>312</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:2" s="3" customFormat="1">
       <x:c r="A78" s="31" t="s">
-        <x:v>177</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B78" s="12"/>
     </x:row>
@@ -5317,7 +5319,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B79" s="12" t="s">
-        <x:v>319</x:v>
+        <x:v>334</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:2" s="3" customFormat="1">
@@ -5325,15 +5327,15 @@
         <x:v>404</x:v>
       </x:c>
       <x:c r="B80" s="19" t="s">
-        <x:v>38</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:2" s="3" customFormat="1" ht="16.75">
       <x:c r="A81" s="32" t="s">
-        <x:v>260</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="B81" s="15" t="s">
-        <x:v>50</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:1" s="3" customFormat="1">
@@ -5344,51 +5346,51 @@
     </x:row>
     <x:row r="84" spans="1:2" s="3" customFormat="1" ht="16.75">
       <x:c r="A84" s="34" t="s">
-        <x:v>259</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B84" s="33" t="s">
-        <x:v>342</x:v>
+        <x:v>345</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:2" s="3" customFormat="1">
       <x:c r="A85" s="45" t="s">
-        <x:v>247</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B85" s="64"/>
     </x:row>
     <x:row r="86" spans="1:2" s="3" customFormat="1">
       <x:c r="A86" s="35" t="s">
-        <x:v>129</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B86" s="19" t="s">
-        <x:v>120</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:2" s="3" customFormat="1">
       <x:c r="A87" s="31" t="s">
-        <x:v>68</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B87" s="12"/>
     </x:row>
     <x:row r="88" spans="1:2" s="3" customFormat="1">
       <x:c r="A88" s="31" t="s">
-        <x:v>265</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B88" s="12" t="s">
-        <x:v>147</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:2" s="3" customFormat="1">
       <x:c r="A89" s="35" t="s">
-        <x:v>178</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B89" s="19" t="s">
-        <x:v>373</x:v>
+        <x:v>386</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:2" s="3" customFormat="1">
       <x:c r="A90" s="31" t="s">
-        <x:v>177</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B90" s="12"/>
     </x:row>
@@ -5397,7 +5399,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B91" s="12" t="s">
-        <x:v>36</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:2" s="3" customFormat="1">
@@ -5405,15 +5407,15 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B92" s="19" t="s">
-        <x:v>232</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:2" s="3" customFormat="1" ht="16.75">
       <x:c r="A93" s="32" t="s">
-        <x:v>260</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="B93" s="15" t="s">
-        <x:v>295</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:1" s="3" customFormat="1">
@@ -5425,45 +5427,45 @@
     </x:row>
     <x:row r="96" spans="1:2" ht="16.75">
       <x:c r="A96" s="34" t="s">
-        <x:v>259</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B96" s="33" t="s">
-        <x:v>125</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:2">
       <x:c r="A97" s="31" t="s">
-        <x:v>247</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B97" s="65" t="s">
-        <x:v>212</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:2">
       <x:c r="A98" s="35" t="s">
-        <x:v>129</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B98" s="19" t="s">
-        <x:v>274</x:v>
+        <x:v>277</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:2">
       <x:c r="A99" s="31" t="s">
-        <x:v>68</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B99" s="12"/>
     </x:row>
     <x:row r="100" spans="1:2">
       <x:c r="A100" s="35" t="s">
-        <x:v>95</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B100" s="19" t="s">
-        <x:v>325</x:v>
+        <x:v>331</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:2">
       <x:c r="A101" s="31" t="s">
-        <x:v>177</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B101" s="12"/>
     </x:row>
@@ -5472,7 +5474,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B102" s="12" t="s">
-        <x:v>363</x:v>
+        <x:v>381</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:2">
@@ -5480,13 +5482,13 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B103" s="12" t="s">
-        <x:v>56</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:2">
       <x:c r="A104" s="31"/>
       <x:c r="B104" s="12" t="s">
-        <x:v>384</x:v>
+        <x:v>393</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:2" s="3" customFormat="1">
@@ -5494,15 +5496,15 @@
         <x:v>404</x:v>
       </x:c>
       <x:c r="B105" s="19" t="s">
-        <x:v>316</x:v>
+        <x:v>333</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:2" ht="16.75">
       <x:c r="A106" s="32" t="s">
-        <x:v>260</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="B106" s="15" t="s">
-        <x:v>205</x:v>
+        <x:v>300</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:3" s="5" customFormat="1">
@@ -5515,53 +5517,53 @@
     </x:row>
     <x:row r="109" spans="1:2" ht="16.75">
       <x:c r="A109" s="34" t="s">
-        <x:v>259</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B109" s="33" t="s">
-        <x:v>321</x:v>
+        <x:v>335</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:2">
       <x:c r="A110" s="31" t="s">
-        <x:v>247</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B110" s="65" t="s">
-        <x:v>212</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:2">
       <x:c r="A111" s="35" t="s">
-        <x:v>129</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B111" s="19" t="s">
-        <x:v>274</x:v>
+        <x:v>277</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:2">
       <x:c r="A112" s="31" t="s">
-        <x:v>68</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B112" s="12"/>
     </x:row>
     <x:row r="113" spans="1:2">
       <x:c r="A113" s="31" t="s">
-        <x:v>272</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B113" s="12" t="s">
-        <x:v>112</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:2">
       <x:c r="A114" s="35" t="s">
-        <x:v>95</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B114" s="19" t="s">
-        <x:v>325</x:v>
+        <x:v>331</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:2">
       <x:c r="A115" s="31" t="s">
-        <x:v>177</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B115" s="12"/>
     </x:row>
@@ -5570,7 +5572,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B116" s="12" t="s">
-        <x:v>302</x:v>
+        <x:v>317</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:2">
@@ -5578,13 +5580,13 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B117" s="12" t="s">
-        <x:v>300</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:2">
       <x:c r="A118" s="31"/>
       <x:c r="B118" s="12" t="s">
-        <x:v>322</x:v>
+        <x:v>336</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:2">
@@ -5592,15 +5594,15 @@
         <x:v>404</x:v>
       </x:c>
       <x:c r="B119" s="19" t="s">
-        <x:v>316</x:v>
+        <x:v>333</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:2" ht="16.75">
       <x:c r="A120" s="32" t="s">
-        <x:v>260</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="B120" s="15" t="s">
-        <x:v>394</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="2:2">
@@ -5611,53 +5613,53 @@
     </x:row>
     <x:row r="123" spans="1:2" ht="16.75">
       <x:c r="A123" s="34" t="s">
-        <x:v>259</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B123" s="33" t="s">
-        <x:v>252</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:2">
       <x:c r="A124" s="45" t="s">
-        <x:v>247</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B124" s="46" t="s">
-        <x:v>97</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:2">
       <x:c r="A125" s="35" t="s">
-        <x:v>129</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B125" s="19" t="s">
-        <x:v>274</x:v>
+        <x:v>277</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:2">
       <x:c r="A126" s="31" t="s">
-        <x:v>68</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B126" s="12"/>
     </x:row>
     <x:row r="127" spans="1:2">
       <x:c r="A127" s="31" t="s">
-        <x:v>253</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B127" s="12" t="s">
-        <x:v>151</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:2">
       <x:c r="A128" s="35" t="s">
-        <x:v>85</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B128" s="19" t="s">
-        <x:v>304</x:v>
+        <x:v>323</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:2">
       <x:c r="A129" s="31" t="s">
-        <x:v>177</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B129" s="12"/>
     </x:row>
@@ -5666,7 +5668,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B130" s="12" t="s">
-        <x:v>111</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:2">
@@ -5674,15 +5676,15 @@
         <x:v>404</x:v>
       </x:c>
       <x:c r="B131" s="19" t="s">
-        <x:v>379</x:v>
+        <x:v>396</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:2" ht="16.75">
       <x:c r="A132" s="32" t="s">
-        <x:v>260</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="B132" s="15" t="s">
-        <x:v>243</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="2:2">
@@ -5693,43 +5695,43 @@
     </x:row>
     <x:row r="135" spans="1:2" ht="16.75">
       <x:c r="A135" s="49" t="s">
-        <x:v>259</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B135" s="33" t="s">
-        <x:v>32</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:2">
       <x:c r="A136" s="47" t="s">
-        <x:v>247</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B136" s="12"/>
     </x:row>
     <x:row r="137" spans="1:2">
       <x:c r="A137" s="50" t="s">
-        <x:v>129</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B137" s="19" t="s">
-        <x:v>120</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:2">
       <x:c r="A138" s="47" t="s">
-        <x:v>68</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B138" s="12"/>
     </x:row>
     <x:row r="139" spans="1:2">
       <x:c r="A139" s="50" t="s">
-        <x:v>178</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B139" s="19" t="s">
-        <x:v>178</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:2">
       <x:c r="A140" s="47" t="s">
-        <x:v>177</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B140" s="12"/>
     </x:row>
@@ -5738,7 +5740,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B141" s="12" t="s">
-        <x:v>340</x:v>
+        <x:v>343</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:2">
@@ -5746,15 +5748,15 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B142" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:2" ht="16.75">
       <x:c r="A143" s="48" t="s">
-        <x:v>260</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="B143" s="15" t="s">
-        <x:v>235</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="2:2">
@@ -5762,91 +5764,91 @@
     </x:row>
     <x:row r="146" spans="1:2" ht="16.75">
       <x:c r="A146" s="49" t="s">
-        <x:v>259</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B146" s="33" t="s">
-        <x:v>188</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:2">
       <x:c r="A147" s="47" t="s">
-        <x:v>247</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B147" s="12"/>
     </x:row>
     <x:row r="148" spans="1:2">
       <x:c r="A148" s="50" t="s">
-        <x:v>129</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B148" s="19" t="s">
-        <x:v>120</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:2">
       <x:c r="A149" s="47" t="s">
-        <x:v>68</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B149" s="12"/>
     </x:row>
     <x:row r="150" spans="1:2" s="3" customFormat="1">
       <x:c r="A150" s="47" t="s">
-        <x:v>79</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B150" s="12" t="s">
-        <x:v>338</x:v>
+        <x:v>356</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:2" s="3" customFormat="1">
       <x:c r="A151" s="47" t="s">
-        <x:v>187</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B151" s="12" t="s">
-        <x:v>178</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:2" s="3" customFormat="1">
       <x:c r="A152" s="47" t="s">
-        <x:v>142</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B152" s="12" t="s">
-        <x:v>152</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:2" s="3" customFormat="1">
       <x:c r="A153" s="47" t="s">
-        <x:v>382</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="B153" s="12" t="s">
-        <x:v>346</x:v>
+        <x:v>351</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:2" s="3" customFormat="1">
       <x:c r="A154" s="47" t="s">
-        <x:v>71</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B154" s="12" t="s">
-        <x:v>385</x:v>
+        <x:v>395</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:2" s="3" customFormat="1">
       <x:c r="A155" s="47" t="s">
-        <x:v>193</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B155" s="12" t="s">
-        <x:v>126</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:2" s="3" customFormat="1">
       <x:c r="A156" s="50" t="s">
-        <x:v>144</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B156" s="19" t="s">
-        <x:v>35</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:2">
       <x:c r="A157" s="47" t="s">
-        <x:v>177</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B157" s="12"/>
     </x:row>
@@ -5855,7 +5857,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B158" s="12" t="s">
-        <x:v>355</x:v>
+        <x:v>366</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:2">
@@ -5863,72 +5865,72 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B159" s="19" t="s">
-        <x:v>244</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:2" ht="16.75">
       <x:c r="A160" s="48" t="s">
-        <x:v>260</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="B160" s="15" t="s">
-        <x:v>16</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:2" ht="16.75">
       <x:c r="A163" s="49" t="s">
-        <x:v>259</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B163" s="33" t="s">
-        <x:v>30</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:2">
       <x:c r="A164" s="47" t="s">
-        <x:v>247</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B164" s="12"/>
     </x:row>
     <x:row r="165" spans="1:2">
       <x:c r="A165" s="50" t="s">
-        <x:v>129</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B165" s="19" t="s">
-        <x:v>120</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:2">
       <x:c r="A166" s="47" t="s">
-        <x:v>68</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B166" s="12"/>
     </x:row>
     <x:row r="167" spans="1:2">
       <x:c r="A167" s="47" t="s">
-        <x:v>146</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B167" s="12" t="s">
-        <x:v>186</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:2">
       <x:c r="A168" s="47" t="s">
-        <x:v>143</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B168" s="55" t="s">
-        <x:v>233</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:2">
       <x:c r="A169" s="50" t="s">
-        <x:v>173</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B169" s="19" t="s">
-        <x:v>39</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:2">
       <x:c r="A170" s="47" t="s">
-        <x:v>177</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B170" s="12"/>
     </x:row>
@@ -5937,7 +5939,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B171" s="12" t="s">
-        <x:v>159</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:2">
@@ -5945,75 +5947,75 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B172" s="19" t="s">
-        <x:v>201</x:v>
+        <x:v>297</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:2" ht="16.75">
       <x:c r="A173" s="48" t="s">
-        <x:v>260</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="B173" s="15" t="s">
-        <x:v>16</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:2" ht="16.75">
       <x:c r="A176" s="49" t="s">
-        <x:v>259</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B176" s="33" t="s">
-        <x:v>155</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:2">
       <x:c r="A177" s="47" t="s">
-        <x:v>247</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B177" s="12"/>
     </x:row>
     <x:row r="178" spans="1:2">
       <x:c r="A178" s="50" t="s">
-        <x:v>129</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B178" s="19" t="s">
-        <x:v>120</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:2">
       <x:c r="A179" s="47" t="s">
-        <x:v>68</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B179" s="12"/>
     </x:row>
     <x:row r="180" spans="1:2">
       <x:c r="A180" s="47" t="s">
-        <x:v>180</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B180" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:2">
       <x:c r="A181" s="47" t="s">
-        <x:v>89</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B181" s="12" t="s">
-        <x:v>48</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:2">
       <x:c r="A182" s="50" t="s">
-        <x:v>173</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B182" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:2">
       <x:c r="A183" s="47" t="s">
-        <x:v>177</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B183" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:2">
@@ -6021,7 +6023,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B184" s="12" t="s">
-        <x:v>81</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:2">
@@ -6029,15 +6031,15 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B185" s="19" t="s">
-        <x:v>140</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:2" ht="16.75">
       <x:c r="A186" s="48" t="s">
-        <x:v>260</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="B186" s="15" t="s">
-        <x:v>347</x:v>
+        <x:v>361</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6049,10 +6051,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet6"/>
-  <x:dimension ref="A1:G150"/>
+  <x:dimension ref="A1:G154"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C25" activeCellId="0" sqref="C25:C25"/>
+    <x:sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="E26" activeCellId="0" sqref="E26:E26"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
@@ -6067,186 +6069,186 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="3" t="s">
-        <x:v>230</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="4" t="s">
-        <x:v>114</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B3" s="4" t="s">
-        <x:v>350</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="C3" s="4" t="s">
-        <x:v>324</x:v>
+        <x:v>330</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7" ht="16.75">
       <x:c r="A4" s="42" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B4" s="42" t="s">
-        <x:v>91</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C4" s="42" t="s">
-        <x:v>169</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D4" s="42" t="s">
-        <x:v>122</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E4" s="42" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="F4" s="42" t="s">
-        <x:v>269</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="G4" s="43" t="s">
-        <x:v>256</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7" s="3" customFormat="1">
       <x:c r="A5" s="36" t="s">
-        <x:v>96</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B5" s="36" t="s">
-        <x:v>268</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="C5" s="36"/>
       <x:c r="D5" s="58" t="s">
-        <x:v>134</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E5" s="36" t="s">
-        <x:v>109</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="F5" s="36" t="s">
-        <x:v>276</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="G5" s="37" t="s">
-        <x:v>343</x:v>
+        <x:v>354</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="36" t="s">
-        <x:v>341</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B6" s="36" t="s">
-        <x:v>82</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C6" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D6" s="36" t="s">
-        <x:v>134</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E6" s="36" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="F6" s="66" t="s">
-        <x:v>287</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="G6" s="37" t="s">
-        <x:v>280</x:v>
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="36" t="s">
-        <x:v>37</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B7" s="36" t="s">
-        <x:v>82</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C7" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D7" s="36" t="s">
-        <x:v>134</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E7" s="36" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="F7" s="66"/>
       <x:c r="G7" s="37" t="s">
-        <x:v>246</x:v>
+        <x:v>251</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="36" t="s">
-        <x:v>365</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="B8" s="36" t="s">
-        <x:v>82</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C8" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D8" s="36" t="s">
-        <x:v>134</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E8" s="36" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="F8" s="36"/>
       <x:c r="G8" s="37" t="s">
-        <x:v>143</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="36" t="s">
-        <x:v>303</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B9" s="36" t="s">
-        <x:v>82</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C9" s="36">
         <x:v>50</x:v>
       </x:c>
       <x:c r="D9" s="36" t="s">
-        <x:v>134</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E9" s="36" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="F9" s="36"/>
       <x:c r="G9" s="37" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="36" t="s">
-        <x:v>115</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B10" s="36" t="s">
-        <x:v>196</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C10" s="36">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D10" s="36" t="s">
-        <x:v>254</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="E10" s="62" t="s">
-        <x:v>191</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F10" s="36"/>
       <x:c r="G10" s="37" t="s">
-        <x:v>357</x:v>
+        <x:v>372</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="36" t="s">
-        <x:v>127</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B11" s="36" t="s">
-        <x:v>82</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C11" s="36">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D11" s="36" t="s">
-        <x:v>254</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="E11" s="62" t="s">
-        <x:v>191</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F11" s="36"/>
       <x:c r="G11" s="37" t="s">
@@ -6255,1524 +6257,1548 @@
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="36" t="s">
-        <x:v>60</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B12" s="36" t="s">
-        <x:v>113</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C12" s="38" t="s">
-        <x:v>66</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D12" s="36" t="s">
-        <x:v>254</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="E12" s="36" t="s">
-        <x:v>277</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="F12" s="36"/>
       <x:c r="G12" s="37" t="s">
-        <x:v>107</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="36" t="s">
-        <x:v>47</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B13" s="36" t="s">
-        <x:v>113</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C13" s="38" t="s">
-        <x:v>66</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D13" s="36" t="s">
-        <x:v>254</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="E13" s="36" t="s">
-        <x:v>277</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="F13" s="36"/>
       <x:c r="G13" s="37" t="s">
-        <x:v>309</x:v>
+        <x:v>319</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7" s="3" customFormat="1">
       <x:c r="A14" s="36" t="s">
-        <x:v>345</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="B14" s="58" t="s">
-        <x:v>326</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C14" s="38"/>
       <x:c r="D14" s="36" t="s">
-        <x:v>134</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E14" s="36" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="F14" s="36"/>
       <x:c r="G14" s="37" t="s">
-        <x:v>264</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7" s="2" customFormat="1">
       <x:c r="A15" s="36" t="s">
-        <x:v>387</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="B15" s="36" t="s">
-        <x:v>326</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C15" s="38"/>
       <x:c r="D15" s="36" t="s">
-        <x:v>254</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="E15" s="62" t="s">
-        <x:v>191</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F15" s="36"/>
       <x:c r="G15" s="37" t="s">
-        <x:v>331</x:v>
+        <x:v>342</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7" s="3" customFormat="1">
       <x:c r="A16" s="36" t="s">
-        <x:v>83</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B16" s="36" t="s">
-        <x:v>268</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="C16" s="38"/>
       <x:c r="D16" s="36" t="s">
-        <x:v>254</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="E16" s="36">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F16" s="36"/>
       <x:c r="G16" s="37" t="s">
-        <x:v>172</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7" s="7" customFormat="1">
       <x:c r="A17" s="58" t="s">
-        <x:v>75</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B17" s="58" t="s">
-        <x:v>268</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="C17" s="38"/>
       <x:c r="D17" s="58" t="s">
-        <x:v>254</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="E17" s="36">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F17" s="36"/>
       <x:c r="G17" s="61" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7" ht="16.75">
       <x:c r="A18" s="59" t="s">
-        <x:v>67</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B18" s="59" t="s">
-        <x:v>268</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="C18" s="39"/>
       <x:c r="D18" s="59" t="s">
-        <x:v>134</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E18" s="59">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F18" s="39"/>
       <x:c r="G18" s="60" t="s">
-        <x:v>226</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B20" s="4" t="s">
-        <x:v>344</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="C20" s="4" t="s">
-        <x:v>308</x:v>
+        <x:v>318</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7" ht="16.75">
       <x:c r="A21" s="42" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B21" s="42" t="s">
-        <x:v>91</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C21" s="42" t="s">
-        <x:v>169</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D21" s="42" t="s">
-        <x:v>122</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E21" s="42" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="F21" s="42" t="s">
-        <x:v>269</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="G21" s="43" t="s">
-        <x:v>256</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:7">
       <x:c r="A22" s="36" t="s">
-        <x:v>175</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B22" s="36" t="s">
-        <x:v>268</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="C22" s="36"/>
       <x:c r="D22" s="36" t="s">
-        <x:v>134</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E22" s="36" t="s">
-        <x:v>109</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="F22" s="36" t="s">
-        <x:v>276</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="G22" s="37" t="s">
-        <x:v>334</x:v>
+        <x:v>355</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:7">
       <x:c r="A23" s="36" t="s">
-        <x:v>376</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="B23" s="36" t="s">
-        <x:v>82</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C23" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D23" s="36" t="s">
-        <x:v>134</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E23" s="36" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="F23" s="36"/>
       <x:c r="G23" s="37" t="s">
-        <x:v>194</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:7">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:7" customFormat="1">
       <x:c r="A24" s="36" t="s">
-        <x:v>141</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="36" t="s">
-        <x:v>268</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C24" s="36"/>
       <x:c r="D24" s="36" t="s">
-        <x:v>134</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E24" s="36" t="s">
-        <x:v>282</x:v>
-      </x:c>
-      <x:c r="F24" s="36" t="s">
-        <x:v>248</x:v>
-      </x:c>
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="F24" s="36"/>
       <x:c r="G24" s="37" t="s">
-        <x:v>378</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:7">
+        <x:v>401</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:7" customFormat="1">
       <x:c r="A25" s="36" t="s">
-        <x:v>153</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B25" s="36" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="C25" s="36"/>
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C25" s="36">
+        <x:v>255</x:v>
+      </x:c>
       <x:c r="D25" s="36" t="s">
-        <x:v>134</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E25" s="36" t="s">
-        <x:v>282</x:v>
-      </x:c>
-      <x:c r="F25" s="36" t="s">
-        <x:v>248</x:v>
-      </x:c>
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="F25" s="36"/>
       <x:c r="G25" s="37" t="s">
-        <x:v>329</x:v>
+        <x:v>400</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:7">
       <x:c r="A26" s="36" t="s">
-        <x:v>313</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B26" s="36" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="C26" s="36">
-        <x:v>100</x:v>
-      </x:c>
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C26" s="36"/>
       <x:c r="D26" s="36" t="s">
-        <x:v>254</x:v>
-      </x:c>
-      <x:c r="E26" s="36"/>
-      <x:c r="F26" s="36"/>
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E26" s="36" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="F26" s="36" t="s">
+        <x:v>248</x:v>
+      </x:c>
       <x:c r="G26" s="37" t="s">
-        <x:v>64</x:v>
+        <x:v>387</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7">
       <x:c r="A27" s="36" t="s">
-        <x:v>336</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B27" s="36" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="C27" s="36">
-        <x:v>100</x:v>
-      </x:c>
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C27" s="36"/>
       <x:c r="D27" s="36" t="s">
-        <x:v>254</x:v>
-      </x:c>
-      <x:c r="E27" s="36"/>
-      <x:c r="F27" s="36"/>
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E27" s="36" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="F27" s="36" t="s">
+        <x:v>248</x:v>
+      </x:c>
       <x:c r="G27" s="37" t="s">
-        <x:v>171</x:v>
+        <x:v>340</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:7">
       <x:c r="A28" s="36" t="s">
-        <x:v>45</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B28" s="36" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="C28" s="36"/>
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C28" s="36">
+        <x:v>100</x:v>
+      </x:c>
       <x:c r="D28" s="36" t="s">
-        <x:v>254</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="E28" s="36"/>
       <x:c r="F28" s="36"/>
       <x:c r="G28" s="37" t="s">
-        <x:v>116</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:7" ht="16.75">
-      <x:c r="A29" s="39" t="s">
-        <x:v>371</x:v>
-      </x:c>
-      <x:c r="B29" s="39" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="C29" s="40"/>
-      <x:c r="D29" s="39" t="s">
-        <x:v>254</x:v>
-      </x:c>
-      <x:c r="E29" s="39"/>
-      <x:c r="F29" s="39" t="s">
+        <x:v>185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:7">
+      <x:c r="A29" s="36" t="s">
+        <x:v>349</x:v>
+      </x:c>
+      <x:c r="B29" s="36" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C29" s="36">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D29" s="36" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="E29" s="36"/>
+      <x:c r="F29" s="36"/>
+      <x:c r="G29" s="37" t="s">
+        <x:v>96</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:7">
+      <x:c r="A30" s="36" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="B30" s="36" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C30" s="36">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="D30" s="36" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="E30" s="36"/>
+      <x:c r="F30" s="36"/>
+      <x:c r="G30" s="37" t="s">
+        <x:v>181</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:7" ht="16.75">
+      <x:c r="A31" s="39" t="s">
+        <x:v>385</x:v>
+      </x:c>
+      <x:c r="B31" s="39" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C31" s="40"/>
+      <x:c r="D31" s="39" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="E31" s="39"/>
+      <x:c r="F31" s="39" t="s">
         <x:v>248</x:v>
       </x:c>
-      <x:c r="G29" s="41" t="s">
-        <x:v>100</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:3">
-      <x:c r="A31" s="3" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="B31" s="4" t="s">
+      <x:c r="G31" s="41" t="s">
+        <x:v>156</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:3">
+      <x:c r="A33" s="3" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="B33" s="4" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="C33" s="4" t="s">
+        <x:v>363</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:7" ht="16.75">
+      <x:c r="A34" s="42" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="B34" s="42" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C34" s="42" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D34" s="42" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="E34" s="42" t="s">
         <x:v>293</x:v>
       </x:c>
-      <x:c r="C31" s="4" t="s">
-        <x:v>358</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:7" ht="16.75">
-      <x:c r="A32" s="42" t="s">
-        <x:v>278</x:v>
-      </x:c>
-      <x:c r="B32" s="42" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C32" s="42" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="D32" s="42" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="E32" s="42" t="s">
-        <x:v>292</x:v>
-      </x:c>
-      <x:c r="F32" s="42" t="s">
-        <x:v>269</x:v>
-      </x:c>
-      <x:c r="G32" s="43" t="s">
-        <x:v>256</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:7" s="3" customFormat="1">
-      <x:c r="A33" s="36" t="s">
-        <x:v>166</x:v>
-      </x:c>
-      <x:c r="B33" s="36" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="C33" s="36"/>
-      <x:c r="D33" s="36" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="E33" s="36" t="s">
-        <x:v>282</x:v>
-      </x:c>
-      <x:c r="F33" s="36" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="G33" s="37" t="s">
-        <x:v>183</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:7">
-      <x:c r="A34" s="36" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="B34" s="36" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="C34" s="36">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="D34" s="36" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="E34" s="36" t="s">
-        <x:v>282</x:v>
-      </x:c>
-      <x:c r="F34" s="36" t="s">
-        <x:v>248</x:v>
-      </x:c>
-      <x:c r="G34" s="37" t="s">
-        <x:v>343</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:7">
+      <x:c r="F34" s="42" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="G34" s="43" t="s">
+        <x:v>270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:7" s="3" customFormat="1">
       <x:c r="A35" s="36" t="s">
-        <x:v>175</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B35" s="36" t="s">
-        <x:v>268</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="C35" s="36"/>
       <x:c r="D35" s="36" t="s">
-        <x:v>134</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E35" s="36" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="F35" s="36" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="G35" s="37" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:7">
+      <x:c r="A36" s="36" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="B36" s="36" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C36" s="36">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D36" s="36" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E36" s="36" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="F36" s="36" t="s">
         <x:v>248</x:v>
       </x:c>
-      <x:c r="G35" s="37" t="s">
-        <x:v>359</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:7" ht="16.75">
-      <x:c r="A36" s="39"/>
-      <x:c r="B36" s="39"/>
-      <x:c r="C36" s="40"/>
-      <x:c r="D36" s="39"/>
-      <x:c r="E36" s="39"/>
-      <x:c r="F36" s="39"/>
-      <x:c r="G36" s="41"/>
-    </x:row>
-    <x:row r="38" spans="1:3">
-      <x:c r="A38" s="3" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="B38" s="4" t="s">
+      <x:c r="G36" s="37" t="s">
+        <x:v>354</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:7">
+      <x:c r="A37" s="36" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B37" s="36" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C37" s="36"/>
+      <x:c r="D37" s="36" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E37" s="36" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="F37" s="36" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="G37" s="37" t="s">
+        <x:v>368</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:7" customFormat="1">
+      <x:c r="A38" s="36"/>
+      <x:c r="B38" s="36"/>
+      <x:c r="C38" s="36"/>
+      <x:c r="D38" s="36"/>
+      <x:c r="E38" s="36"/>
+      <x:c r="F38" s="36"/>
+      <x:c r="G38" s="37"/>
+    </x:row>
+    <x:row r="39" spans="1:7" ht="16.75">
+      <x:c r="A39" s="39"/>
+      <x:c r="B39" s="39"/>
+      <x:c r="C39" s="40"/>
+      <x:c r="D39" s="39"/>
+      <x:c r="E39" s="39"/>
+      <x:c r="F39" s="39"/>
+      <x:c r="G39" s="41"/>
+    </x:row>
+    <x:row r="41" spans="1:3">
+      <x:c r="A41" s="3" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="B41" s="4" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C41" s="4" t="s">
+        <x:v>325</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:7" ht="16.75">
+      <x:c r="A42" s="42" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="B42" s="42" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C42" s="42" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D42" s="42" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="E42" s="42" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="F42" s="42" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="G42" s="43" t="s">
+        <x:v>270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:7" s="3" customFormat="1">
+      <x:c r="A43" s="36" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="B43" s="36" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C43" s="36"/>
+      <x:c r="D43" s="36" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E43" s="36" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="F43" s="36" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="G43" s="37" t="s">
+        <x:v>165</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:7">
+      <x:c r="A44" s="36" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="B44" s="36" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C44" s="36">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D44" s="36" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E44" s="36" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="F44" s="36" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="G44" s="37" t="s">
+        <x:v>354</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:7">
+      <x:c r="A45" s="36" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B45" s="36" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C45" s="36"/>
+      <x:c r="D45" s="36" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E45" s="36" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="F45" s="36" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="G45" s="37" t="s">
+        <x:v>355</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:7" customFormat="1">
+      <x:c r="A46" s="36"/>
+      <x:c r="B46" s="36"/>
+      <x:c r="C46" s="36"/>
+      <x:c r="D46" s="36"/>
+      <x:c r="E46" s="36"/>
+      <x:c r="F46" s="36"/>
+      <x:c r="G46" s="37"/>
+    </x:row>
+    <x:row r="47" spans="1:7" ht="16.75">
+      <x:c r="A47" s="39"/>
+      <x:c r="B47" s="39"/>
+      <x:c r="C47" s="40"/>
+      <x:c r="D47" s="39"/>
+      <x:c r="E47" s="39"/>
+      <x:c r="F47" s="39"/>
+      <x:c r="G47" s="41"/>
+    </x:row>
+    <x:row r="49" spans="1:3">
+      <x:c r="A49" s="3" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="B49" s="4" t="s">
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="C49" s="4" t="s">
+        <x:v>365</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:7" ht="16.75">
+      <x:c r="A50" s="42" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="B50" s="42" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C50" s="42" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D50" s="42" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="E50" s="42" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="F50" s="42" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="G50" s="43" t="s">
+        <x:v>270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:7" s="3" customFormat="1">
+      <x:c r="A51" s="36" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B51" s="36" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C51" s="36"/>
+      <x:c r="D51" s="36" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E51" s="36" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="F51" s="36" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="G51" s="37" t="s">
+        <x:v>329</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:7">
+      <x:c r="A52" s="36" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="B52" s="36" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C52" s="36">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D52" s="36" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E52" s="36" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="F52" s="36" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="G52" s="37" t="s">
+        <x:v>354</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:7">
+      <x:c r="A53" s="36" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B53" s="36" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C53" s="36"/>
+      <x:c r="D53" s="36" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E53" s="36" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="F53" s="36" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="G53" s="37" t="s">
+        <x:v>355</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:7" ht="16.75">
+      <x:c r="A54" s="39"/>
+      <x:c r="B54" s="39"/>
+      <x:c r="C54" s="40"/>
+      <x:c r="D54" s="39"/>
+      <x:c r="E54" s="39"/>
+      <x:c r="F54" s="39"/>
+      <x:c r="G54" s="41"/>
+    </x:row>
+    <x:row r="56" spans="1:3" s="3" customFormat="1">
+      <x:c r="A56" s="3" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="B56" s="3" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C56" s="3" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="C38" s="4" t="s">
-        <x:v>330</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:7" ht="16.75">
-      <x:c r="A39" s="42" t="s">
-        <x:v>278</x:v>
-      </x:c>
-      <x:c r="B39" s="42" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C39" s="42" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="D39" s="42" t="s">
+    </x:row>
+    <x:row r="57" spans="1:7" s="3" customFormat="1" ht="16.75">
+      <x:c r="A57" s="42" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="B57" s="42" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="E39" s="42" t="s">
-        <x:v>292</x:v>
-      </x:c>
-      <x:c r="F39" s="42" t="s">
-        <x:v>269</x:v>
-      </x:c>
-      <x:c r="G39" s="43" t="s">
-        <x:v>256</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:7" s="3" customFormat="1">
-      <x:c r="A40" s="36" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="B40" s="36" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="C40" s="36"/>
-      <x:c r="D40" s="36" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="E40" s="36" t="s">
-        <x:v>282</x:v>
-      </x:c>
-      <x:c r="F40" s="36" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="G40" s="37" t="s">
-        <x:v>103</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:7">
-      <x:c r="A41" s="36" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="B41" s="36" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="C41" s="36">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="D41" s="36" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="E41" s="36" t="s">
-        <x:v>282</x:v>
-      </x:c>
-      <x:c r="F41" s="36" t="s">
-        <x:v>248</x:v>
-      </x:c>
-      <x:c r="G41" s="37" t="s">
-        <x:v>343</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:7">
-      <x:c r="A42" s="36" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="B42" s="36" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="C42" s="36"/>
-      <x:c r="D42" s="36" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="E42" s="36" t="s">
-        <x:v>282</x:v>
-      </x:c>
-      <x:c r="F42" s="36" t="s">
-        <x:v>248</x:v>
-      </x:c>
-      <x:c r="G42" s="37" t="s">
-        <x:v>334</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43" spans="1:7" ht="16.75">
-      <x:c r="A43" s="39"/>
-      <x:c r="B43" s="39"/>
-      <x:c r="C43" s="40"/>
-      <x:c r="D43" s="39"/>
-      <x:c r="E43" s="39"/>
-      <x:c r="F43" s="39"/>
-      <x:c r="G43" s="41"/>
-    </x:row>
-    <x:row r="45" spans="1:3">
-      <x:c r="A45" s="3" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="B45" s="4" t="s">
-        <x:v>318</x:v>
-      </x:c>
-      <x:c r="C45" s="4" t="s">
-        <x:v>349</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="1:7" ht="16.75">
-      <x:c r="A46" s="42" t="s">
-        <x:v>278</x:v>
-      </x:c>
-      <x:c r="B46" s="42" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C46" s="42" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="D46" s="42" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="E46" s="42" t="s">
-        <x:v>292</x:v>
-      </x:c>
-      <x:c r="F46" s="42" t="s">
-        <x:v>269</x:v>
-      </x:c>
-      <x:c r="G46" s="43" t="s">
-        <x:v>256</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:7" s="3" customFormat="1">
-      <x:c r="A47" s="36" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="B47" s="36" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="C47" s="36"/>
-      <x:c r="D47" s="36" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="E47" s="36" t="s">
-        <x:v>282</x:v>
-      </x:c>
-      <x:c r="F47" s="36" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="G47" s="37" t="s">
-        <x:v>320</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="1:7">
-      <x:c r="A48" s="36" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="B48" s="36" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="C48" s="36">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="D48" s="36" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="E48" s="36" t="s">
-        <x:v>282</x:v>
-      </x:c>
-      <x:c r="F48" s="36" t="s">
-        <x:v>248</x:v>
-      </x:c>
-      <x:c r="G48" s="37" t="s">
-        <x:v>343</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="49" spans="1:7">
-      <x:c r="A49" s="36" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="B49" s="36" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="C49" s="36"/>
-      <x:c r="D49" s="36" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="E49" s="36" t="s">
-        <x:v>282</x:v>
-      </x:c>
-      <x:c r="F49" s="36" t="s">
-        <x:v>248</x:v>
-      </x:c>
-      <x:c r="G49" s="37" t="s">
-        <x:v>334</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="50" spans="1:7" ht="16.75">
-      <x:c r="A50" s="39"/>
-      <x:c r="B50" s="39"/>
-      <x:c r="C50" s="40"/>
-      <x:c r="D50" s="39"/>
-      <x:c r="E50" s="39"/>
-      <x:c r="F50" s="39"/>
-      <x:c r="G50" s="41"/>
-    </x:row>
-    <x:row r="52" spans="1:3" s="3" customFormat="1">
-      <x:c r="A52" s="3" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="B52" s="3" t="s">
-        <x:v>168</x:v>
-      </x:c>
-      <x:c r="C52" s="3" t="s">
-        <x:v>162</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="1:7" s="3" customFormat="1" ht="16.75">
-      <x:c r="A53" s="42" t="s">
-        <x:v>278</x:v>
-      </x:c>
-      <x:c r="B53" s="42" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C53" s="42" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="D53" s="42" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="E53" s="42" t="s">
-        <x:v>292</x:v>
-      </x:c>
-      <x:c r="F53" s="42" t="s">
-        <x:v>269</x:v>
-      </x:c>
-      <x:c r="G53" s="43" t="s">
-        <x:v>256</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="54" spans="1:7" s="3" customFormat="1">
-      <x:c r="A54" s="36" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="B54" s="36" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="C54" s="36"/>
-      <x:c r="D54" s="36" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="E54" s="36" t="s">
-        <x:v>282</x:v>
-      </x:c>
-      <x:c r="F54" s="36" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="G54" s="37" t="s">
-        <x:v>70</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="55" spans="1:7" s="3" customFormat="1">
-      <x:c r="A55" s="36" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="B55" s="36" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="C55" s="36">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="D55" s="36" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="E55" s="36" t="s">
-        <x:v>282</x:v>
-      </x:c>
-      <x:c r="F55" s="36" t="s">
-        <x:v>248</x:v>
-      </x:c>
-      <x:c r="G55" s="37" t="s">
-        <x:v>343</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="56" spans="1:7" s="3" customFormat="1">
-      <x:c r="A56" s="36" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="B56" s="36" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="C56" s="36"/>
-      <x:c r="D56" s="36" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="E56" s="36" t="s">
-        <x:v>282</x:v>
-      </x:c>
-      <x:c r="F56" s="36" t="s">
-        <x:v>248</x:v>
-      </x:c>
-      <x:c r="G56" s="37" t="s">
-        <x:v>334</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="57" spans="1:7" s="3" customFormat="1">
-      <x:c r="A57" s="36" t="s">
-        <x:v>166</x:v>
-      </x:c>
-      <x:c r="B57" s="36"/>
-      <x:c r="C57" s="36"/>
-      <x:c r="D57" s="36"/>
-      <x:c r="E57" s="36"/>
-      <x:c r="F57" s="36" t="s">
-        <x:v>248</x:v>
-      </x:c>
-      <x:c r="G57" s="37" t="s">
-        <x:v>183</x:v>
+      <x:c r="C57" s="42" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D57" s="42" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="E57" s="42" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="F57" s="42" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="G57" s="43" t="s">
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:7" s="3" customFormat="1">
       <x:c r="A58" s="36" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="B58" s="36"/>
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="B58" s="36" t="s">
+        <x:v>262</x:v>
+      </x:c>
       <x:c r="C58" s="36"/>
-      <x:c r="D58" s="36"/>
-      <x:c r="E58" s="36"/>
+      <x:c r="D58" s="36" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E58" s="36" t="s">
+        <x:v>281</x:v>
+      </x:c>
       <x:c r="F58" s="36" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="G58" s="37" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:7" s="3" customFormat="1">
+      <x:c r="A59" s="36" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="B59" s="36" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C59" s="36">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D59" s="36" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E59" s="36" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="F59" s="36" t="s">
         <x:v>248</x:v>
       </x:c>
-      <x:c r="G58" s="37" t="s">
-        <x:v>103</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="59" spans="1:7" s="3" customFormat="1" ht="16.75">
-      <x:c r="A59" s="39"/>
-      <x:c r="B59" s="39"/>
-      <x:c r="C59" s="40"/>
-      <x:c r="D59" s="39"/>
-      <x:c r="E59" s="39"/>
-      <x:c r="F59" s="39"/>
-      <x:c r="G59" s="41"/>
-    </x:row>
-    <x:row r="60" s="3" customFormat="1"/>
-    <x:row r="61" spans="1:3">
-      <x:c r="A61" s="3" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="B61" s="4" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="C61" s="4" t="s">
-        <x:v>73</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="62" spans="1:7" ht="16.75">
-      <x:c r="A62" s="42" t="s">
-        <x:v>278</x:v>
-      </x:c>
-      <x:c r="B62" s="42" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C62" s="42" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="D62" s="42" t="s">
+      <x:c r="G59" s="37" t="s">
+        <x:v>354</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:7" s="3" customFormat="1">
+      <x:c r="A60" s="36" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B60" s="36" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C60" s="36"/>
+      <x:c r="D60" s="36" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E60" s="36" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="F60" s="36" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="G60" s="37" t="s">
+        <x:v>355</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:7" s="3" customFormat="1">
+      <x:c r="A61" s="36" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B61" s="36"/>
+      <x:c r="C61" s="36"/>
+      <x:c r="D61" s="36"/>
+      <x:c r="E61" s="36"/>
+      <x:c r="F61" s="36" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="G61" s="37" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:7" s="3" customFormat="1">
+      <x:c r="A62" s="36" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="B62" s="36"/>
+      <x:c r="C62" s="36"/>
+      <x:c r="D62" s="36"/>
+      <x:c r="E62" s="36"/>
+      <x:c r="F62" s="36" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="G62" s="37" t="s">
+        <x:v>165</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:7" s="3" customFormat="1" ht="16.75">
+      <x:c r="A63" s="39"/>
+      <x:c r="B63" s="39"/>
+      <x:c r="C63" s="40"/>
+      <x:c r="D63" s="39"/>
+      <x:c r="E63" s="39"/>
+      <x:c r="F63" s="39"/>
+      <x:c r="G63" s="41"/>
+    </x:row>
+    <x:row r="64" s="3" customFormat="1"/>
+    <x:row r="65" spans="1:3">
+      <x:c r="A65" s="3" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="B65" s="4" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C65" s="4" t="s">
+        <x:v>126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:7" ht="16.75">
+      <x:c r="A66" s="42" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="B66" s="42" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="E62" s="42" t="s">
-        <x:v>292</x:v>
-      </x:c>
-      <x:c r="F62" s="42" t="s">
-        <x:v>269</x:v>
-      </x:c>
-      <x:c r="G62" s="43" t="s">
-        <x:v>256</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="63" spans="1:7" s="3" customFormat="1">
-      <x:c r="A63" s="36" t="s">
-        <x:v>371</x:v>
-      </x:c>
-      <x:c r="B63" s="36" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="C63" s="36"/>
-      <x:c r="D63" s="36" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="E63" s="36" t="s">
-        <x:v>282</x:v>
-      </x:c>
-      <x:c r="F63" s="36" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="G63" s="37" t="s">
-        <x:v>100</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="64" spans="1:7">
-      <x:c r="A64" s="36" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="B64" s="36" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="C64" s="36"/>
-      <x:c r="D64" s="36" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="E64" s="36" t="s">
-        <x:v>282</x:v>
-      </x:c>
-      <x:c r="F64" s="36" t="s">
-        <x:v>248</x:v>
-      </x:c>
-      <x:c r="G64" s="37" t="s">
-        <x:v>343</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="65" spans="1:7">
-      <x:c r="A65" s="36" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="B65" s="36" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="C65" s="36"/>
-      <x:c r="D65" s="36" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="E65" s="36" t="s">
-        <x:v>282</x:v>
-      </x:c>
-      <x:c r="F65" s="36" t="s">
-        <x:v>248</x:v>
-      </x:c>
-      <x:c r="G65" s="37" t="s">
-        <x:v>334</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="66" spans="1:7">
-      <x:c r="A66" s="36" t="s">
-        <x:v>195</x:v>
-      </x:c>
-      <x:c r="B66" s="36" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C66" s="36" t="s">
-        <x:v>307</x:v>
-      </x:c>
-      <x:c r="D66" s="36" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="E66" s="36" t="s">
-        <x:v>282</x:v>
-      </x:c>
-      <x:c r="F66" s="36"/>
-      <x:c r="G66" s="37" t="s">
-        <x:v>167</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="67" spans="1:7">
+      <x:c r="C66" s="42" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D66" s="42" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="E66" s="42" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="F66" s="42" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="G66" s="43" t="s">
+        <x:v>270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:7" s="3" customFormat="1">
       <x:c r="A67" s="36" t="s">
-        <x:v>121</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="B67" s="36" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="C67" s="36">
-        <x:v>500</x:v>
-      </x:c>
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C67" s="36"/>
       <x:c r="D67" s="36" t="s">
-        <x:v>254</x:v>
-      </x:c>
-      <x:c r="E67" s="36"/>
-      <x:c r="F67" s="36"/>
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E67" s="36" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="F67" s="36" t="s">
+        <x:v>288</x:v>
+      </x:c>
       <x:c r="G67" s="37" t="s">
-        <x:v>118</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:7">
       <x:c r="A68" s="36" t="s">
-        <x:v>101</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B68" s="36" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="C68" s="36">
-        <x:v>500</x:v>
-      </x:c>
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C68" s="36"/>
       <x:c r="D68" s="36" t="s">
-        <x:v>254</x:v>
-      </x:c>
-      <x:c r="E68" s="36"/>
-      <x:c r="F68" s="36"/>
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E68" s="36" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="F68" s="36" t="s">
+        <x:v>248</x:v>
+      </x:c>
       <x:c r="G68" s="37" t="s">
-        <x:v>251</x:v>
+        <x:v>354</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:7">
       <x:c r="A69" s="36" t="s">
-        <x:v>306</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B69" s="36" t="s">
-        <x:v>268</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="C69" s="36"/>
       <x:c r="D69" s="36" t="s">
-        <x:v>254</x:v>
-      </x:c>
-      <x:c r="E69" s="36"/>
-      <x:c r="F69" s="36"/>
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E69" s="36" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="F69" s="36" t="s">
+        <x:v>248</x:v>
+      </x:c>
       <x:c r="G69" s="37" t="s">
-        <x:v>290</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="70" spans="1:7" ht="16.75">
-      <x:c r="A70" s="39"/>
-      <x:c r="B70" s="39"/>
-      <x:c r="C70" s="40"/>
-      <x:c r="D70" s="39"/>
-      <x:c r="E70" s="39"/>
-      <x:c r="F70" s="39"/>
-      <x:c r="G70" s="41"/>
+        <x:v>355</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:7">
+      <x:c r="A70" s="36" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B70" s="36" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="C70" s="36" t="s">
+        <x:v>315</x:v>
+      </x:c>
+      <x:c r="D70" s="36" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E70" s="36" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="F70" s="36"/>
+      <x:c r="G70" s="37" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:7">
+      <x:c r="A71" s="36" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B71" s="36" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C71" s="36">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="D71" s="36" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="E71" s="36"/>
+      <x:c r="F71" s="36"/>
+      <x:c r="G71" s="37" t="s">
+        <x:v>167</x:v>
+      </x:c>
     </x:row>
     <x:row r="72" spans="1:7">
-      <x:c r="A72" s="3" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="B72" s="3" t="s">
-        <x:v>176</x:v>
-      </x:c>
-      <x:c r="C72" s="3" t="s">
+      <x:c r="A72" s="36" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="B72" s="36" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C72" s="36">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="D72" s="36" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="E72" s="36"/>
+      <x:c r="F72" s="36"/>
+      <x:c r="G72" s="37" t="s">
+        <x:v>250</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:7">
+      <x:c r="A73" s="36" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="B73" s="36" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C73" s="36"/>
+      <x:c r="D73" s="36" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="E73" s="36"/>
+      <x:c r="F73" s="36"/>
+      <x:c r="G73" s="37" t="s">
+        <x:v>289</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:7" ht="16.75">
+      <x:c r="A74" s="39"/>
+      <x:c r="B74" s="39"/>
+      <x:c r="C74" s="40"/>
+      <x:c r="D74" s="39"/>
+      <x:c r="E74" s="39"/>
+      <x:c r="F74" s="39"/>
+      <x:c r="G74" s="41"/>
+    </x:row>
+    <x:row r="76" spans="1:7">
+      <x:c r="A76" s="3" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="B76" s="3" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C76" s="3" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D76" s="3"/>
+      <x:c r="E76" s="3"/>
+      <x:c r="F76" s="3"/>
+      <x:c r="G76" s="3"/>
+    </x:row>
+    <x:row r="77" spans="1:7" ht="16.75">
+      <x:c r="A77" s="42" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="B77" s="42" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C77" s="42" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D77" s="42" t="s">
         <x:v>161</x:v>
       </x:c>
-      <x:c r="D72" s="3"/>
-      <x:c r="E72" s="3"/>
-      <x:c r="F72" s="3"/>
-      <x:c r="G72" s="3"/>
-    </x:row>
-    <x:row r="73" spans="1:7" ht="16.75">
-      <x:c r="A73" s="42" t="s">
-        <x:v>278</x:v>
-      </x:c>
-      <x:c r="B73" s="42" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C73" s="42" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="D73" s="42" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="E73" s="42" t="s">
-        <x:v>292</x:v>
-      </x:c>
-      <x:c r="F73" s="42" t="s">
-        <x:v>269</x:v>
-      </x:c>
-      <x:c r="G73" s="43" t="s">
-        <x:v>256</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="74" spans="1:7" s="3" customFormat="1">
-      <x:c r="A74" s="36" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="B74" s="36" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="C74" s="36"/>
-      <x:c r="D74" s="36" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="E74" s="36" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F74" s="36" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="G74" s="37" t="s">
-        <x:v>378</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="75" spans="1:7">
-      <x:c r="A75" s="36" t="s">
-        <x:v>197</x:v>
-      </x:c>
-      <x:c r="B75" s="36" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="C75" s="36">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="D75" s="36" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="E75" s="36" t="s">
-        <x:v>282</x:v>
-      </x:c>
-      <x:c r="F75" s="36" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="G75" s="37" t="s">
-        <x:v>148</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="76" spans="1:7">
-      <x:c r="A76" s="36" t="s">
-        <x:v>362</x:v>
-      </x:c>
-      <x:c r="B76" s="36" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="C76" s="36">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="D76" s="36" t="s">
-        <x:v>254</x:v>
-      </x:c>
-      <x:c r="E76" s="36"/>
-      <x:c r="F76" s="36"/>
-      <x:c r="G76" s="37" t="s">
-        <x:v>273</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="77" spans="1:7">
-      <x:c r="A77" s="36" t="s">
-        <x:v>360</x:v>
-      </x:c>
-      <x:c r="B77" s="36" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="C77" s="36">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="D77" s="36" t="s">
-        <x:v>254</x:v>
-      </x:c>
-      <x:c r="E77" s="36"/>
-      <x:c r="F77" s="36"/>
-      <x:c r="G77" s="37" t="s">
-        <x:v>255</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="78" spans="1:7">
+      <x:c r="E77" s="42" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="F77" s="42" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="G77" s="43" t="s">
+        <x:v>270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:7" s="3" customFormat="1">
       <x:c r="A78" s="36" t="s">
-        <x:v>364</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B78" s="36" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="C78" s="36">
-        <x:v>100</x:v>
-      </x:c>
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C78" s="36"/>
       <x:c r="D78" s="36" t="s">
-        <x:v>254</x:v>
-      </x:c>
-      <x:c r="E78" s="36"/>
-      <x:c r="F78" s="36"/>
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E78" s="36" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="F78" s="36" t="s">
+        <x:v>288</x:v>
+      </x:c>
       <x:c r="G78" s="37" t="s">
-        <x:v>284</x:v>
+        <x:v>387</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:7">
       <x:c r="A79" s="36" t="s">
-        <x:v>337</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B79" s="36" t="s">
-        <x:v>82</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C79" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D79" s="36" t="s">
-        <x:v>254</x:v>
-      </x:c>
-      <x:c r="E79" s="36"/>
-      <x:c r="F79" s="36"/>
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E79" s="36" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="F79" s="36" t="s">
+        <x:v>288</x:v>
+      </x:c>
       <x:c r="G79" s="37" t="s">
-        <x:v>263</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:7">
       <x:c r="A80" s="36" t="s">
-        <x:v>370</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="B80" s="36" t="s">
-        <x:v>82</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C80" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D80" s="36" t="s">
-        <x:v>254</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="E80" s="36"/>
       <x:c r="F80" s="36"/>
       <x:c r="G80" s="37" t="s">
-        <x:v>261</x:v>
+        <x:v>283</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:7">
       <x:c r="A81" s="36" t="s">
-        <x:v>352</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="B81" s="36" t="s">
-        <x:v>82</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C81" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D81" s="36" t="s">
-        <x:v>254</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="E81" s="36"/>
-      <x:c r="F81" s="36" t="s">
+      <x:c r="F81" s="36"/>
+      <x:c r="G81" s="37" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:7">
+      <x:c r="A82" s="36" t="s">
+        <x:v>377</x:v>
+      </x:c>
+      <x:c r="B82" s="36" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C82" s="36">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D82" s="36" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="E82" s="36"/>
+      <x:c r="F82" s="36"/>
+      <x:c r="G82" s="37" t="s">
+        <x:v>292</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:7">
+      <x:c r="A83" s="36" t="s">
+        <x:v>346</x:v>
+      </x:c>
+      <x:c r="B83" s="36" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C83" s="36">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D83" s="36" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="E83" s="36"/>
+      <x:c r="F83" s="36"/>
+      <x:c r="G83" s="37" t="s">
+        <x:v>267</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:7">
+      <x:c r="A84" s="36" t="s">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="B84" s="36" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C84" s="36">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D84" s="36" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="E84" s="36"/>
+      <x:c r="F84" s="36"/>
+      <x:c r="G84" s="37" t="s">
+        <x:v>259</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:7">
+      <x:c r="A85" s="36" t="s">
+        <x:v>359</x:v>
+      </x:c>
+      <x:c r="B85" s="36" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C85" s="36">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D85" s="36" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="E85" s="36"/>
+      <x:c r="F85" s="36" t="s">
         <x:v>248</x:v>
       </x:c>
-      <x:c r="G81" s="37" t="s">
-        <x:v>72</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="82" spans="1:7" ht="16.75">
-      <x:c r="A82" s="39"/>
-      <x:c r="B82" s="39"/>
-      <x:c r="C82" s="40"/>
-      <x:c r="D82" s="39"/>
-      <x:c r="E82" s="39"/>
-      <x:c r="F82" s="39"/>
-      <x:c r="G82" s="41"/>
-    </x:row>
-    <x:row r="84" spans="1:7">
-      <x:c r="A84" s="3" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="B84" s="3" t="s">
-        <x:v>323</x:v>
-      </x:c>
-      <x:c r="C84" s="3" t="s">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="D84" s="3"/>
-      <x:c r="E84" s="3"/>
-      <x:c r="F84" s="3"/>
-      <x:c r="G84" s="3"/>
-    </x:row>
-    <x:row r="85" spans="1:7" ht="16.75">
-      <x:c r="A85" s="42" t="s">
-        <x:v>278</x:v>
-      </x:c>
-      <x:c r="B85" s="42" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C85" s="42" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="D85" s="42" t="s">
+      <x:c r="G85" s="37" t="s">
+        <x:v>137</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:7" ht="16.75">
+      <x:c r="A86" s="39"/>
+      <x:c r="B86" s="39"/>
+      <x:c r="C86" s="40"/>
+      <x:c r="D86" s="39"/>
+      <x:c r="E86" s="39"/>
+      <x:c r="F86" s="39"/>
+      <x:c r="G86" s="41"/>
+    </x:row>
+    <x:row r="88" spans="1:7">
+      <x:c r="A88" s="3" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="B88" s="3" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="C88" s="3" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D88" s="3"/>
+      <x:c r="E88" s="3"/>
+      <x:c r="F88" s="3"/>
+      <x:c r="G88" s="3"/>
+    </x:row>
+    <x:row r="89" spans="1:7" ht="16.75">
+      <x:c r="A89" s="42" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="B89" s="42" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="E85" s="42" t="s">
-        <x:v>292</x:v>
-      </x:c>
-      <x:c r="F85" s="42" t="s">
-        <x:v>269</x:v>
-      </x:c>
-      <x:c r="G85" s="43" t="s">
-        <x:v>256</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="86" spans="1:7">
-      <x:c r="A86" s="36" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="B86" s="36" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="C86" s="36"/>
-      <x:c r="D86" s="36" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="E86" s="36" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F86" s="36" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="G86" s="37" t="s">
-        <x:v>329</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="87" spans="1:7" s="3" customFormat="1">
-      <x:c r="A87" s="36" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="B87" s="36" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="C87" s="36">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="D87" s="36" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="E87" s="36" t="s">
-        <x:v>282</x:v>
-      </x:c>
-      <x:c r="F87" s="36" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="G87" s="37" t="s">
-        <x:v>148</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="88" spans="1:7" s="3" customFormat="1">
-      <x:c r="A88" s="36" t="s">
-        <x:v>383</x:v>
-      </x:c>
-      <x:c r="B88" s="36" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="C88" s="36">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="D88" s="36" t="s">
-        <x:v>254</x:v>
-      </x:c>
-      <x:c r="E88" s="36"/>
-      <x:c r="F88" s="36"/>
-      <x:c r="G88" s="37" t="s">
-        <x:v>273</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="89" spans="1:7" s="3" customFormat="1">
-      <x:c r="A89" s="36" t="s">
-        <x:v>351</x:v>
-      </x:c>
-      <x:c r="B89" s="36" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="C89" s="36">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="D89" s="36" t="s">
-        <x:v>254</x:v>
-      </x:c>
-      <x:c r="E89" s="36"/>
-      <x:c r="F89" s="36"/>
-      <x:c r="G89" s="37" t="s">
-        <x:v>255</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="90" spans="1:7" s="3" customFormat="1">
+      <x:c r="C89" s="42" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D89" s="42" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="E89" s="42" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="F89" s="42" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="G89" s="43" t="s">
+        <x:v>270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:7">
       <x:c r="A90" s="36" t="s">
-        <x:v>356</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B90" s="36" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="C90" s="36">
-        <x:v>100</x:v>
-      </x:c>
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C90" s="36"/>
       <x:c r="D90" s="36" t="s">
-        <x:v>254</x:v>
-      </x:c>
-      <x:c r="E90" s="36"/>
-      <x:c r="F90" s="36"/>
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E90" s="36" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="F90" s="36" t="s">
+        <x:v>288</x:v>
+      </x:c>
       <x:c r="G90" s="37" t="s">
-        <x:v>284</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="91" spans="1:7">
+        <x:v>340</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:7" s="3" customFormat="1">
       <x:c r="A91" s="36" t="s">
-        <x:v>333</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B91" s="36" t="s">
-        <x:v>82</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C91" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D91" s="36" t="s">
-        <x:v>254</x:v>
-      </x:c>
-      <x:c r="E91" s="36"/>
-      <x:c r="F91" s="36"/>
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E91" s="36" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="F91" s="36" t="s">
+        <x:v>288</x:v>
+      </x:c>
       <x:c r="G91" s="37" t="s">
-        <x:v>263</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="92" spans="1:7">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:7" s="3" customFormat="1">
       <x:c r="A92" s="36" t="s">
-        <x:v>374</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="B92" s="36" t="s">
-        <x:v>82</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C92" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D92" s="36" t="s">
-        <x:v>254</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="E92" s="36"/>
       <x:c r="F92" s="36"/>
       <x:c r="G92" s="37" t="s">
-        <x:v>261</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="93" spans="1:7">
+        <x:v>283</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:7" s="3" customFormat="1">
       <x:c r="A93" s="36" t="s">
-        <x:v>368</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="B93" s="36" t="s">
-        <x:v>82</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C93" s="36">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D93" s="36" t="s">
-        <x:v>254</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="E93" s="36"/>
-      <x:c r="F93" s="36" t="s">
+      <x:c r="F93" s="36"/>
+      <x:c r="G93" s="37" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:7" s="3" customFormat="1">
+      <x:c r="A94" s="36" t="s">
+        <x:v>367</x:v>
+      </x:c>
+      <x:c r="B94" s="36" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C94" s="36">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D94" s="36" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="E94" s="36"/>
+      <x:c r="F94" s="36"/>
+      <x:c r="G94" s="37" t="s">
+        <x:v>292</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:7">
+      <x:c r="A95" s="36" t="s">
+        <x:v>353</x:v>
+      </x:c>
+      <x:c r="B95" s="36" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C95" s="36">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D95" s="36" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="E95" s="36"/>
+      <x:c r="F95" s="36"/>
+      <x:c r="G95" s="37" t="s">
+        <x:v>267</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:7">
+      <x:c r="A96" s="36" t="s">
+        <x:v>382</x:v>
+      </x:c>
+      <x:c r="B96" s="36" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C96" s="36">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D96" s="36" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="E96" s="36"/>
+      <x:c r="F96" s="36"/>
+      <x:c r="G96" s="37" t="s">
+        <x:v>259</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:7">
+      <x:c r="A97" s="36" t="s">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="B97" s="36" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C97" s="36">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D97" s="36" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="E97" s="36"/>
+      <x:c r="F97" s="36" t="s">
         <x:v>248</x:v>
       </x:c>
-      <x:c r="G93" s="37" t="s">
-        <x:v>72</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="94" spans="1:7" ht="16.75">
-      <x:c r="A94" s="39"/>
-      <x:c r="B94" s="39"/>
-      <x:c r="C94" s="40"/>
-      <x:c r="D94" s="39"/>
-      <x:c r="E94" s="39"/>
-      <x:c r="F94" s="39"/>
-      <x:c r="G94" s="41"/>
-    </x:row>
-    <x:row r="96" spans="1:7">
-      <x:c r="A96" s="3" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="B96" s="3" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C96" s="3" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="D96" s="3"/>
-      <x:c r="E96" s="3"/>
-      <x:c r="F96" s="3"/>
-      <x:c r="G96" s="3"/>
-    </x:row>
-    <x:row r="97" spans="1:7" ht="16.75">
-      <x:c r="A97" s="42" t="s">
-        <x:v>278</x:v>
-      </x:c>
-      <x:c r="B97" s="42" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C97" s="42" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="D97" s="42" t="s">
+      <x:c r="G97" s="37" t="s">
+        <x:v>137</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:7" ht="16.75">
+      <x:c r="A98" s="39"/>
+      <x:c r="B98" s="39"/>
+      <x:c r="C98" s="40"/>
+      <x:c r="D98" s="39"/>
+      <x:c r="E98" s="39"/>
+      <x:c r="F98" s="39"/>
+      <x:c r="G98" s="41"/>
+    </x:row>
+    <x:row r="100" spans="1:7">
+      <x:c r="A100" s="3" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="B100" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C100" s="3" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D100" s="3"/>
+      <x:c r="E100" s="3"/>
+      <x:c r="F100" s="3"/>
+      <x:c r="G100" s="3"/>
+    </x:row>
+    <x:row r="101" spans="1:7" ht="16.75">
+      <x:c r="A101" s="42" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="B101" s="42" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="E97" s="42" t="s">
-        <x:v>292</x:v>
-      </x:c>
-      <x:c r="F97" s="42" t="s">
-        <x:v>269</x:v>
-      </x:c>
-      <x:c r="G97" s="43" t="s">
-        <x:v>256</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="98" spans="1:7">
-      <x:c r="A98" s="36" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="B98" s="36" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="C98" s="36"/>
-      <x:c r="D98" s="36" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="E98" s="36"/>
-      <x:c r="F98" s="36" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="G98" s="37" t="s">
-        <x:v>164</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="99" spans="1:7">
-      <x:c r="A99" s="36" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="B99" s="36" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="C99" s="36"/>
-      <x:c r="D99" s="36" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="E99" s="36" t="s">
-        <x:v>282</x:v>
-      </x:c>
-      <x:c r="F99" s="36" t="s">
+      <x:c r="C101" s="42" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D101" s="42" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="E101" s="42" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="F101" s="42" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="G101" s="43" t="s">
+        <x:v>270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:7">
+      <x:c r="A102" s="36" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="B102" s="36" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C102" s="36"/>
+      <x:c r="D102" s="36" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E102" s="36"/>
+      <x:c r="F102" s="36" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="G102" s="37" t="s">
+        <x:v>89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:7">
+      <x:c r="A103" s="36" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="B103" s="36" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C103" s="36"/>
+      <x:c r="D103" s="36" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E103" s="36" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="F103" s="36" t="s">
         <x:v>248</x:v>
       </x:c>
-      <x:c r="G99" s="37" t="s">
-        <x:v>343</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="100" spans="1:7">
-      <x:c r="A100" s="36" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="B100" s="36" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="C100" s="36">
+      <x:c r="G103" s="37" t="s">
+        <x:v>354</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:7">
+      <x:c r="A104" s="36" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B104" s="36" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C104" s="36">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="D100" s="36" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="E100" s="36"/>
-      <x:c r="F100" s="36"/>
-      <x:c r="G100" s="37" t="s">
-        <x:v>90</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="101" spans="1:7">
-      <x:c r="A101" s="36"/>
-      <x:c r="B101" s="36"/>
-      <x:c r="C101" s="36"/>
-      <x:c r="D101" s="36"/>
-      <x:c r="E101" s="36"/>
-      <x:c r="F101" s="36"/>
-      <x:c r="G101" s="37"/>
-    </x:row>
-    <x:row r="102" spans="1:7">
-      <x:c r="A102" s="36"/>
-      <x:c r="B102" s="36"/>
-      <x:c r="C102" s="36"/>
-      <x:c r="D102" s="36"/>
-      <x:c r="E102" s="36"/>
-      <x:c r="F102" s="36"/>
-      <x:c r="G102" s="37"/>
-    </x:row>
-    <x:row r="103" spans="1:7">
-      <x:c r="A103" s="36"/>
-      <x:c r="B103" s="36"/>
-      <x:c r="C103" s="36"/>
-      <x:c r="D103" s="36"/>
-      <x:c r="E103" s="36"/>
-      <x:c r="F103" s="36"/>
-      <x:c r="G103" s="37"/>
-    </x:row>
-    <x:row r="104" spans="1:7">
-      <x:c r="A104" s="36"/>
-      <x:c r="B104" s="36"/>
-      <x:c r="C104" s="36"/>
-      <x:c r="D104" s="36"/>
+      <x:c r="D104" s="36" t="s">
+        <x:v>62</x:v>
+      </x:c>
       <x:c r="E104" s="36"/>
       <x:c r="F104" s="36"/>
-      <x:c r="G104" s="37"/>
+      <x:c r="G104" s="37" t="s">
+        <x:v>132</x:v>
+      </x:c>
     </x:row>
     <x:row r="105" spans="1:7">
       <x:c r="A105" s="36"/>
@@ -7783,337 +7809,337 @@
       <x:c r="F105" s="36"/>
       <x:c r="G105" s="37"/>
     </x:row>
-    <x:row r="106" spans="1:7" ht="16.75">
-      <x:c r="A106" s="39" t="s">
-        <x:v>298</x:v>
-      </x:c>
-      <x:c r="B106" s="39"/>
-      <x:c r="C106" s="40"/>
-      <x:c r="D106" s="39"/>
-      <x:c r="E106" s="39"/>
-      <x:c r="F106" s="39"/>
-      <x:c r="G106" s="41"/>
+    <x:row r="106" spans="1:7">
+      <x:c r="A106" s="36"/>
+      <x:c r="B106" s="36"/>
+      <x:c r="C106" s="36"/>
+      <x:c r="D106" s="36"/>
+      <x:c r="E106" s="36"/>
+      <x:c r="F106" s="36"/>
+      <x:c r="G106" s="37"/>
+    </x:row>
+    <x:row r="107" spans="1:7">
+      <x:c r="A107" s="36"/>
+      <x:c r="B107" s="36"/>
+      <x:c r="C107" s="36"/>
+      <x:c r="D107" s="36"/>
+      <x:c r="E107" s="36"/>
+      <x:c r="F107" s="36"/>
+      <x:c r="G107" s="37"/>
     </x:row>
     <x:row r="108" spans="1:7">
-      <x:c r="A108" s="3" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="B108" s="3" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="C108" s="3" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="D108" s="3"/>
-      <x:c r="E108" s="3"/>
-      <x:c r="F108" s="3"/>
-      <x:c r="G108" s="3"/>
-    </x:row>
-    <x:row r="109" spans="1:7" ht="16.75">
-      <x:c r="A109" s="42" t="s">
-        <x:v>278</x:v>
-      </x:c>
-      <x:c r="B109" s="42" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C109" s="42" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="D109" s="42" t="s">
+      <x:c r="A108" s="36"/>
+      <x:c r="B108" s="36"/>
+      <x:c r="C108" s="36"/>
+      <x:c r="D108" s="36"/>
+      <x:c r="E108" s="36"/>
+      <x:c r="F108" s="36"/>
+      <x:c r="G108" s="37"/>
+    </x:row>
+    <x:row r="109" spans="1:7">
+      <x:c r="A109" s="36"/>
+      <x:c r="B109" s="36"/>
+      <x:c r="C109" s="36"/>
+      <x:c r="D109" s="36"/>
+      <x:c r="E109" s="36"/>
+      <x:c r="F109" s="36"/>
+      <x:c r="G109" s="37"/>
+    </x:row>
+    <x:row r="110" spans="1:7" ht="16.75">
+      <x:c r="A110" s="39" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="B110" s="39"/>
+      <x:c r="C110" s="40"/>
+      <x:c r="D110" s="39"/>
+      <x:c r="E110" s="39"/>
+      <x:c r="F110" s="39"/>
+      <x:c r="G110" s="41"/>
+    </x:row>
+    <x:row r="112" spans="1:7">
+      <x:c r="A112" s="3" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="B112" s="3" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C112" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D112" s="3"/>
+      <x:c r="E112" s="3"/>
+      <x:c r="F112" s="3"/>
+      <x:c r="G112" s="3"/>
+    </x:row>
+    <x:row r="113" spans="1:7" ht="16.75">
+      <x:c r="A113" s="42" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="B113" s="42" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="E109" s="42" t="s">
-        <x:v>292</x:v>
-      </x:c>
-      <x:c r="F109" s="42" t="s">
-        <x:v>269</x:v>
-      </x:c>
-      <x:c r="G109" s="43" t="s">
-        <x:v>256</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="110" spans="1:7">
-      <x:c r="A110" s="36" t="s">
-        <x:v>361</x:v>
-      </x:c>
-      <x:c r="B110" s="36" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="C110" s="36"/>
-      <x:c r="D110" s="36" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="E110" s="36"/>
-      <x:c r="F110" s="36" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="G110" s="37" t="s">
-        <x:v>179</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="111" spans="1:7">
-      <x:c r="A111" s="36" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="B111" s="36" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="C111" s="36">
+      <x:c r="C113" s="42" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D113" s="42" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="E113" s="42" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="F113" s="42" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="G113" s="43" t="s">
+        <x:v>270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114" spans="1:7">
+      <x:c r="A114" s="36" t="s">
+        <x:v>357</x:v>
+      </x:c>
+      <x:c r="B114" s="36" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C114" s="36"/>
+      <x:c r="D114" s="36" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E114" s="36"/>
+      <x:c r="F114" s="36" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="G114" s="37" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115" spans="1:7">
+      <x:c r="A115" s="36" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="B115" s="36" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C115" s="36">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="D111" s="36" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="E111" s="36" t="s">
-        <x:v>282</x:v>
-      </x:c>
-      <x:c r="F111" s="36" t="s">
+      <x:c r="D115" s="36" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E115" s="36" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="F115" s="36" t="s">
         <x:v>248</x:v>
       </x:c>
-      <x:c r="G111" s="37" t="s">
-        <x:v>343</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="112" spans="1:7">
-      <x:c r="A112" s="36" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="B112" s="36" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="C112" s="36"/>
-      <x:c r="D112" s="36" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="E112" s="36" t="s">
-        <x:v>282</x:v>
-      </x:c>
-      <x:c r="F112" s="36" t="s">
+      <x:c r="G115" s="37" t="s">
+        <x:v>354</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:7">
+      <x:c r="A116" s="36" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B116" s="36" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C116" s="36"/>
+      <x:c r="D116" s="36" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E116" s="36" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="F116" s="36" t="s">
         <x:v>248</x:v>
       </x:c>
-      <x:c r="G112" s="37" t="s">
-        <x:v>359</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="113" spans="1:7">
-      <x:c r="A113" s="36"/>
-      <x:c r="B113" s="36"/>
-      <x:c r="C113" s="36"/>
-      <x:c r="D113" s="36"/>
-      <x:c r="E113" s="36"/>
-      <x:c r="F113" s="36"/>
-      <x:c r="G113" s="37"/>
-    </x:row>
-    <x:row r="114" spans="1:7" ht="16.75">
-      <x:c r="A114" s="39"/>
-      <x:c r="B114" s="39"/>
-      <x:c r="C114" s="40"/>
-      <x:c r="D114" s="39"/>
-      <x:c r="E114" s="39"/>
-      <x:c r="F114" s="39"/>
-      <x:c r="G114" s="41"/>
-    </x:row>
-    <x:row r="116" spans="1:7">
-      <x:c r="A116" s="3" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="B116" s="3" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="C116" s="3" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="D116" s="3"/>
-      <x:c r="E116" s="3"/>
-      <x:c r="F116" s="3"/>
-      <x:c r="G116" s="3"/>
-    </x:row>
-    <x:row r="117" spans="1:7" ht="16.75">
-      <x:c r="A117" s="42" t="s">
-        <x:v>278</x:v>
-      </x:c>
-      <x:c r="B117" s="42" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C117" s="42" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="D117" s="42" t="s">
+      <x:c r="G116" s="37" t="s">
+        <x:v>368</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117" spans="1:7">
+      <x:c r="A117" s="36"/>
+      <x:c r="B117" s="36"/>
+      <x:c r="C117" s="36"/>
+      <x:c r="D117" s="36"/>
+      <x:c r="E117" s="36"/>
+      <x:c r="F117" s="36"/>
+      <x:c r="G117" s="37"/>
+    </x:row>
+    <x:row r="118" spans="1:7" ht="16.75">
+      <x:c r="A118" s="39"/>
+      <x:c r="B118" s="39"/>
+      <x:c r="C118" s="40"/>
+      <x:c r="D118" s="39"/>
+      <x:c r="E118" s="39"/>
+      <x:c r="F118" s="39"/>
+      <x:c r="G118" s="41"/>
+    </x:row>
+    <x:row r="120" spans="1:7">
+      <x:c r="A120" s="3" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="B120" s="3" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C120" s="3" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D120" s="3"/>
+      <x:c r="E120" s="3"/>
+      <x:c r="F120" s="3"/>
+      <x:c r="G120" s="3"/>
+    </x:row>
+    <x:row r="121" spans="1:7" ht="16.75">
+      <x:c r="A121" s="42" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="B121" s="42" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="E117" s="42" t="s">
-        <x:v>292</x:v>
-      </x:c>
-      <x:c r="F117" s="42" t="s">
-        <x:v>269</x:v>
-      </x:c>
-      <x:c r="G117" s="43" t="s">
-        <x:v>256</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="118" spans="1:7" s="3" customFormat="1">
-      <x:c r="A118" s="36"/>
-      <x:c r="B118" s="36"/>
-      <x:c r="C118" s="36"/>
-      <x:c r="D118" s="36"/>
-      <x:c r="E118" s="36"/>
-      <x:c r="F118" s="36"/>
-      <x:c r="G118" s="37"/>
-    </x:row>
-    <x:row r="119" spans="1:7">
-      <x:c r="A119" s="36" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="B119" s="36" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="C119" s="36"/>
-      <x:c r="D119" s="36" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="E119" s="36"/>
-      <x:c r="F119" s="36" t="s">
-        <x:v>248</x:v>
-      </x:c>
-      <x:c r="G119" s="37" t="s">
-        <x:v>343</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="120" spans="1:7">
-      <x:c r="A120" s="36" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="B120" s="36" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="C120" s="36">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="D120" s="36" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="E120" s="36"/>
-      <x:c r="F120" s="36"/>
-      <x:c r="G120" s="37" t="s">
-        <x:v>286</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="121" spans="1:7">
-      <x:c r="A121" s="36" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="B121" s="36" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="C121" s="36">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="D121" s="36"/>
-      <x:c r="E121" s="36"/>
-      <x:c r="F121" s="36"/>
-      <x:c r="G121" s="37" t="s">
-        <x:v>184</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="122" spans="1:7">
-      <x:c r="A122" s="36" t="s">
-        <x:v>249</x:v>
-      </x:c>
-      <x:c r="B122" s="36" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="C122" s="36">
-        <x:v>100</x:v>
-      </x:c>
+      <x:c r="C121" s="42" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D121" s="42" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="E121" s="42" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="F121" s="42" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="G121" s="43" t="s">
+        <x:v>270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122" spans="1:7" s="3" customFormat="1">
+      <x:c r="A122" s="36"/>
+      <x:c r="B122" s="36"/>
+      <x:c r="C122" s="36"/>
       <x:c r="D122" s="36"/>
       <x:c r="E122" s="36"/>
       <x:c r="F122" s="36"/>
-      <x:c r="G122" s="37" t="s">
-        <x:v>283</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="123" spans="1:7" ht="16.75">
-      <x:c r="A123" s="39"/>
-      <x:c r="B123" s="39"/>
-      <x:c r="C123" s="40"/>
-      <x:c r="D123" s="39"/>
-      <x:c r="E123" s="39"/>
-      <x:c r="F123" s="39"/>
-      <x:c r="G123" s="41"/>
+      <x:c r="G122" s="37"/>
+    </x:row>
+    <x:row r="123" spans="1:7">
+      <x:c r="A123" s="36" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="B123" s="36" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C123" s="36"/>
+      <x:c r="D123" s="36" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E123" s="36"/>
+      <x:c r="F123" s="36" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="G123" s="37" t="s">
+        <x:v>354</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124" spans="1:7">
+      <x:c r="A124" s="36" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B124" s="36" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C124" s="36">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D124" s="36" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E124" s="36"/>
+      <x:c r="F124" s="36"/>
+      <x:c r="G124" s="37" t="s">
+        <x:v>274</x:v>
+      </x:c>
     </x:row>
     <x:row r="125" spans="1:7">
-      <x:c r="A125" s="3" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="B125" s="3" t="s">
-        <x:v>305</x:v>
-      </x:c>
-      <x:c r="C125" s="3" t="s">
-        <x:v>353</x:v>
-      </x:c>
-      <x:c r="D125" s="3"/>
-      <x:c r="E125" s="3"/>
-      <x:c r="F125" s="3"/>
-      <x:c r="G125" s="3"/>
-    </x:row>
-    <x:row r="126" spans="1:7" ht="16.75">
-      <x:c r="A126" s="42" t="s">
-        <x:v>278</x:v>
-      </x:c>
-      <x:c r="B126" s="42" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C126" s="42" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="D126" s="42" t="s">
+      <x:c r="A125" s="36" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B125" s="36" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C125" s="36">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D125" s="36"/>
+      <x:c r="E125" s="36"/>
+      <x:c r="F125" s="36"/>
+      <x:c r="G125" s="37" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126" spans="1:7">
+      <x:c r="A126" s="36" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="B126" s="36" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C126" s="36">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D126" s="36"/>
+      <x:c r="E126" s="36"/>
+      <x:c r="F126" s="36"/>
+      <x:c r="G126" s="37" t="s">
+        <x:v>286</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="127" spans="1:7" ht="16.75">
+      <x:c r="A127" s="39"/>
+      <x:c r="B127" s="39"/>
+      <x:c r="C127" s="40"/>
+      <x:c r="D127" s="39"/>
+      <x:c r="E127" s="39"/>
+      <x:c r="F127" s="39"/>
+      <x:c r="G127" s="41"/>
+    </x:row>
+    <x:row r="129" spans="1:7">
+      <x:c r="A129" s="3" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="B129" s="3" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="C129" s="3" t="s">
+        <x:v>369</x:v>
+      </x:c>
+      <x:c r="D129" s="3"/>
+      <x:c r="E129" s="3"/>
+      <x:c r="F129" s="3"/>
+      <x:c r="G129" s="3"/>
+    </x:row>
+    <x:row r="130" spans="1:7" ht="16.75">
+      <x:c r="A130" s="42" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="B130" s="42" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="E126" s="42" t="s">
-        <x:v>292</x:v>
-      </x:c>
-      <x:c r="F126" s="42" t="s">
-        <x:v>269</x:v>
-      </x:c>
-      <x:c r="G126" s="43" t="s">
-        <x:v>256</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="127" spans="1:7">
-      <x:c r="A127" s="36"/>
-      <x:c r="B127" s="36"/>
-      <x:c r="C127" s="36"/>
-      <x:c r="D127" s="36"/>
-      <x:c r="E127" s="36"/>
-      <x:c r="F127" s="36"/>
-      <x:c r="G127" s="37"/>
-    </x:row>
-    <x:row r="128" spans="1:7">
-      <x:c r="A128" s="36"/>
-      <x:c r="B128" s="36"/>
-      <x:c r="C128" s="36"/>
-      <x:c r="D128" s="36"/>
-      <x:c r="E128" s="36"/>
-      <x:c r="F128" s="36"/>
-      <x:c r="G128" s="37"/>
-    </x:row>
-    <x:row r="129" spans="1:7">
-      <x:c r="A129" s="36"/>
-      <x:c r="B129" s="36"/>
-      <x:c r="C129" s="36"/>
-      <x:c r="D129" s="36"/>
-      <x:c r="E129" s="36"/>
-      <x:c r="F129" s="36"/>
-      <x:c r="G129" s="37"/>
-    </x:row>
-    <x:row r="130" spans="1:7">
-      <x:c r="A130" s="36"/>
-      <x:c r="B130" s="36"/>
-      <x:c r="C130" s="36"/>
-      <x:c r="D130" s="36"/>
-      <x:c r="E130" s="36"/>
-      <x:c r="F130" s="36"/>
-      <x:c r="G130" s="37"/>
+      <x:c r="C130" s="42" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D130" s="42" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="E130" s="42" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="F130" s="42" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="G130" s="43" t="s">
+        <x:v>270</x:v>
+      </x:c>
     </x:row>
     <x:row r="131" spans="1:7">
       <x:c r="A131" s="36"/>
@@ -8124,101 +8150,89 @@
       <x:c r="F131" s="36"/>
       <x:c r="G131" s="37"/>
     </x:row>
-    <x:row r="132" spans="1:7" ht="16.75">
-      <x:c r="A132" s="39" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B132" s="39"/>
-      <x:c r="C132" s="40"/>
-      <x:c r="D132" s="39"/>
-      <x:c r="E132" s="39"/>
-      <x:c r="F132" s="39"/>
-      <x:c r="G132" s="41"/>
+    <x:row r="132" spans="1:7">
+      <x:c r="A132" s="36"/>
+      <x:c r="B132" s="36"/>
+      <x:c r="C132" s="36"/>
+      <x:c r="D132" s="36"/>
+      <x:c r="E132" s="36"/>
+      <x:c r="F132" s="36"/>
+      <x:c r="G132" s="37"/>
+    </x:row>
+    <x:row r="133" spans="1:7">
+      <x:c r="A133" s="36"/>
+      <x:c r="B133" s="36"/>
+      <x:c r="C133" s="36"/>
+      <x:c r="D133" s="36"/>
+      <x:c r="E133" s="36"/>
+      <x:c r="F133" s="36"/>
+      <x:c r="G133" s="37"/>
     </x:row>
     <x:row r="134" spans="1:7">
-      <x:c r="A134" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="B134" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C134" s="2" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="D134" s="2"/>
-      <x:c r="E134" s="2"/>
-      <x:c r="F134" s="2"/>
-      <x:c r="G134" s="2"/>
-    </x:row>
-    <x:row r="135" spans="1:7" ht="16.75">
-      <x:c r="A135" s="42" t="s">
-        <x:v>278</x:v>
-      </x:c>
-      <x:c r="B135" s="42" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C135" s="42" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="D135" s="42" t="s">
+      <x:c r="A134" s="36"/>
+      <x:c r="B134" s="36"/>
+      <x:c r="C134" s="36"/>
+      <x:c r="D134" s="36"/>
+      <x:c r="E134" s="36"/>
+      <x:c r="F134" s="36"/>
+      <x:c r="G134" s="37"/>
+    </x:row>
+    <x:row r="135" spans="1:7">
+      <x:c r="A135" s="36"/>
+      <x:c r="B135" s="36"/>
+      <x:c r="C135" s="36"/>
+      <x:c r="D135" s="36"/>
+      <x:c r="E135" s="36"/>
+      <x:c r="F135" s="36"/>
+      <x:c r="G135" s="37"/>
+    </x:row>
+    <x:row r="136" spans="1:7" ht="16.75">
+      <x:c r="A136" s="39" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B136" s="39"/>
+      <x:c r="C136" s="40"/>
+      <x:c r="D136" s="39"/>
+      <x:c r="E136" s="39"/>
+      <x:c r="F136" s="39"/>
+      <x:c r="G136" s="41"/>
+    </x:row>
+    <x:row r="138" spans="1:7">
+      <x:c r="A138" s="2" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="B138" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C138" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D138" s="2"/>
+      <x:c r="E138" s="2"/>
+      <x:c r="F138" s="2"/>
+      <x:c r="G138" s="2"/>
+    </x:row>
+    <x:row r="139" spans="1:7" ht="16.75">
+      <x:c r="A139" s="42" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="B139" s="42" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="E135" s="42" t="s">
-        <x:v>292</x:v>
-      </x:c>
-      <x:c r="F135" s="42" t="s">
-        <x:v>269</x:v>
-      </x:c>
-      <x:c r="G135" s="43" t="s">
-        <x:v>256</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="136" spans="1:7">
-      <x:c r="A136" s="36"/>
-      <x:c r="B136" s="36"/>
-      <x:c r="C136" s="36"/>
-      <x:c r="D136" s="36"/>
-      <x:c r="E136" s="36"/>
-      <x:c r="F136" s="36"/>
-      <x:c r="G136" s="37"/>
-    </x:row>
-    <x:row r="137" spans="1:7">
-      <x:c r="A137" s="36" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="B137" s="36"/>
-      <x:c r="C137" s="36"/>
-      <x:c r="D137" s="36"/>
-      <x:c r="E137" s="36"/>
-      <x:c r="F137" s="36" t="s">
-        <x:v>248</x:v>
-      </x:c>
-      <x:c r="G137" s="37"/>
-    </x:row>
-    <x:row r="138" spans="1:7">
-      <x:c r="A138" s="36" t="s">
-        <x:v>380</x:v>
-      </x:c>
-      <x:c r="B138" s="36"/>
-      <x:c r="C138" s="36"/>
-      <x:c r="D138" s="36"/>
-      <x:c r="E138" s="36"/>
-      <x:c r="F138" s="36" t="s">
-        <x:v>248</x:v>
-      </x:c>
-      <x:c r="G138" s="37"/>
-    </x:row>
-    <x:row r="139" spans="1:7">
-      <x:c r="A139" s="36" t="s">
-        <x:v>366</x:v>
-      </x:c>
-      <x:c r="B139" s="36"/>
-      <x:c r="C139" s="36"/>
-      <x:c r="D139" s="36"/>
-      <x:c r="E139" s="36"/>
-      <x:c r="F139" s="36"/>
-      <x:c r="G139" s="37" t="s">
+      <x:c r="C139" s="42" t="s">
         <x:v>94</x:v>
+      </x:c>
+      <x:c r="D139" s="42" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="E139" s="42" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="F139" s="42" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="G139" s="43" t="s">
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:7">
@@ -8230,118 +8244,166 @@
       <x:c r="F140" s="36"/>
       <x:c r="G140" s="37"/>
     </x:row>
-    <x:row r="141" spans="1:7" ht="16.75">
-      <x:c r="A141" s="39"/>
-      <x:c r="B141" s="39"/>
-      <x:c r="C141" s="40"/>
-      <x:c r="D141" s="39"/>
-      <x:c r="E141" s="39"/>
-      <x:c r="F141" s="39"/>
-      <x:c r="G141" s="41"/>
+    <x:row r="141" spans="1:7">
+      <x:c r="A141" s="36" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="B141" s="36"/>
+      <x:c r="C141" s="36"/>
+      <x:c r="D141" s="36"/>
+      <x:c r="E141" s="36"/>
+      <x:c r="F141" s="36" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="G141" s="37"/>
+    </x:row>
+    <x:row r="142" spans="1:7">
+      <x:c r="A142" s="36" t="s">
+        <x:v>391</x:v>
+      </x:c>
+      <x:c r="B142" s="36"/>
+      <x:c r="C142" s="36"/>
+      <x:c r="D142" s="36"/>
+      <x:c r="E142" s="36"/>
+      <x:c r="F142" s="36" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="G142" s="37"/>
     </x:row>
     <x:row r="143" spans="1:7">
-      <x:c r="A143" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="B143" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="C143" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="D143" s="2"/>
-      <x:c r="E143" s="2"/>
-      <x:c r="F143" s="2"/>
-      <x:c r="G143" s="2"/>
-    </x:row>
-    <x:row r="144" spans="1:7" ht="16.75">
-      <x:c r="A144" s="51" t="s">
-        <x:v>278</x:v>
-      </x:c>
-      <x:c r="B144" s="42" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C144" s="42" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="D144" s="42" t="s">
+      <x:c r="A143" s="36" t="s">
+        <x:v>373</x:v>
+      </x:c>
+      <x:c r="B143" s="36"/>
+      <x:c r="C143" s="36"/>
+      <x:c r="D143" s="36"/>
+      <x:c r="E143" s="36"/>
+      <x:c r="F143" s="36"/>
+      <x:c r="G143" s="37" t="s">
+        <x:v>146</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="144" spans="1:7">
+      <x:c r="A144" s="36"/>
+      <x:c r="B144" s="36"/>
+      <x:c r="C144" s="36"/>
+      <x:c r="D144" s="36"/>
+      <x:c r="E144" s="36"/>
+      <x:c r="F144" s="36"/>
+      <x:c r="G144" s="37"/>
+    </x:row>
+    <x:row r="145" spans="1:7" ht="16.75">
+      <x:c r="A145" s="39"/>
+      <x:c r="B145" s="39"/>
+      <x:c r="C145" s="40"/>
+      <x:c r="D145" s="39"/>
+      <x:c r="E145" s="39"/>
+      <x:c r="F145" s="39"/>
+      <x:c r="G145" s="41"/>
+    </x:row>
+    <x:row r="147" spans="1:7">
+      <x:c r="A147" s="2" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="B147" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C147" s="2" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="D147" s="2"/>
+      <x:c r="E147" s="2"/>
+      <x:c r="F147" s="2"/>
+      <x:c r="G147" s="2"/>
+    </x:row>
+    <x:row r="148" spans="1:7" ht="16.75">
+      <x:c r="A148" s="51" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="B148" s="42" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="E144" s="42" t="s">
-        <x:v>292</x:v>
-      </x:c>
-      <x:c r="F144" s="42" t="s">
-        <x:v>269</x:v>
-      </x:c>
-      <x:c r="G144" s="43" t="s">
-        <x:v>256</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="145" spans="1:7">
-      <x:c r="A145" s="52" t="s">
-        <x:v>380</x:v>
-      </x:c>
-      <x:c r="B145" s="36" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="C145" s="36"/>
-      <x:c r="D145" s="36" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="E145" s="36" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F145" s="36" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="G145" s="37" t="s">
-        <x:v>372</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="146" spans="1:7">
-      <x:c r="A146" s="52"/>
-      <x:c r="B146" s="36"/>
-      <x:c r="C146" s="36"/>
-      <x:c r="D146" s="36"/>
-      <x:c r="E146" s="36"/>
-      <x:c r="F146" s="36"/>
-      <x:c r="G146" s="37"/>
-    </x:row>
-    <x:row r="147" spans="1:7">
-      <x:c r="A147" s="52"/>
-      <x:c r="B147" s="36"/>
-      <x:c r="C147" s="36"/>
-      <x:c r="D147" s="36"/>
-      <x:c r="E147" s="36"/>
-      <x:c r="F147" s="36"/>
-      <x:c r="G147" s="37"/>
-    </x:row>
-    <x:row r="148" spans="1:7">
-      <x:c r="A148" s="52"/>
-      <x:c r="B148" s="36"/>
-      <x:c r="C148" s="36"/>
-      <x:c r="D148" s="36"/>
-      <x:c r="E148" s="36"/>
-      <x:c r="F148" s="36"/>
-      <x:c r="G148" s="37"/>
-    </x:row>
-    <x:row r="149" spans="1:7" ht="16.75">
-      <x:c r="A149" s="53"/>
-      <x:c r="B149" s="39"/>
-      <x:c r="C149" s="39"/>
-      <x:c r="D149" s="39"/>
-      <x:c r="E149" s="39"/>
-      <x:c r="F149" s="39"/>
-      <x:c r="G149" s="41"/>
+      <x:c r="C148" s="42" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D148" s="42" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="E148" s="42" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="F148" s="42" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="G148" s="43" t="s">
+        <x:v>270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="149" spans="1:7">
+      <x:c r="A149" s="52" t="s">
+        <x:v>391</x:v>
+      </x:c>
+      <x:c r="B149" s="36" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C149" s="36"/>
+      <x:c r="D149" s="36" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E149" s="36" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="F149" s="36" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="G149" s="37" t="s">
+        <x:v>374</x:v>
+      </x:c>
     </x:row>
     <x:row r="150" spans="1:7">
-      <x:c r="A150" s="2"/>
-      <x:c r="B150" s="2"/>
-      <x:c r="C150" s="2"/>
-      <x:c r="D150" s="2"/>
-      <x:c r="E150" s="2"/>
-      <x:c r="F150" s="2"/>
-      <x:c r="G150" s="2"/>
+      <x:c r="A150" s="52"/>
+      <x:c r="B150" s="36"/>
+      <x:c r="C150" s="36"/>
+      <x:c r="D150" s="36"/>
+      <x:c r="E150" s="36"/>
+      <x:c r="F150" s="36"/>
+      <x:c r="G150" s="37"/>
+    </x:row>
+    <x:row r="151" spans="1:7">
+      <x:c r="A151" s="52"/>
+      <x:c r="B151" s="36"/>
+      <x:c r="C151" s="36"/>
+      <x:c r="D151" s="36"/>
+      <x:c r="E151" s="36"/>
+      <x:c r="F151" s="36"/>
+      <x:c r="G151" s="37"/>
+    </x:row>
+    <x:row r="152" spans="1:7">
+      <x:c r="A152" s="52"/>
+      <x:c r="B152" s="36"/>
+      <x:c r="C152" s="36"/>
+      <x:c r="D152" s="36"/>
+      <x:c r="E152" s="36"/>
+      <x:c r="F152" s="36"/>
+      <x:c r="G152" s="37"/>
+    </x:row>
+    <x:row r="153" spans="1:7" ht="16.75">
+      <x:c r="A153" s="53"/>
+      <x:c r="B153" s="39"/>
+      <x:c r="C153" s="39"/>
+      <x:c r="D153" s="39"/>
+      <x:c r="E153" s="39"/>
+      <x:c r="F153" s="39"/>
+      <x:c r="G153" s="41"/>
+    </x:row>
+    <x:row r="154" spans="1:7">
+      <x:c r="A154" s="2"/>
+      <x:c r="B154" s="2"/>
+      <x:c r="C154" s="2"/>
+      <x:c r="D154" s="2"/>
+      <x:c r="E154" s="2"/>
+      <x:c r="F154" s="2"/>
+      <x:c r="G154" s="2"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
